--- a/data/hotels_by_city/Houston/Houston_shard_549.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_549.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="559">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56764-d106241-Reviews-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Residence-Inn-Houston-The-Woodlands-Lake-Front-Circle.h64194.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1607 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r571521064-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>56764</t>
+  </si>
+  <si>
+    <t>106241</t>
+  </si>
+  <si>
+    <t>571521064</t>
+  </si>
+  <si>
+    <t>04/06/2018</t>
+  </si>
+  <si>
+    <t>Week break</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrived here after Mexico travels for a  week off from our travels so same bed! Comfortable suite water for a hot bath could be hotter Staff friendly helpful and it’s a great place to rest up, do a bit of shopping as it is close really close to the Mall </t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r567030962-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>567030962</t>
+  </si>
+  <si>
+    <t>03/17/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice short stay </t>
+  </si>
+  <si>
+    <t>It was just a week long stay at this place and found to be reasonably good hotel. It’s one of the typical well maintained Residence inns across the States. Best part of this is indoor swimming pool. Staff is helpful and makes every effort to treat you best. Recommend to replace steel utensils to non-stick.Will come back on my next business trip.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r558330332-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>558330332</t>
+  </si>
+  <si>
+    <t>02/04/2018</t>
+  </si>
+  <si>
+    <t>Residence Inn Jan 2018</t>
+  </si>
+  <si>
+    <t>Traveled to The Woodlands area in Jan 1-13 2018 for business.  This was my first visit to the area and first time staying at this hotel.  From the day of my arrival, 01/0/18 thru 01/13/18 I have all good things to say about this hotel.  The hotel and suite were both very clean, the staff was very courteous, friendly and helpful.  Being new to the area i was not sure where things are in the area.  The staff was very good about recommending places to shop, dine and relax.  Overall I thoroughly enjoyed my extended stay at this location and look forward to my next trip to the Woodlands area.  Thank you all.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Brendan M, Assistant General Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded February 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2018</t>
+  </si>
+  <si>
+    <t>Traveled to The Woodlands area in Jan 1-13 2018 for business.  This was my first visit to the area and first time staying at this hotel.  From the day of my arrival, 01/0/18 thru 01/13/18 I have all good things to say about this hotel.  The hotel and suite were both very clean, the staff was very courteous, friendly and helpful.  Being new to the area i was not sure where things are in the area.  The staff was very good about recommending places to shop, dine and relax.  Overall I thoroughly enjoyed my extended stay at this location and look forward to my next trip to the Woodlands area.  Thank you all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r539221728-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>539221728</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>All they care about is making money!</t>
+  </si>
+  <si>
+    <t>RANT ALERT ! As most of my friends and family know, we are displaced due to hurricane harvey. We still cannot start the rebuilding process until the County engineers conduct their assessment. Meanwhile FEMA has been kind enough to extend sheltering for those that qualify. Last Thursday my wife received a call from FEMA extending us through most of November. She went to the hotel lobby and informed them. They had not received this notification yet and therefore could not keep our rooms reserved. Two days later we asked again, yes they had received notification from FEMA but are no longer accepting FEMA vicitms. They had already booked our rooms. We had to leave the hotel.Residence Inn Marriot on Lake Front Circle, in the Hoodlands. They put making $10.00 a night on a room more important than helping out a flood victim. Oh, did I mention that they do have other flood victims extended through December at that same hotel.... Asked if we could pay the difference... Nope... Trust me when I tell you, I would much rather be in a home than a hotel. I dont enjoy hearing doors slam all night and what sounds like a stampede on the floor above me. If in the future I see on the news that Marriot is going out of business I might smile.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded November 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2017</t>
+  </si>
+  <si>
+    <t>RANT ALERT ! As most of my friends and family know, we are displaced due to hurricane harvey. We still cannot start the rebuilding process until the County engineers conduct their assessment. Meanwhile FEMA has been kind enough to extend sheltering for those that qualify. Last Thursday my wife received a call from FEMA extending us through most of November. She went to the hotel lobby and informed them. They had not received this notification yet and therefore could not keep our rooms reserved. Two days later we asked again, yes they had received notification from FEMA but are no longer accepting FEMA vicitms. They had already booked our rooms. We had to leave the hotel.Residence Inn Marriot on Lake Front Circle, in the Hoodlands. They put making $10.00 a night on a room more important than helping out a flood victim. Oh, did I mention that they do have other flood victims extended through December at that same hotel.... Asked if we could pay the difference... Nope... Trust me when I tell you, I would much rather be in a home than a hotel. I dont enjoy hearing doors slam all night and what sounds like a stampede on the floor above me. If in the future I see on the news that Marriot is going out of business I might smile.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r530386213-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>530386213</t>
+  </si>
+  <si>
+    <t>10/05/2017</t>
+  </si>
+  <si>
+    <t>Home away from home with all the comforts of home</t>
+  </si>
+  <si>
+    <t>Check-in was quick and easy.  This was our first stay at a Residence Inn.  When we got to our room, we got some great amenities that I didn't realize we were in for.  Full-size fridge, dishwasher, cook top stove, microwave, etc.  The king room was spacious and had a sitting area.  Pleasantly cool, quiet and comfortable.  Free wifi, and free breakfast in the morning.  It's in a great location of The Woodlands shopping area - upscale retail and many restaurants that are in walking distance.  Would definitely stay here and at a Residence Inn again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded October 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2017</t>
+  </si>
+  <si>
+    <t>Check-in was quick and easy.  This was our first stay at a Residence Inn.  When we got to our room, we got some great amenities that I didn't realize we were in for.  Full-size fridge, dishwasher, cook top stove, microwave, etc.  The king room was spacious and had a sitting area.  Pleasantly cool, quiet and comfortable.  Free wifi, and free breakfast in the morning.  It's in a great location of The Woodlands shopping area - upscale retail and many restaurants that are in walking distance.  Would definitely stay here and at a Residence Inn again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r524384651-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>524384651</t>
+  </si>
+  <si>
+    <t>09/14/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel with Great Location</t>
+  </si>
+  <si>
+    <t>My family stayed here last weekend and enjoyed our stay.  The front desk attendants were very courteous and welcoming.  Housekeeping could be better.  They cleaned the room, but didn't leave extra towels.  Breakfast was good, but common.  The hotel is right off the intestate, easily accessible, close to the mall and a lot of restaurants.  I would definitely recommend this hotel for others and stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded September 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2017</t>
+  </si>
+  <si>
+    <t>My family stayed here last weekend and enjoyed our stay.  The front desk attendants were very courteous and welcoming.  Housekeeping could be better.  They cleaned the room, but didn't leave extra towels.  Breakfast was good, but common.  The hotel is right off the intestate, easily accessible, close to the mall and a lot of restaurants.  I would definitely recommend this hotel for others and stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r515153395-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>515153395</t>
+  </si>
+  <si>
+    <t>08/19/2017</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel that is priced right for a family stay in the woodlands.  The rooms are always clean and the beds are comfortable.  The rooms have a nice work area.  They have a great free breakfast as well.  The staff is always very friendly.  My go to place when in the area.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r498566766-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>498566766</t>
+  </si>
+  <si>
+    <t>07/04/2017</t>
+  </si>
+  <si>
+    <t>Not a good experience</t>
+  </si>
+  <si>
+    <t>Worst part is breakfast. Very monotonous exactly same fruits all 4 days of my stay. Moreover they didn't even credited my rewards points even after writing repeated emails. I will never stay again over here.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded July 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2017</t>
+  </si>
+  <si>
+    <t>Worst part is breakfast. Very monotonous exactly same fruits all 4 days of my stay. Moreover they didn't even credited my rewards points even after writing repeated emails. I will never stay again over here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r498563345-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>498563345</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>This hotel is really great. The rooms are more like a small apartment. Room have a fully equiped kitchen, big couch, tv, big desk. Pool and gym are nice. All the staff really make you feel like home. Target is right across the street and The Woodlands mall is a just a few minutes walking. Includes free parking, free breakfast, free and pay wifi, laundry area and outside play areas. Breakfast includes eggs, bread, meat, cereal, fruits, coffee, juice, pancakes, oatmeal.Some days the hotel organizes events, like beer, sangria and snacks and it's free.I would definitely recommended especially for long stays.They also accept pets!</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r487399872-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>487399872</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>Very nice property and great staff</t>
+  </si>
+  <si>
+    <t>I have been coming here since last October.  The property is always well maintained  and the rooms are nicely updated than the other Residence Inn nearby (better furniture/decor and beds are not sagging).  But what stands out is the staff.  Narin, the housekeeping manager is always available and ensure her staff takes care of the guests' needs (I've never met/saw her counterpart at the other Residence Inn).  Denise is always friendly hosting the social nights.  The front desk (Sarah, Kamila, Deon, Rebecca) is always friendly and helpful.  They all go out of way to make your stay comfortable.  Kudos to Brendan.  I have stayed thousands of nights for the past 20 years for business/pleasure, including upscale &amp; luxury resorts across multiple brands all over the US (including several visits to Hawaii), and what makes this place stand out is the staff and how they make you feel welcomed. One thing they can improve is their Internet access. Even with the premium connection (free for elite members), it does get slow periodically...MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded May 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2017</t>
+  </si>
+  <si>
+    <t>I have been coming here since last October.  The property is always well maintained  and the rooms are nicely updated than the other Residence Inn nearby (better furniture/decor and beds are not sagging).  But what stands out is the staff.  Narin, the housekeeping manager is always available and ensure her staff takes care of the guests' needs (I've never met/saw her counterpart at the other Residence Inn).  Denise is always friendly hosting the social nights.  The front desk (Sarah, Kamila, Deon, Rebecca) is always friendly and helpful.  They all go out of way to make your stay comfortable.  Kudos to Brendan.  I have stayed thousands of nights for the past 20 years for business/pleasure, including upscale &amp; luxury resorts across multiple brands all over the US (including several visits to Hawaii), and what makes this place stand out is the staff and how they make you feel welcomed. One thing they can improve is their Internet access. Even with the premium connection (free for elite members), it does get slow periodically...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r474845023-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>474845023</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>Great place for a long term</t>
+  </si>
+  <si>
+    <t>We stayed 3 weeks, loved the breakfast, the meals in the evening (mon-wed) and the spacious bedrooms with fully equipped kitchen and very comfortable bed.The people at the front desk were very friendly and helpful.We loved it and would stay again.The gym is small but we found no one when we went. We didn't have time to enjoy the swimming pool but we used the self service laundry area, very convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>We stayed 3 weeks, loved the breakfast, the meals in the evening (mon-wed) and the spacious bedrooms with fully equipped kitchen and very comfortable bed.The people at the front desk were very friendly and helpful.We loved it and would stay again.The gym is small but we found no one when we went. We didn't have time to enjoy the swimming pool but we used the self service laundry area, very convenient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r468520248-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>468520248</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice hotel </t>
+  </si>
+  <si>
+    <t>Stayed here a few nights and really enjoyed it.  The staff was super friendly at check in.  The place is very clean.  The rooms are very comfortable and there is great space to relax and work.   Love all the plug ins around the room.  Free internet is a bit slow.  Great breakfast that is free in the morning.  MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded March 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here a few nights and really enjoyed it.  The staff was super friendly at check in.  The place is very clean.  The rooms are very comfortable and there is great space to relax and work.   Love all the plug ins around the room.  Free internet is a bit slow.  Great breakfast that is free in the morning.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r447828877-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>447828877</t>
+  </si>
+  <si>
+    <t>12/30/2016</t>
+  </si>
+  <si>
+    <t>Pros &amp; Cons - Residence Inn - Lake Front Circle</t>
+  </si>
+  <si>
+    <t>We have stayed at this Inn on numerous occasions and this is the 1st time we have encountered significant issues.  We stayed for 3 nights in a 2 bedroom suite.
+PROS:
+1) Very comfortable beds and pillows
+2) Quality linens and towels
+3) AC/Heating unit worked very well - easy to operate
+4) Friendly staff despite being assigned to work during the holidays
+5) Attractive environment
+6) Convenient location to restaurants, shopping events - easy access from variety of routes
+7) Maintenance person was available for 4 hour period on Christmas day.
+CONS:
+1) Suite 205 is a DUD!
+2) Location with Inn property looks out over hotel roof tops... cannot even see the parking lot and certainly has no views of the beautiful trees
+3) Sofa cushions horrible - highly uncomfortable &amp; depleted... sink even below frame of sofa; only other seating is one ergonomic chair and 2 straight back chairs. No seating in either bedroom.
+4) Dripping faucet in one of the bathrooms
+5)Shower mechanism fell apart when used - maintenance repaired when reported.
+6)Stinky garbage disposal when water ran down sink in kitchen
+7)Unable to obtain extra blanket or comforter when requested of front desk staff
+8) Although housekeeping services were going to be limited during holidays, sufficient paper towels were not anticipated and paper towel roll only had 3 towels on rack on day of arrival.  Requested additional towel rolls from front desk- attendant said she'd...We have stayed at this Inn on numerous occasions and this is the 1st time we have encountered significant issues.  We stayed for 3 nights in a 2 bedroom suite.PROS:1) Very comfortable beds and pillows2) Quality linens and towels3) AC/Heating unit worked very well - easy to operate4) Friendly staff despite being assigned to work during the holidays5) Attractive environment6) Convenient location to restaurants, shopping events - easy access from variety of routes7) Maintenance person was available for 4 hour period on Christmas day.CONS:1) Suite 205 is a DUD!2) Location with Inn property looks out over hotel roof tops... cannot even see the parking lot and certainly has no views of the beautiful trees3) Sofa cushions horrible - highly uncomfortable &amp; depleted... sink even below frame of sofa; only other seating is one ergonomic chair and 2 straight back chairs. No seating in either bedroom.4) Dripping faucet in one of the bathrooms5)Shower mechanism fell apart when used - maintenance repaired when reported.6)Stinky garbage disposal when water ran down sink in kitchen7)Unable to obtain extra blanket or comforter when requested of front desk staff8) Although housekeeping services were going to be limited during holidays, sufficient paper towels were not anticipated and paper towel roll only had 3 towels on rack on day of arrival.  Requested additional towel rolls from front desk- attendant said she'd obtain a roll and get it up there.... she forgot and extra roll was obtained when I stopped by front desk 3 hours later.9)Body lotion amenity was practically empty upon arrival.10) No extra garbage bags... high end properties often put extra garbage bag in bottom of waste basket under primary bag so that if guest wants to start a new bag, it is easily available.  I had to walk down long hallway to find housekeeper's cart to get additional bag.It would seem that if housekeeping services were to be limited, attendants should stock up suites so guests would not run out  and that front desk clerks would be able to easily track down needed requests.  Surely housekeeping should have noticed the dripping faucet and the stinky garbage disposal!  Details DO make a difference when deciding where to stay and there are numerous options available in the area. Perhaps Suite 205 does not often get assigned since the location is so bad!  Apparently being a member of the Marriott Rewards program means nothing in terms of room assignments... even when one is staying for 3 consecutive nights!We will stay here one more time but if problems like this continue, we will strongly consider returning to one of the other suite hotels we've utilized in the past.Obviously this hotel property is well regarded by locals as several times we have been here, there have been couples or families here for extended stays due to renovations in their own homes.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded December 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 31, 2016</t>
+  </si>
+  <si>
+    <t>We have stayed at this Inn on numerous occasions and this is the 1st time we have encountered significant issues.  We stayed for 3 nights in a 2 bedroom suite.
+PROS:
+1) Very comfortable beds and pillows
+2) Quality linens and towels
+3) AC/Heating unit worked very well - easy to operate
+4) Friendly staff despite being assigned to work during the holidays
+5) Attractive environment
+6) Convenient location to restaurants, shopping events - easy access from variety of routes
+7) Maintenance person was available for 4 hour period on Christmas day.
+CONS:
+1) Suite 205 is a DUD!
+2) Location with Inn property looks out over hotel roof tops... cannot even see the parking lot and certainly has no views of the beautiful trees
+3) Sofa cushions horrible - highly uncomfortable &amp; depleted... sink even below frame of sofa; only other seating is one ergonomic chair and 2 straight back chairs. No seating in either bedroom.
+4) Dripping faucet in one of the bathrooms
+5)Shower mechanism fell apart when used - maintenance repaired when reported.
+6)Stinky garbage disposal when water ran down sink in kitchen
+7)Unable to obtain extra blanket or comforter when requested of front desk staff
+8) Although housekeeping services were going to be limited during holidays, sufficient paper towels were not anticipated and paper towel roll only had 3 towels on rack on day of arrival.  Requested additional towel rolls from front desk- attendant said she'd...We have stayed at this Inn on numerous occasions and this is the 1st time we have encountered significant issues.  We stayed for 3 nights in a 2 bedroom suite.PROS:1) Very comfortable beds and pillows2) Quality linens and towels3) AC/Heating unit worked very well - easy to operate4) Friendly staff despite being assigned to work during the holidays5) Attractive environment6) Convenient location to restaurants, shopping events - easy access from variety of routes7) Maintenance person was available for 4 hour period on Christmas day.CONS:1) Suite 205 is a DUD!2) Location with Inn property looks out over hotel roof tops... cannot even see the parking lot and certainly has no views of the beautiful trees3) Sofa cushions horrible - highly uncomfortable &amp; depleted... sink even below frame of sofa; only other seating is one ergonomic chair and 2 straight back chairs. No seating in either bedroom.4) Dripping faucet in one of the bathrooms5)Shower mechanism fell apart when used - maintenance repaired when reported.6)Stinky garbage disposal when water ran down sink in kitchen7)Unable to obtain extra blanket or comforter when requested of front desk staff8) Although housekeeping services were going to be limited during holidays, sufficient paper towels were not anticipated and paper towel roll only had 3 towels on rack on day of arrival.  Requested additional towel rolls from front desk- attendant said she'd obtain a roll and get it up there.... she forgot and extra roll was obtained when I stopped by front desk 3 hours later.9)Body lotion amenity was practically empty upon arrival.10) No extra garbage bags... high end properties often put extra garbage bag in bottom of waste basket under primary bag so that if guest wants to start a new bag, it is easily available.  I had to walk down long hallway to find housekeeper's cart to get additional bag.It would seem that if housekeeping services were to be limited, attendants should stock up suites so guests would not run out  and that front desk clerks would be able to easily track down needed requests.  Surely housekeeping should have noticed the dripping faucet and the stinky garbage disposal!  Details DO make a difference when deciding where to stay and there are numerous options available in the area. Perhaps Suite 205 does not often get assigned since the location is so bad!  Apparently being a member of the Marriott Rewards program means nothing in terms of room assignments... even when one is staying for 3 consecutive nights!We will stay here one more time but if problems like this continue, we will strongly consider returning to one of the other suite hotels we've utilized in the past.Obviously this hotel property is well regarded by locals as several times we have been here, there have been couples or families here for extended stays due to renovations in their own homes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r439614408-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>439614408</t>
+  </si>
+  <si>
+    <t>11/23/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay.</t>
+  </si>
+  <si>
+    <t>We were here for a Bar Mitzvah.Our room was very comfortablewith two tv's, free WiFi and a complete kitchen.Staff was friendly, greeting us each time we entered the hotel.The continental breakfast was just average.I recommend staying here when in The WoodlandsMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded November 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2016</t>
+  </si>
+  <si>
+    <t>We were here for a Bar Mitzvah.Our room was very comfortablewith two tv's, free WiFi and a complete kitchen.Staff was friendly, greeting us each time we entered the hotel.The continental breakfast was just average.I recommend staying here when in The WoodlandsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r437408142-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>437408142</t>
+  </si>
+  <si>
+    <t>11/15/2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel and great service!</t>
+  </si>
+  <si>
+    <t>The service, specifically front desk, at this Marriott is excellent, rooms are clean, updated and BIG!  Convenient location to many restaurants and the mall.  Right off 45 made it easy to find.  The area is very pretty with many trees all around.  We had a a great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded November 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2016</t>
+  </si>
+  <si>
+    <t>The service, specifically front desk, at this Marriott is excellent, rooms are clean, updated and BIG!  Convenient location to many restaurants and the mall.  Right off 45 made it easy to find.  The area is very pretty with many trees all around.  We had a a great stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r421478763-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>421478763</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t>Off the beaten path. :)</t>
+  </si>
+  <si>
+    <t>I booked this hotel for a one night staycation the weekend of Labor Day (Sept 3-4).  Overall, it was a very nice stay.  The amenities were exceptional and the rooms were gorgeous.  Cozy, inviting beds, full kitchen, nice shower (with good water pressure...it was so relaxing and invigorating!), plenty towels and soap.  The location (woodsy and near the mall) was nice.  I would definitely recommend staying at the hotel.  The staff was very nice also. :)MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded September 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2016</t>
+  </si>
+  <si>
+    <t>I booked this hotel for a one night staycation the weekend of Labor Day (Sept 3-4).  Overall, it was a very nice stay.  The amenities were exceptional and the rooms were gorgeous.  Cozy, inviting beds, full kitchen, nice shower (with good water pressure...it was so relaxing and invigorating!), plenty towels and soap.  The location (woodsy and near the mall) was nice.  I would definitely recommend staying at the hotel.  The staff was very nice also. :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r421327955-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>421327955</t>
+  </si>
+  <si>
+    <t>09/22/2016</t>
+  </si>
+  <si>
+    <t>Mr. Daddy D</t>
+  </si>
+  <si>
+    <t>Quick check in and check out . Hotel was nice and clean. Bed was soft and comfortable. I would highly recommend this hotel to friends and family. I will stay in this hotel in the future. Associate was nice working there and took care of our needs. MoreShow less</t>
+  </si>
+  <si>
+    <t>Quick check in and check out . Hotel was nice and clean. Bed was soft and comfortable. I would highly recommend this hotel to friends and family. I will stay in this hotel in the future. Associate was nice working there and took care of our needs. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r420574431-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>420574431</t>
+  </si>
+  <si>
+    <t>09/20/2016</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>This is one of the cleanest inns I have ever been in. The staff great you anytime they see you. Always seeing to any need you have the rooms were clean. Anytime I am in this area I will be sure to use this in.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is one of the cleanest inns I have ever been in. The staff great you anytime they see you. Always seeing to any need you have the rooms were clean. Anytime I am in this area I will be sure to use this in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r404915086-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>404915086</t>
+  </si>
+  <si>
+    <t>08/13/2016</t>
+  </si>
+  <si>
+    <t>Come smoke with me and other things</t>
+  </si>
+  <si>
+    <t>As a platinum elite Marriott member, this is the first time I had to move out of a Marriott Hotel.  In my humble opinion:  the best of times the worst of times...
+the Best: The breakfast staff was caring and helpful.  The maids kept the rooms clean and supplied.  The place looked like one of the many RI I have stayed at. Although not a full stove,  it was what I needed.  Nice exercise room, clean and smelled good.  The over night front desk personnel were friendly and seem to care about problems.   A/C kept the room cold but read below
+the Worst:   From the manager to the other front desk personnel they smiled and said the correct Marriott things, but nothing ever got done or fixed.   The toilet cycled every 18 minutes,  the maintenance staff "fixed" it 3 times,  It was still cycling after two weeks as I left the hotel.  Any real plumber could have switched it out in 30 minutes while I was at work.  The fridge appeared to open when you left the room???  The room's HVAC system is so loud,  you had to increase the TV volume up and down depending on if it was running.  Due to the outside temps.  it runs 80% of the time...day or night.   My room was on the third floor in the high 320's,  it was close to Courtyard Marriott.   Although both hotels are smoke-free.  The Courtyard guests stand...As a platinum elite Marriott member, this is the first time I had to move out of a Marriott Hotel.  In my humble opinion:  the best of times the worst of times...the Best: The breakfast staff was caring and helpful.  The maids kept the rooms clean and supplied.  The place looked like one of the many RI I have stayed at. Although not a full stove,  it was what I needed.  Nice exercise room, clean and smelled good.  The over night front desk personnel were friendly and seem to care about problems.   A/C kept the room cold but read belowthe Worst:   From the manager to the other front desk personnel they smiled and said the correct Marriott things, but nothing ever got done or fixed.   The toilet cycled every 18 minutes,  the maintenance staff "fixed" it 3 times,  It was still cycling after two weeks as I left the hotel.  Any real plumber could have switched it out in 30 minutes while I was at work.  The fridge appeared to open when you left the room???  The room's HVAC system is so loud,  you had to increase the TV volume up and down depending on if it was running.  Due to the outside temps.  it runs 80% of the time...day or night.   My room was on the third floor in the high 320's,  it was close to Courtyard Marriott.   Although both hotels are smoke-free.  The Courtyard guests stand out on their balconies blowing smoke towards the Residence Inn.  The Courtyard also has an area next to the RI which they allow outdoor smoking, again drifts to the RI.   The RI has a patio area next to their basketball court,  smokers sit there at night and you guessed it.  Any floor with numbers in the 20, or 30 get to enjoy second hand smoke.    I asked to be moved, but since I was only a platinum elite member it took the staff 10+ days.  I decided to leave on the tenth day.    There are two other RI very close to this one.   One of them has rooms with two beds in them.  This RI is packed all the time,  so there is little need to please the customer.   I did not want to leave, this area of Houston known as the Woodlands is very beautiful, with many things close by.    So it may fit your need,  it is a Marriott.   Almost forgot, the foam pillows could be used as parking space blocks, they are very hard.  The mattress did not meet my past Marriott comfort level either.The property is not a corporate run Marriott but a franchise run Marriott.   There appears to be a difference,MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded August 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2016</t>
+  </si>
+  <si>
+    <t>As a platinum elite Marriott member, this is the first time I had to move out of a Marriott Hotel.  In my humble opinion:  the best of times the worst of times...
+the Best: The breakfast staff was caring and helpful.  The maids kept the rooms clean and supplied.  The place looked like one of the many RI I have stayed at. Although not a full stove,  it was what I needed.  Nice exercise room, clean and smelled good.  The over night front desk personnel were friendly and seem to care about problems.   A/C kept the room cold but read below
+the Worst:   From the manager to the other front desk personnel they smiled and said the correct Marriott things, but nothing ever got done or fixed.   The toilet cycled every 18 minutes,  the maintenance staff "fixed" it 3 times,  It was still cycling after two weeks as I left the hotel.  Any real plumber could have switched it out in 30 minutes while I was at work.  The fridge appeared to open when you left the room???  The room's HVAC system is so loud,  you had to increase the TV volume up and down depending on if it was running.  Due to the outside temps.  it runs 80% of the time...day or night.   My room was on the third floor in the high 320's,  it was close to Courtyard Marriott.   Although both hotels are smoke-free.  The Courtyard guests stand...As a platinum elite Marriott member, this is the first time I had to move out of a Marriott Hotel.  In my humble opinion:  the best of times the worst of times...the Best: The breakfast staff was caring and helpful.  The maids kept the rooms clean and supplied.  The place looked like one of the many RI I have stayed at. Although not a full stove,  it was what I needed.  Nice exercise room, clean and smelled good.  The over night front desk personnel were friendly and seem to care about problems.   A/C kept the room cold but read belowthe Worst:   From the manager to the other front desk personnel they smiled and said the correct Marriott things, but nothing ever got done or fixed.   The toilet cycled every 18 minutes,  the maintenance staff "fixed" it 3 times,  It was still cycling after two weeks as I left the hotel.  Any real plumber could have switched it out in 30 minutes while I was at work.  The fridge appeared to open when you left the room???  The room's HVAC system is so loud,  you had to increase the TV volume up and down depending on if it was running.  Due to the outside temps.  it runs 80% of the time...day or night.   My room was on the third floor in the high 320's,  it was close to Courtyard Marriott.   Although both hotels are smoke-free.  The Courtyard guests stand out on their balconies blowing smoke towards the Residence Inn.  The Courtyard also has an area next to the RI which they allow outdoor smoking, again drifts to the RI.   The RI has a patio area next to their basketball court,  smokers sit there at night and you guessed it.  Any floor with numbers in the 20, or 30 get to enjoy second hand smoke.    I asked to be moved, but since I was only a platinum elite member it took the staff 10+ days.  I decided to leave on the tenth day.    There are two other RI very close to this one.   One of them has rooms with two beds in them.  This RI is packed all the time,  so there is little need to please the customer.   I did not want to leave, this area of Houston known as the Woodlands is very beautiful, with many things close by.    So it may fit your need,  it is a Marriott.   Almost forgot, the foam pillows could be used as parking space blocks, they are very hard.  The mattress did not meet my past Marriott comfort level either.The property is not a corporate run Marriott but a franchise run Marriott.   There appears to be a difference,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r391166057-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>391166057</t>
+  </si>
+  <si>
+    <t>07/10/2016</t>
+  </si>
+  <si>
+    <t>Clean &amp; comfortable room-great staff</t>
+  </si>
+  <si>
+    <t>We stayed in a 2 bedroom-2 bath room with a separate living room. The extra space made it easy to get ready to attend meetings. The breakfast, that was included in the rate, had a good variety of selections including many hot items..MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded July 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2016</t>
+  </si>
+  <si>
+    <t>We stayed in a 2 bedroom-2 bath room with a separate living room. The extra space made it easy to get ready to attend meetings. The breakfast, that was included in the rate, had a good variety of selections including many hot items..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r373053384-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>373053384</t>
+  </si>
+  <si>
+    <t>05/15/2016</t>
+  </si>
+  <si>
+    <t>IronMan Texas review</t>
+  </si>
+  <si>
+    <t>Just finished IronMan Texas - stayed here four nights - instead of paying $150-175 which is normal - they jacked up rate to $300/night - then we we asked for a late check out because bad weather impacted race results and we needed a few more hours to deal with the race roll down - the answer was pay another half day. Room was fine - but terrible management to take advantage of people coming in town for an important race.  All about the Benjamins MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded May 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2016</t>
+  </si>
+  <si>
+    <t>Just finished IronMan Texas - stayed here four nights - instead of paying $150-175 which is normal - they jacked up rate to $300/night - then we we asked for a late check out because bad weather impacted race results and we needed a few more hours to deal with the race roll down - the answer was pay another half day. Room was fine - but terrible management to take advantage of people coming in town for an important race.  All about the Benjamins More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r335777913-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>335777913</t>
+  </si>
+  <si>
+    <t>12/29/2015</t>
+  </si>
+  <si>
+    <t>Likely The Best Residence Inn I've Stayed In</t>
+  </si>
+  <si>
+    <t>Well, shame on me for not reviewing this property sooner, but I didn't want to share my little secret given the frequent scarcity of hotel rooms in The Woodlands.  This property sits adjacent to a Marriott Courtyard I've stayed in a few times, but for me, was a much better fit.  I'm just sorry I didn't try this property in times past, but .. now I know.  Aside from the heavy rain, I didn't have complaints, so I'll list the pros for this property only.  Enjoy.- Friendly engaging helpful staff.- Several free newspapers- The room was clean and up to date- Location was great for easy on / off access to I-45- The breakfast was on time, fresh and plentiful- The staff coordinated having a food truck available for dinnerNot sure why things clicked the way they did at this property vs countless other Residence Inns I've stayed in, but shhhh ....  don't tell anybody else.  :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded December 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2015</t>
+  </si>
+  <si>
+    <t>Well, shame on me for not reviewing this property sooner, but I didn't want to share my little secret given the frequent scarcity of hotel rooms in The Woodlands.  This property sits adjacent to a Marriott Courtyard I've stayed in a few times, but for me, was a much better fit.  I'm just sorry I didn't try this property in times past, but .. now I know.  Aside from the heavy rain, I didn't have complaints, so I'll list the pros for this property only.  Enjoy.- Friendly engaging helpful staff.- Several free newspapers- The room was clean and up to date- Location was great for easy on / off access to I-45- The breakfast was on time, fresh and plentiful- The staff coordinated having a food truck available for dinnerNot sure why things clicked the way they did at this property vs countless other Residence Inns I've stayed in, but shhhh ....  don't tell anybody else.  :-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r330234288-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>330234288</t>
+  </si>
+  <si>
+    <t>12/01/2015</t>
+  </si>
+  <si>
+    <t>Great Place to Stay!</t>
+  </si>
+  <si>
+    <t>Nice and helpful staff, big and comfortable room, fast and free wifi. The room has small kitchen, microwave and stuff so it is comfortable for long stay. We stayed in Residence inn 3 weeks on November 2015 and We really enjoy our stay. At complimentary dinner, the staff actually recognize that my wife and I didn't eat meat and they offered a delicious veggie menu. I don't think it is standard menu and the effort and care for the people who stay is greatly appreciatedMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded December 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2015</t>
+  </si>
+  <si>
+    <t>Nice and helpful staff, big and comfortable room, fast and free wifi. The room has small kitchen, microwave and stuff so it is comfortable for long stay. We stayed in Residence inn 3 weeks on November 2015 and We really enjoy our stay. At complimentary dinner, the staff actually recognize that my wife and I didn't eat meat and they offered a delicious veggie menu. I don't think it is standard menu and the effort and care for the people who stay is greatly appreciatedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r328822027-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>328822027</t>
+  </si>
+  <si>
+    <t>11/24/2015</t>
+  </si>
+  <si>
+    <t>Beautiful rooms, great staff</t>
+  </si>
+  <si>
+    <t>Since my daughter and her husband couldn't make it home for Thanksgiving, we decided to meet them here in the Houston area when they were in town for business.  We had all the Thanksgiving fixings packed and ready to prepare our meal.  However, I booked 2-King studio rooms, not the 2 bedroom unit (I don't like Queen beds that come with the 2 bedroom) and quickly learned there was no oven in the studios.  After inquiring about this at the front desk, telling her my woes, Amanda quickly helped me and offered their oven for us to use.  Our dinner was a success thanks to her!  The rooms look newly renovated and were clean and comfortable.  My daughter and her husband had the room just across the hall from us.  Breakfast was great, hot, with many choices.  Plenty of newspapers on the tables to read.  Location was great, close to a mall and many restaurants.  A little hard to see the road to turn off when driving south on 45.  Look for the Luby's and turn right after that.  The street name is on a decorative block wall that is illuminated at night, making it easier to see than daytime.  Plus, it's not right on the corner.  I would definitely return to this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded November 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2015</t>
+  </si>
+  <si>
+    <t>Since my daughter and her husband couldn't make it home for Thanksgiving, we decided to meet them here in the Houston area when they were in town for business.  We had all the Thanksgiving fixings packed and ready to prepare our meal.  However, I booked 2-King studio rooms, not the 2 bedroom unit (I don't like Queen beds that come with the 2 bedroom) and quickly learned there was no oven in the studios.  After inquiring about this at the front desk, telling her my woes, Amanda quickly helped me and offered their oven for us to use.  Our dinner was a success thanks to her!  The rooms look newly renovated and were clean and comfortable.  My daughter and her husband had the room just across the hall from us.  Breakfast was great, hot, with many choices.  Plenty of newspapers on the tables to read.  Location was great, close to a mall and many restaurants.  A little hard to see the road to turn off when driving south on 45.  Look for the Luby's and turn right after that.  The street name is on a decorative block wall that is illuminated at night, making it easier to see than daytime.  Plus, it's not right on the corner.  I would definitely return to this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r319681731-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>319681731</t>
+  </si>
+  <si>
+    <t>10/17/2015</t>
+  </si>
+  <si>
+    <t>I love this place</t>
+  </si>
+  <si>
+    <t>After staying in The Woodlands for 2 months, I found my hotel. The Residence Inn is quiet with large rooms and clean. I love having the kitchen and eextra space as well as breakfast in the morning and dinner Monday, Tuesday, and Wednesday. The room is well appointed with nice towels, and the only slight criticism I have would be the bed covering (I would like something a little heavier), but everything is a nice quality. There is a variety of pillows, and the bed is pretty comfy.This is a great location as well. There's a grocery store nearby as well as a Target to pick up any last minute items or food to make in your kitchen.Lastly, the Paul Mitchell ammenities are nice, and I love the lemon lotion. I would stay at this hotel again in a heartbeat.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded November 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2015</t>
+  </si>
+  <si>
+    <t>After staying in The Woodlands for 2 months, I found my hotel. The Residence Inn is quiet with large rooms and clean. I love having the kitchen and eextra space as well as breakfast in the morning and dinner Monday, Tuesday, and Wednesday. The room is well appointed with nice towels, and the only slight criticism I have would be the bed covering (I would like something a little heavier), but everything is a nice quality. There is a variety of pillows, and the bed is pretty comfy.This is a great location as well. There's a grocery store nearby as well as a Target to pick up any last minute items or food to make in your kitchen.Lastly, the Paul Mitchell ammenities are nice, and I love the lemon lotion. I would stay at this hotel again in a heartbeat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r317985867-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>317985867</t>
+  </si>
+  <si>
+    <t>10/12/2015</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised at the level of service during my recent stay. Brendan gave five star hotel service, not only remembering my last name but how to pronounce it after only hearing it once; 24 hrs prior at check in. The rooms were very nice and spacious. I would book again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised at the level of service during my recent stay. Brendan gave five star hotel service, not only remembering my last name but how to pronounce it after only hearing it once; 24 hrs prior at check in. The rooms were very nice and spacious. I would book again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r315088246-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>315088246</t>
+  </si>
+  <si>
+    <t>09/30/2015</t>
+  </si>
+  <si>
+    <t>Aside from the repeatedly delayed check-in, it was great</t>
+  </si>
+  <si>
+    <t>This hotel is always very clean and usually well managed.  Not sure what happened at the last check-in but it was delayed about 2 hours from the standard check-in time after being told I would actually be able to check in early.  They did "upgrade" our suite for the inconvenience but adding a suite with a fireplace in Texas and in late June didn't do much lol.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded October 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is always very clean and usually well managed.  Not sure what happened at the last check-in but it was delayed about 2 hours from the standard check-in time after being told I would actually be able to check in early.  They did "upgrade" our suite for the inconvenience but adding a suite with a fireplace in Texas and in late June didn't do much lol.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r308985683-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>308985683</t>
+  </si>
+  <si>
+    <t>09/10/2015</t>
+  </si>
+  <si>
+    <t>Nice place to stay!</t>
+  </si>
+  <si>
+    <t>This is a good hotel in The Woodlands area. Good location, nice people working there and rooms are good. It's close to The Woodlands mall, Market street and Cynthia Woods Mitchell Pavilion (not walking distance, but nothing is walking distance in the USA, right?). It has free parking lot and Wi-Fi (which works great) and breakfast is included. Nice kitchen, good bed, etc. it's good to stay specially if you are going to stay for a long period.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded September 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2015</t>
+  </si>
+  <si>
+    <t>This is a good hotel in The Woodlands area. Good location, nice people working there and rooms are good. It's close to The Woodlands mall, Market street and Cynthia Woods Mitchell Pavilion (not walking distance, but nothing is walking distance in the USA, right?). It has free parking lot and Wi-Fi (which works great) and breakfast is included. Nice kitchen, good bed, etc. it's good to stay specially if you are going to stay for a long period.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r293278667-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>293278667</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>Fantastic Stay</t>
+  </si>
+  <si>
+    <t>I was looking for a hotel that offered a kitchen and grilling capabilities, as I like to cook and unwind after a long day.  This was the perfect location!  Outside BBQ grills, nice little kitchen, full sized fridge with ice maker, microwave, dishwasher and garbage disposal.  Very nice room layout.  Could not have asked for anything more.  I will definitely be staying there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded August 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2015</t>
+  </si>
+  <si>
+    <t>I was looking for a hotel that offered a kitchen and grilling capabilities, as I like to cook and unwind after a long day.  This was the perfect location!  Outside BBQ grills, nice little kitchen, full sized fridge with ice maker, microwave, dishwasher and garbage disposal.  Very nice room layout.  Could not have asked for anything more.  I will definitely be staying there again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r290571129-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>290571129</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>SPACIOUS TWO BEDROOM SUITE WITH SOFA BED AND DEN AREA!</t>
+  </si>
+  <si>
+    <t>We attended a wedding in Magnolia and the wedding party stayed here.  Excellent choice!  Manager Giancarlo was very helpful with our time challenge as we arrived at noon, early for the 3pm check-in, but we had to leave for the wedding totally dressed by 330 pm.  He arranged for a quick make-ready of our room.  We were allowed to check in early, and made the wedding timely.  The breakfast was free and was well presented in a clean area. All of the staff were friendly and helpful.  The room was spacious, modern and clean.  Thanks!!MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded August 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2015</t>
+  </si>
+  <si>
+    <t>We attended a wedding in Magnolia and the wedding party stayed here.  Excellent choice!  Manager Giancarlo was very helpful with our time challenge as we arrived at noon, early for the 3pm check-in, but we had to leave for the wedding totally dressed by 330 pm.  He arranged for a quick make-ready of our room.  We were allowed to check in early, and made the wedding timely.  The breakfast was free and was well presented in a clean area. All of the staff were friendly and helpful.  The room was spacious, modern and clean.  Thanks!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r268441030-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>268441030</t>
+  </si>
+  <si>
+    <t>04/27/2015</t>
+  </si>
+  <si>
+    <t>Standard Residence Inn</t>
+  </si>
+  <si>
+    <t>I have always liked staying at Residence Inn anywhere I find myself because of the value for money I believe I get. This hotel was no different except that it was pricier than usual and I got exactly same value. Breakfast was good, room very clean, facilities on point but daily rate was almost $70 more than usual. Another thing the hotel has got going for it is the great location, it is just a few minutes drive from the The Woodlands mall and the golf course. The staff were courteous and helpful and I felt very secure in the room. Overall a good stay except for the daily rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded May 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2015</t>
+  </si>
+  <si>
+    <t>I have always liked staying at Residence Inn anywhere I find myself because of the value for money I believe I get. This hotel was no different except that it was pricier than usual and I got exactly same value. Breakfast was good, room very clean, facilities on point but daily rate was almost $70 more than usual. Another thing the hotel has got going for it is the great location, it is just a few minutes drive from the The Woodlands mall and the golf course. The staff were courteous and helpful and I felt very secure in the room. Overall a good stay except for the daily rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r262238616-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>262238616</t>
+  </si>
+  <si>
+    <t>03/28/2015</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>Loved all the little things that were available. I was not surprised . Residence inn by Marriott   always has been topnotch , The staff was very friendly  and helpful. Room was  big and very clean, We will return in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded April 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2015</t>
+  </si>
+  <si>
+    <t>Loved all the little things that were available. I was not surprised . Residence inn by Marriott   always has been topnotch , The staff was very friendly  and helpful. Room was  big and very clean, We will return in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r260771503-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>260771503</t>
+  </si>
+  <si>
+    <t>03/20/2015</t>
+  </si>
+  <si>
+    <t>It's the little extra touches that make it stand out above the rest!</t>
+  </si>
+  <si>
+    <t>The staff are warm and friendly; the accommodations are lovely and spacious; the breakfast bar has a nice variety of hot and cold fare. And, there are little extras - like a happy hour each night (bratwurst and beer on our first night, chocolate mousse desserts on our second), and like a complimentary bag of microwave popcorn in our room. Would be very happy to return here on our next trip through town.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded March 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2015</t>
+  </si>
+  <si>
+    <t>The staff are warm and friendly; the accommodations are lovely and spacious; the breakfast bar has a nice variety of hot and cold fare. And, there are little extras - like a happy hour each night (bratwurst and beer on our first night, chocolate mousse desserts on our second), and like a complimentary bag of microwave popcorn in our room. Would be very happy to return here on our next trip through town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r252392923-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>252392923</t>
+  </si>
+  <si>
+    <t>02/03/2015</t>
+  </si>
+  <si>
+    <t>To swim or not to swim....</t>
+  </si>
+  <si>
+    <t>Went for a family get away with an indoor pool. This location was the only one listed with an indoor pool with a good rate. The room was fantastic, spacious with full kitchen w/ dishes, 2 tvs, clean linens, used pull out couch for the kids. The ONLY issue I had was the cleanliness of the indoor pool, the reason why we booked. There was green algae growing inside the pool, in the water. There were mats of hair floating in the water. The water seemed a little thick and the chlorine wasn't as strong as I thought it should have been. It was a little uneasy having to swim in it with the children and yes, I'm sure its a swim at your own risk but that doesn't mean you can't keep the pool clean in general. At this time, both me and my 9 year old are getting sick...coincidence, may be....but overall, great for a weekend stay but it ain't no GWL.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded February 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2015</t>
+  </si>
+  <si>
+    <t>Went for a family get away with an indoor pool. This location was the only one listed with an indoor pool with a good rate. The room was fantastic, spacious with full kitchen w/ dishes, 2 tvs, clean linens, used pull out couch for the kids. The ONLY issue I had was the cleanliness of the indoor pool, the reason why we booked. There was green algae growing inside the pool, in the water. There were mats of hair floating in the water. The water seemed a little thick and the chlorine wasn't as strong as I thought it should have been. It was a little uneasy having to swim in it with the children and yes, I'm sure its a swim at your own risk but that doesn't mean you can't keep the pool clean in general. At this time, both me and my 9 year old are getting sick...coincidence, may be....but overall, great for a weekend stay but it ain't no GWL.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r248785836-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>248785836</t>
+  </si>
+  <si>
+    <t>01/11/2015</t>
+  </si>
+  <si>
+    <t>Better service than most full service hotels.</t>
+  </si>
+  <si>
+    <t>I have found my new go-to hotel in the woodlands. After experiencing a downright unpleasant stay at the courtyard Arlington, I decided for this weekend to look at the residence inns in the area. Originally I almost picked a RI that was right next to market street but after reading the reviews on trip advisor, we picked this location instead. What a smart move that was. The service was even better than I expected. Everyone seems thrilled to serve you and to make this your best stay ever. It's one of the cleanest hotels we have stayed at. The beds were comfy and we slept great. The front desk upgraded our room based on our Marriott platinum status and thanked my husband for his patronage. I can not even think of a negative. Due to the outstanding service - we will return without a doubt. Great stay! MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded January 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2015</t>
+  </si>
+  <si>
+    <t>I have found my new go-to hotel in the woodlands. After experiencing a downright unpleasant stay at the courtyard Arlington, I decided for this weekend to look at the residence inns in the area. Originally I almost picked a RI that was right next to market street but after reading the reviews on trip advisor, we picked this location instead. What a smart move that was. The service was even better than I expected. Everyone seems thrilled to serve you and to make this your best stay ever. It's one of the cleanest hotels we have stayed at. The beds were comfy and we slept great. The front desk upgraded our room based on our Marriott platinum status and thanked my husband for his patronage. I can not even think of a negative. Due to the outstanding service - we will return without a doubt. Great stay! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r244411538-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>244411538</t>
+  </si>
+  <si>
+    <t>12/14/2014</t>
+  </si>
+  <si>
+    <t>Excellent location to Restaurants, Shopping and Pavillion</t>
+  </si>
+  <si>
+    <t>This was our second time to stay at this hotel and it did not disappoint.  The parking is free, the hot breakfast is included and there is a free happy hour Monday through Wednesday.  The rooms are huge with a small kitchen along with a breakfast table, desk for working and living room.  The hotel staff is extremely friendly and helpful.  We were able to walk to our restaurant in Market Square and is walking distance to the Woodlands Mall as well.  Highly recommend this hotel to anyone wanting to experience the Woodlands, but not drive around looking for parking spaces.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded December 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2014</t>
+  </si>
+  <si>
+    <t>This was our second time to stay at this hotel and it did not disappoint.  The parking is free, the hot breakfast is included and there is a free happy hour Monday through Wednesday.  The rooms are huge with a small kitchen along with a breakfast table, desk for working and living room.  The hotel staff is extremely friendly and helpful.  We were able to walk to our restaurant in Market Square and is walking distance to the Woodlands Mall as well.  Highly recommend this hotel to anyone wanting to experience the Woodlands, but not drive around looking for parking spaces.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r228046834-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>228046834</t>
+  </si>
+  <si>
+    <t>09/10/2014</t>
+  </si>
+  <si>
+    <t>Very Comfortable place - a home away from home</t>
+  </si>
+  <si>
+    <t>Stayed at the Marriot Residence-Inn, Woodlands a few months back. Had gone on a business trip for close to a month and had the opportunity to stay at this nice hotel. The hotel was well located and the rooms were quite good, clean and felt like home away from home.A good place to stay at, if you are looking to make your stay comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded September 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2014</t>
+  </si>
+  <si>
+    <t>Stayed at the Marriot Residence-Inn, Woodlands a few months back. Had gone on a business trip for close to a month and had the opportunity to stay at this nice hotel. The hotel was well located and the rooms were quite good, clean and felt like home away from home.A good place to stay at, if you are looking to make your stay comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r221782151-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>221782151</t>
+  </si>
+  <si>
+    <t>08/14/2014</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>I have been here for 3 months...and counting.  The hotel is top notch and the service provided by the staff is "awesome"..They go beyond what is expected.  When my family comes to visit, they have treated them as if they were extended family.  Thanks for making my stay a "home away from home"MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded September 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2014</t>
+  </si>
+  <si>
+    <t>I have been here for 3 months...and counting.  The hotel is top notch and the service provided by the staff is "awesome"..They go beyond what is expected.  When my family comes to visit, they have treated them as if they were extended family.  Thanks for making my stay a "home away from home"More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r219342197-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>219342197</t>
+  </si>
+  <si>
+    <t>08/03/2014</t>
+  </si>
+  <si>
+    <t>Customer service improvement needed</t>
+  </si>
+  <si>
+    <t>Customer service was very poor at this location. I stayed there for 5 nights coming back to the US from an overseas assignment. My company had set up the booking and pre-paid. Upon arrival I was asked my form of payment, I told them it was pre-paid etc, and was still harassed about later that evening waking me up from a jet lag sleep. I was further harassed about at 6am the next morning, again a wake up call. While there was a nice room and clean sheets, I will never be returning.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded August 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2014</t>
+  </si>
+  <si>
+    <t>Customer service was very poor at this location. I stayed there for 5 nights coming back to the US from an overseas assignment. My company had set up the booking and pre-paid. Upon arrival I was asked my form of payment, I told them it was pre-paid etc, and was still harassed about later that evening waking me up from a jet lag sleep. I was further harassed about at 6am the next morning, again a wake up call. While there was a nice room and clean sheets, I will never be returning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r207941241-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>207941241</t>
+  </si>
+  <si>
+    <t>05/29/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Stayed here for 5 days with family.  We had two rooms.  Although an indoor pool, it was well maintained with clean towels there.  No toys, so bring your own.  Basketball court was great for the boys to use up energy.  Great staff.  Clean rooms.  Couldn't have asked for more.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r207573179-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>207573179</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>What else would you rate them?</t>
+  </si>
+  <si>
+    <t>Marriott Residence Inns always provide a comfortable, relaxing place to feel at home while traveling.  This property is like all that I've stayed in.  The staff is courteous and helpful.  The rooms are always clean and well furnished.  Reserve a room here with confidence.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded June 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2014</t>
+  </si>
+  <si>
+    <t>Marriott Residence Inns always provide a comfortable, relaxing place to feel at home while traveling.  This property is like all that I've stayed in.  The staff is courteous and helpful.  The rooms are always clean and well furnished.  Reserve a room here with confidence.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r205320735-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>205320735</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Nice spacy clean rooms</t>
+  </si>
+  <si>
+    <t>Looks like a Motel from the outside but has beautiful rooms. They are huge (even for Texas standards) ver clean and seem to be new. The staff members are ver nice and thoughtful. I had to leave at 4 in the morning for my flight and the receptionist had todays paper and some breakfast ready prepared for me at check-outMoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded May 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2014</t>
+  </si>
+  <si>
+    <t>Looks like a Motel from the outside but has beautiful rooms. They are huge (even for Texas standards) ver clean and seem to be new. The staff members are ver nice and thoughtful. I had to leave at 4 in the morning for my flight and the receptionist had todays paper and some breakfast ready prepared for me at check-outMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r195955275-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>195955275</t>
+  </si>
+  <si>
+    <t>03/02/2014</t>
+  </si>
+  <si>
+    <t>Decent</t>
+  </si>
+  <si>
+    <t>-Great location. Close to the shopping center.-Room clean; breakfast good.-Staff is friendly.-The indoor pool is clean and maintained at a good temperature. -It is very close to the highway as well, which suited us as I had to go to Conroe for my business.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded March 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2014</t>
+  </si>
+  <si>
+    <t>-Great location. Close to the shopping center.-Room clean; breakfast good.-Staff is friendly.-The indoor pool is clean and maintained at a good temperature. -It is very close to the highway as well, which suited us as I had to go to Conroe for my business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r188368480-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>188368480</t>
+  </si>
+  <si>
+    <t>12/23/2013</t>
+  </si>
+  <si>
+    <t>Brothers wedding</t>
+  </si>
+  <si>
+    <t>I can not say enough about this place! The staff (all of them) were polite, helpful, and sincere. They had a great variety every morning at the breakfast bar. Truly something for everyone. The pool and hot area are clean and stocked with towels. They have clean updated and well stocked suites. The price point was perfect. The amenities and location were perfect. Very pleased with our entire experience and will absolutely be coming back. Thank you for caring about your guests!! MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded December 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 27, 2013</t>
+  </si>
+  <si>
+    <t>I can not say enough about this place! The staff (all of them) were polite, helpful, and sincere. They had a great variety every morning at the breakfast bar. Truly something for everyone. The pool and hot area are clean and stocked with towels. They have clean updated and well stocked suites. The price point was perfect. The amenities and location were perfect. Very pleased with our entire experience and will absolutely be coming back. Thank you for caring about your guests!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r184167158-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>184167158</t>
+  </si>
+  <si>
+    <t>11/09/2013</t>
+  </si>
+  <si>
+    <t>My first stay at an updated Residence Inn - MUCH improved!</t>
+  </si>
+  <si>
+    <t>Two quick points off the bat - don't be fooled by the older building exterior or the hallway carpeting when you arrive. The rooms at this hotel have been updated to the new Residence Inn standard and they are so much better than the old ones. The rooms feel fresh, the appliances are newer, and everything was in working order. The indoor pool and outdoor fire pit are a nice touch and well-maintained; the daily breakfast had more than enough variety to keep our 3-year old happy each morning. The staff quality was good as well; we were there for 3 nights and by the second evening, the front desk staff knew my daughter's name and she was their new friend. I hope they do update the hallway carpeting to match the newer look and feel of the rest of the property, but that's really my only complaint, and a minor one at that. Overall, though, this is definitely a nice property and the updated rooms make such a difference. One small aside - the studios and one-bedroom rooms are EXACTLY the same size (we traveled with family and saw both) - the only difference is that there is a wall with a door in the one-bedroom separating it from the living area. We traveled with the kids so the door was priceless, but if you're traveling solo or as a couple, I'd recommend the studio because it actually feels...Two quick points off the bat - don't be fooled by the older building exterior or the hallway carpeting when you arrive. The rooms at this hotel have been updated to the new Residence Inn standard and they are so much better than the old ones. The rooms feel fresh, the appliances are newer, and everything was in working order. The indoor pool and outdoor fire pit are a nice touch and well-maintained; the daily breakfast had more than enough variety to keep our 3-year old happy each morning. The staff quality was good as well; we were there for 3 nights and by the second evening, the front desk staff knew my daughter's name and she was their new friend. I hope they do update the hallway carpeting to match the newer look and feel of the rest of the property, but that's really my only complaint, and a minor one at that. Overall, though, this is definitely a nice property and the updated rooms make such a difference. One small aside - the studios and one-bedroom rooms are EXACTLY the same size (we traveled with family and saw both) - the only difference is that there is a wall with a door in the one-bedroom separating it from the living area. We traveled with the kids so the door was priceless, but if you're traveling solo or as a couple, I'd recommend the studio because it actually feels larger without the wall/door.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded November 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2013</t>
+  </si>
+  <si>
+    <t>Two quick points off the bat - don't be fooled by the older building exterior or the hallway carpeting when you arrive. The rooms at this hotel have been updated to the new Residence Inn standard and they are so much better than the old ones. The rooms feel fresh, the appliances are newer, and everything was in working order. The indoor pool and outdoor fire pit are a nice touch and well-maintained; the daily breakfast had more than enough variety to keep our 3-year old happy each morning. The staff quality was good as well; we were there for 3 nights and by the second evening, the front desk staff knew my daughter's name and she was their new friend. I hope they do update the hallway carpeting to match the newer look and feel of the rest of the property, but that's really my only complaint, and a minor one at that. Overall, though, this is definitely a nice property and the updated rooms make such a difference. One small aside - the studios and one-bedroom rooms are EXACTLY the same size (we traveled with family and saw both) - the only difference is that there is a wall with a door in the one-bedroom separating it from the living area. We traveled with the kids so the door was priceless, but if you're traveling solo or as a couple, I'd recommend the studio because it actually feels...Two quick points off the bat - don't be fooled by the older building exterior or the hallway carpeting when you arrive. The rooms at this hotel have been updated to the new Residence Inn standard and they are so much better than the old ones. The rooms feel fresh, the appliances are newer, and everything was in working order. The indoor pool and outdoor fire pit are a nice touch and well-maintained; the daily breakfast had more than enough variety to keep our 3-year old happy each morning. The staff quality was good as well; we were there for 3 nights and by the second evening, the front desk staff knew my daughter's name and she was their new friend. I hope they do update the hallway carpeting to match the newer look and feel of the rest of the property, but that's really my only complaint, and a minor one at that. Overall, though, this is definitely a nice property and the updated rooms make such a difference. One small aside - the studios and one-bedroom rooms are EXACTLY the same size (we traveled with family and saw both) - the only difference is that there is a wall with a door in the one-bedroom separating it from the living area. We traveled with the kids so the door was priceless, but if you're traveling solo or as a couple, I'd recommend the studio because it actually feels larger without the wall/door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r177627257-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>177627257</t>
+  </si>
+  <si>
+    <t>09/18/2013</t>
+  </si>
+  <si>
+    <t>Good for families...</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here with our two kids (5 and 1) for a couple of weeks prior to moving overseas. We stayed in a two bedroom suite. The suite is rather small, but served us fine during our visit. I believe they have recently remodeled, so the suite was furnished nicely. The kitchenette is tiny and isn't equipped to any major cooking (no measuring cups, few cooking utensils), so don't plan on doing much cooking while you are there. Beds were comfortable, and there were TVs in the living room and both bedrooms. 
+The breakfast downstairs was good with a nice selection of items, and the happy hour in the evenings was nice as well, with snacks, beer and wine available. The pool is inside, which we weren't expecting, but it was fine for entertaining the kids. 
+Two items to note for those staying longer than a few days: the hotel will do your grocery shopping for you and place your items in your hotel room. All you have to do is give them a list prior to 9am and they will shop that day. We used this service and found it very handy. Regarding the laundry facilities, there are two washers and two dryers available for the entire hotel. As you can imagine, they are in high demand and so doing your laundry here can be a real chore. The dryers don't dry well either. I would...My husband and I stayed here with our two kids (5 and 1) for a couple of weeks prior to moving overseas. We stayed in a two bedroom suite. The suite is rather small, but served us fine during our visit. I believe they have recently remodeled, so the suite was furnished nicely. The kitchenette is tiny and isn't equipped to any major cooking (no measuring cups, few cooking utensils), so don't plan on doing much cooking while you are there. Beds were comfortable, and there were TVs in the living room and both bedrooms. The breakfast downstairs was good with a nice selection of items, and the happy hour in the evenings was nice as well, with snacks, beer and wine available. The pool is inside, which we weren't expecting, but it was fine for entertaining the kids. Two items to note for those staying longer than a few days: the hotel will do your grocery shopping for you and place your items in your hotel room. All you have to do is give them a list prior to 9am and they will shop that day. We used this service and found it very handy. Regarding the laundry facilities, there are two washers and two dryers available for the entire hotel. As you can imagine, they are in high demand and so doing your laundry here can be a real chore. The dryers don't dry well either. I would recommend using a drop off laundry service instead. Overall, it was a good hotel, although a bit cramped for the four of us. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded September 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2013</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here with our two kids (5 and 1) for a couple of weeks prior to moving overseas. We stayed in a two bedroom suite. The suite is rather small, but served us fine during our visit. I believe they have recently remodeled, so the suite was furnished nicely. The kitchenette is tiny and isn't equipped to any major cooking (no measuring cups, few cooking utensils), so don't plan on doing much cooking while you are there. Beds were comfortable, and there were TVs in the living room and both bedrooms. 
+The breakfast downstairs was good with a nice selection of items, and the happy hour in the evenings was nice as well, with snacks, beer and wine available. The pool is inside, which we weren't expecting, but it was fine for entertaining the kids. 
+Two items to note for those staying longer than a few days: the hotel will do your grocery shopping for you and place your items in your hotel room. All you have to do is give them a list prior to 9am and they will shop that day. We used this service and found it very handy. Regarding the laundry facilities, there are two washers and two dryers available for the entire hotel. As you can imagine, they are in high demand and so doing your laundry here can be a real chore. The dryers don't dry well either. I would...My husband and I stayed here with our two kids (5 and 1) for a couple of weeks prior to moving overseas. We stayed in a two bedroom suite. The suite is rather small, but served us fine during our visit. I believe they have recently remodeled, so the suite was furnished nicely. The kitchenette is tiny and isn't equipped to any major cooking (no measuring cups, few cooking utensils), so don't plan on doing much cooking while you are there. Beds were comfortable, and there were TVs in the living room and both bedrooms. The breakfast downstairs was good with a nice selection of items, and the happy hour in the evenings was nice as well, with snacks, beer and wine available. The pool is inside, which we weren't expecting, but it was fine for entertaining the kids. Two items to note for those staying longer than a few days: the hotel will do your grocery shopping for you and place your items in your hotel room. All you have to do is give them a list prior to 9am and they will shop that day. We used this service and found it very handy. Regarding the laundry facilities, there are two washers and two dryers available for the entire hotel. As you can imagine, they are in high demand and so doing your laundry here can be a real chore. The dryers don't dry well either. I would recommend using a drop off laundry service instead. Overall, it was a good hotel, although a bit cramped for the four of us. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r169705427-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>169705427</t>
+  </si>
+  <si>
+    <t>07/29/2013</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>Co-worker and I stayed here for business while conducting interviews.  The location is great and close to a very nice mall.  The rooms were clean and the hotel was quiet.  Really enjoyed the manager's reception each night and the breakfast was your exceptional Residence Inn style.  The staff was attentive and prompt when asked for assistance.  This will definitely be my go to hotel when I am in the Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded August 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2013</t>
+  </si>
+  <si>
+    <t>Co-worker and I stayed here for business while conducting interviews.  The location is great and close to a very nice mall.  The rooms were clean and the hotel was quiet.  Really enjoyed the manager's reception each night and the breakfast was your exceptional Residence Inn style.  The staff was attentive and prompt when asked for assistance.  This will definitely be my go to hotel when I am in the Houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r169688894-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>169688894</t>
+  </si>
+  <si>
+    <t>Great Stay!!</t>
+  </si>
+  <si>
+    <t>This hotel is everything I expected and more. Wonderful room with a beautiful design almost like an apartment. Easy access to hotel. Alot of shopping and restaurants near by. Yummy buffet style breakfast. Awesome staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is everything I expected and more. Wonderful room with a beautiful design almost like an apartment. Easy access to hotel. Alot of shopping and restaurants near by. Yummy buffet style breakfast. Awesome staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r160576565-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>160576565</t>
+  </si>
+  <si>
+    <t>05/13/2013</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Forth time we have stayed here and it is still going strong.  The place was sold out and my only complaint would be that the breakfast area was "overwhelmed"  as it could not keep up with the number of guest in the area.The room was great, the bed comfortable and the staff friendly.will stay again</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r159957853-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>159957853</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Nice, but some little details were an issue</t>
+  </si>
+  <si>
+    <t>We went to this hotel because of the location while visiting relatives. Good location relative to staying close to some excellent activities that are in The Woodlands area of Texas. Clean hotel and the breakfast cook in charge was on the ball, she knew her job and was very good at the greeting of everyone that came into the Bistro. The food was good, fresh and not a long wait at all. the front desk staff allowed us to check in very early, which they did not have to do at all, and it was much appreciated.    The only issue is room #129, it had a slight mildew/damp smell when you first went in, every time we entered from being gone for awhile but dissipated very shortly over time. and the shower had one of those "handicap accessible" thresholds that allowed a very large amount of water to get all over the bathroom floor, definitely a design flaw ( I am a custom builder). We even turned the shower head towards the wall and really tried to not let this happen, only helped marginally. I suspect this has led to the smell in this room     Other than this I would recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>We went to this hotel because of the location while visiting relatives. Good location relative to staying close to some excellent activities that are in The Woodlands area of Texas. Clean hotel and the breakfast cook in charge was on the ball, she knew her job and was very good at the greeting of everyone that came into the Bistro. The food was good, fresh and not a long wait at all. the front desk staff allowed us to check in very early, which they did not have to do at all, and it was much appreciated.    The only issue is room #129, it had a slight mildew/damp smell when you first went in, every time we entered from being gone for awhile but dissipated very shortly over time. and the shower had one of those "handicap accessible" thresholds that allowed a very large amount of water to get all over the bathroom floor, definitely a design flaw ( I am a custom builder). We even turned the shower head towards the wall and really tried to not let this happen, only helped marginally. I suspect this has led to the smell in this room     Other than this I would recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r154156857-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>154156857</t>
+  </si>
+  <si>
+    <t>03/10/2013</t>
+  </si>
+  <si>
+    <t>Worst Hotel That I Have Ever Stayed</t>
+  </si>
+  <si>
+    <t>Our family used this hotel for our son's wedding weekend.  A/C hardly ever worked.  We would wake up in the middle of the night, sweating, and had to try to reset the A/C.  They spent the whole day repairing it after the first night and it was still 78 degrees the second night.  Mgmt response on check-out, "yea, we have new A/C units and we are trying to get them to work properly."  They didn't have anyone on staff after 10:00 p.m. to make any repairs.  They said they "comp" our second night, but when the bill arrive at the end, they still tried to charge me for all 3 nights.  The internet was horrible.  Moved at a snail's pace.  We had to get new keys made everyday because our keys would stop working which meant we could never enter the hotel from the side doors.  The maids didn't clean our room the first day and I had to call at 3:00 p.m. on the second day for them to clean our room.  Our group was responsible for over 40 hotel nights for the weekend, but I would never recommend this hotel to anyone.  Worst Marriott of all time.  Please find another property if you are looking in The Woodlands.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded March 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2013</t>
+  </si>
+  <si>
+    <t>Our family used this hotel for our son's wedding weekend.  A/C hardly ever worked.  We would wake up in the middle of the night, sweating, and had to try to reset the A/C.  They spent the whole day repairing it after the first night and it was still 78 degrees the second night.  Mgmt response on check-out, "yea, we have new A/C units and we are trying to get them to work properly."  They didn't have anyone on staff after 10:00 p.m. to make any repairs.  They said they "comp" our second night, but when the bill arrive at the end, they still tried to charge me for all 3 nights.  The internet was horrible.  Moved at a snail's pace.  We had to get new keys made everyday because our keys would stop working which meant we could never enter the hotel from the side doors.  The maids didn't clean our room the first day and I had to call at 3:00 p.m. on the second day for them to clean our room.  Our group was responsible for over 40 hotel nights for the weekend, but I would never recommend this hotel to anyone.  Worst Marriott of all time.  Please find another property if you are looking in The Woodlands.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r145922451-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>145922451</t>
+  </si>
+  <si>
+    <t>11/21/2012</t>
+  </si>
+  <si>
+    <t>Would stay again</t>
+  </si>
+  <si>
+    <t>Nice large room with soft bed, extra pillows and a nice television. Allowed our dog to stay and had excellent walking area. Even has a basketball court. The breakfast and nite snack was first rate.Also desk personnel could not have been nicer.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r140630714-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>140630714</t>
+  </si>
+  <si>
+    <t>09/18/2012</t>
+  </si>
+  <si>
+    <t>Way More than I Expected</t>
+  </si>
+  <si>
+    <t>The front desk guy was effecient and generous with the complementary platinum snack. The room that I was given was absolutely beautiful. Practicly brand new, modern, with granite kitchen countertops a stainles frig, a huge built in sofa and a big useful desk. The room was European in style and was way nicer than I expected. The bed was supremely comfortable and the wifi worked well. Great location and top quality rooms. What more do ya need?</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r132668110-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>132668110</t>
+  </si>
+  <si>
+    <t>06/24/2012</t>
+  </si>
+  <si>
+    <t>It's ok.</t>
+  </si>
+  <si>
+    <t>Just stayed here for 3 nights on business.  I came during the last day of renovations and had a good time.  Breakfast and dinner we ok but helpful if you don't know the area or don't want to go out.  The room was clean and comfy and the staff was quite helpful.  It's an average Residence Inn and seemed safe and quiet. There's a gas grill if you want to cook out and everything you need to prepare your own meals.Stay out of the hot tub it was green so I didn't dare venture in.  Overall, fine for business or traveling with kids.  I really can't complain (too much).</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r124435365-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>124435365</t>
+  </si>
+  <si>
+    <t>02/11/2012</t>
+  </si>
+  <si>
+    <t>Value for money for a business trip</t>
+  </si>
+  <si>
+    <t>In this hotel you get a suite with a living room with a kitchenette (stove, fridge, microwave), a bedroom and a bathroom.  The hotel shows its age a little, but overall it was clean and in good repair. The bed was comfortable, and there's plenty of space in the rooms. Breakfast is included, and some nights there's a 'happy hour' with free drinks and snacks. Staff were always pleasant and helpful. My room was a little noisy as I think there was a big airco unit just outside.  Overall not a bad place.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r122822208-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>122822208</t>
+  </si>
+  <si>
+    <t>01/09/2012</t>
+  </si>
+  <si>
+    <t>Not bad for the Price</t>
+  </si>
+  <si>
+    <t>I firmly believe you get what you pay for, and this residence inn was no dump. It was nice. Clean (though we did have to ask for housekeeping a few times). The "crib" was a dumpy pack n play rather than a crib, the indoor pool was a little too cold, but all in all the suite was nice, the bed was comfy and the breakfast was VERY GOOD!To sleep 4 kids and 2 adults (one kid was a baby) i'd say we didn't do too bad!location was awesome! just a short drive or walk to the Woodlands Mall!</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r116582723-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>116582723</t>
+  </si>
+  <si>
+    <t>08/11/2011</t>
+  </si>
+  <si>
+    <t>If you want to bleach your swimsuit, stay here!</t>
+  </si>
+  <si>
+    <t>I found this hotel on the Internet, Marriott Rewards area. We wanted to stay within walking distance of the Cynthia Woods Mitchell Pavilion for a concert. While the property seemed clean and quiet -- my big complaint is that we used the whirlpool (the second reason why I chose this property). When my boyfriend got in the whirlpool with a royal blue swimsuit, he came out with a light gray swimsuit. After several days, my royal blue swimsuit is now periwinkle colored with white spots. My silver jewelry was destroyed that belonged to my deceased sister. My hair was fried and the chemical caused it to stick together and I had to yank out a lot of my hair, the skin on my hands peeled off 2 days later. They gave me a whopping $50 off of my bill. We called the Montgomery County Health Dept. By the time they went out there, the chemical situation in the whirlpool was corrected. (I just found out today - 8/11/11 - that they went to the wrong property at first so this property ample time to correct their chemical levels.)  Oh, and BTW, the maintenance person (if Harry really does exist) never responded to the fron't desk's pages or calls. I am a conference planner and I will tell everyone I know NOT TO STAY AT THIS PROPERTY. I own a pool. My pool service provider told me that that had to...I found this hotel on the Internet, Marriott Rewards area. We wanted to stay within walking distance of the Cynthia Woods Mitchell Pavilion for a concert. While the property seemed clean and quiet -- my big complaint is that we used the whirlpool (the second reason why I chose this property). When my boyfriend got in the whirlpool with a royal blue swimsuit, he came out with a light gray swimsuit. After several days, my royal blue swimsuit is now periwinkle colored with white spots. My silver jewelry was destroyed that belonged to my deceased sister. My hair was fried and the chemical caused it to stick together and I had to yank out a lot of my hair, the skin on my hands peeled off 2 days later. They gave me a whopping $50 off of my bill. We called the Montgomery County Health Dept. By the time they went out there, the chemical situation in the whirlpool was corrected. (I just found out today - 8/11/11 - that they went to the wrong property at first so this property ample time to correct their chemical levels.)  Oh, and BTW, the maintenance person (if Harry really does exist) never responded to the fron't desk's pages or calls. I am a conference planner and I will tell everyone I know NOT TO STAY AT THIS PROPERTY. I own a pool. My pool service provider told me that that had to have been MASSIVE amounts of chemicals put in the water to do what it did to us. Also, the jets in the whirlpool did not work well nor was it hot water. Lukewarm at best.  Update:  Unfortunately, I had posted this previously on the wrong hotel, but now am posting this on the CORRECT property.  I wrote them again last week because I still am very unhappy about what transpired there with them saying they hadn't done anything wrong and the chemicals in the pool and whirlpool are checked daily.  Well, HARRY must be following the wrong chart to get the chemicals so incredibly toxic to bleach clothes, ruin jewelry and have the skin peel off of your body.  Thanks Tink for not taking our complaints seriously.  This is what you get.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>I found this hotel on the Internet, Marriott Rewards area. We wanted to stay within walking distance of the Cynthia Woods Mitchell Pavilion for a concert. While the property seemed clean and quiet -- my big complaint is that we used the whirlpool (the second reason why I chose this property). When my boyfriend got in the whirlpool with a royal blue swimsuit, he came out with a light gray swimsuit. After several days, my royal blue swimsuit is now periwinkle colored with white spots. My silver jewelry was destroyed that belonged to my deceased sister. My hair was fried and the chemical caused it to stick together and I had to yank out a lot of my hair, the skin on my hands peeled off 2 days later. They gave me a whopping $50 off of my bill. We called the Montgomery County Health Dept. By the time they went out there, the chemical situation in the whirlpool was corrected. (I just found out today - 8/11/11 - that they went to the wrong property at first so this property ample time to correct their chemical levels.)  Oh, and BTW, the maintenance person (if Harry really does exist) never responded to the fron't desk's pages or calls. I am a conference planner and I will tell everyone I know NOT TO STAY AT THIS PROPERTY. I own a pool. My pool service provider told me that that had to...I found this hotel on the Internet, Marriott Rewards area. We wanted to stay within walking distance of the Cynthia Woods Mitchell Pavilion for a concert. While the property seemed clean and quiet -- my big complaint is that we used the whirlpool (the second reason why I chose this property). When my boyfriend got in the whirlpool with a royal blue swimsuit, he came out with a light gray swimsuit. After several days, my royal blue swimsuit is now periwinkle colored with white spots. My silver jewelry was destroyed that belonged to my deceased sister. My hair was fried and the chemical caused it to stick together and I had to yank out a lot of my hair, the skin on my hands peeled off 2 days later. They gave me a whopping $50 off of my bill. We called the Montgomery County Health Dept. By the time they went out there, the chemical situation in the whirlpool was corrected. (I just found out today - 8/11/11 - that they went to the wrong property at first so this property ample time to correct their chemical levels.)  Oh, and BTW, the maintenance person (if Harry really does exist) never responded to the fron't desk's pages or calls. I am a conference planner and I will tell everyone I know NOT TO STAY AT THIS PROPERTY. I own a pool. My pool service provider told me that that had to have been MASSIVE amounts of chemicals put in the water to do what it did to us. Also, the jets in the whirlpool did not work well nor was it hot water. Lukewarm at best.  Update:  Unfortunately, I had posted this previously on the wrong hotel, but now am posting this on the CORRECT property.  I wrote them again last week because I still am very unhappy about what transpired there with them saying they hadn't done anything wrong and the chemicals in the pool and whirlpool are checked daily.  Well, HARRY must be following the wrong chart to get the chemicals so incredibly toxic to bleach clothes, ruin jewelry and have the skin peel off of your body.  Thanks Tink for not taking our complaints seriously.  This is what you get.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r107044807-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>107044807</t>
+  </si>
+  <si>
+    <t>05/05/2011</t>
+  </si>
+  <si>
+    <t>They will bump you</t>
+  </si>
+  <si>
+    <t>Had reservations here 11 months in advance.  Two weeks before the our reservation I called to confirm.  I was told that I had been "bumped"  because they had oversold the hotel and platinum members take presedence.  Apparently I was not important enough.  The customer service was ridiculous!!  Tamera, the sales coordinator, was of absolutely no help.  I will not be staying at Marriott  hotels anymore.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r96969671-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>96969671</t>
+  </si>
+  <si>
+    <t>02/17/2011</t>
+  </si>
+  <si>
+    <t>This was a great hotel overall.</t>
+  </si>
+  <si>
+    <t>My stay was great but I am use to more upgrades in the rooms.  The beds were comfortable and I had a king bed and it was similar to european furniture (low to the ground).  Pillows were fluffed and room size was average.  Recommendation for the TV to be on a swivel to turn it while in bed.  Had an awesome gym so my wife could work out.  Lastly the kitchen in the room was benefical to have if needed.  Overall it was a great stay</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r89779606-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>89779606</t>
+  </si>
+  <si>
+    <t>12/13/2010</t>
+  </si>
+  <si>
+    <t>Homely, VFM hotel</t>
+  </si>
+  <si>
+    <t>This hotel is not structured in the classical sense but built more like a residential agglommoration. One almost feels like this is a (vast) personal residence, till one enters and sees the obvious giveaways. It is quite comfortable, but not plush. Bathrooms are a tad small, but each room also has a kitchenette. Probably due to high employee costs it seems to be a little under staffed, but is fairly efficient. Good if you look to keep cost down (approx USD 170); those not keen on this could opt for the nearby Marriott Waterway.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r51317298-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>51317298</t>
+  </si>
+  <si>
+    <t>12/15/2009</t>
+  </si>
+  <si>
+    <t>This Hotel Is Managed Horribly!</t>
+  </si>
+  <si>
+    <t>I Traveled to Houston on Business and brought my family with me. The Rooms at the Residence Inn are a great place for a family, but not this hotel. Located in the heart of the busy Woodlands, TX area, it's in a great location and literally 2 streets down the way on Six Pines, another Residence Inn exists. I have stayed at both and now I know, why most of the business goes to the one on Six Pines.
+This hotel was the 1st Residence Inn in the Woodlands, and because of the influx of business, another Residence Inn was built. This hotel is priced about $30.00 lower than its competitor, but for $130.00 a night, it was NOT worth it.
+The entire facility really needs to be renovated. The main lobby area is ok, the outside needs some landscaping. The rooms are old and are in need of minor repairs. Things are rusty, housekeeping is lazy and does not dust. Toilets drip and fans squeal.
+The entire staff comes across as not caring, and they operate under a reactive environment, this is the managements fault.
+The Residence Inn is known for their free breakfasts and dinners. Their breakfasts are ok, but their dinners are horribly managed. They claim that dinner is served from 6pm to 7:30pm but the main course runs out within 10-15 minutes and others are left eating salad and possibly the side dish. I recall other...I Traveled to Houston on Business and brought my family with me. The Rooms at the Residence Inn are a great place for a family, but not this hotel. Located in the heart of the busy Woodlands, TX area, it's in a great location and literally 2 streets down the way on Six Pines, another Residence Inn exists. I have stayed at both and now I know, why most of the business goes to the one on Six Pines.This hotel was the 1st Residence Inn in the Woodlands, and because of the influx of business, another Residence Inn was built. This hotel is priced about $30.00 lower than its competitor, but for $130.00 a night, it was NOT worth it.The entire facility really needs to be renovated. The main lobby area is ok, the outside needs some landscaping. The rooms are old and are in need of minor repairs. Things are rusty, housekeeping is lazy and does not dust. Toilets drip and fans squeal.The entire staff comes across as not caring, and they operate under a reactive environment, this is the managements fault.The Residence Inn is known for their free breakfasts and dinners. Their breakfasts are ok, but their dinners are horribly managed. They claim that dinner is served from 6pm to 7:30pm but the main course runs out within 10-15 minutes and others are left eating salad and possibly the side dish. I recall other Residence Inn serving cans of soda and wine, this hotel serves cans of Lite Beer and and watered down lemonade and Koolaide.Just the other night, 2 policemen entered the hotel and went up to a room. Being a cops kid, whenever I see a police officer, it means trouble, especially in Houston. I am not sure what happened, but that concerned me.Most of the other travelers around me were families, and very little business travelers and that's because they were all at the Residence Inn on Six Pines.If I were going to do this trip again with familly, I would try to book a room, at Residence Inn at Six Pines.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>I Traveled to Houston on Business and brought my family with me. The Rooms at the Residence Inn are a great place for a family, but not this hotel. Located in the heart of the busy Woodlands, TX area, it's in a great location and literally 2 streets down the way on Six Pines, another Residence Inn exists. I have stayed at both and now I know, why most of the business goes to the one on Six Pines.
+This hotel was the 1st Residence Inn in the Woodlands, and because of the influx of business, another Residence Inn was built. This hotel is priced about $30.00 lower than its competitor, but for $130.00 a night, it was NOT worth it.
+The entire facility really needs to be renovated. The main lobby area is ok, the outside needs some landscaping. The rooms are old and are in need of minor repairs. Things are rusty, housekeeping is lazy and does not dust. Toilets drip and fans squeal.
+The entire staff comes across as not caring, and they operate under a reactive environment, this is the managements fault.
+The Residence Inn is known for their free breakfasts and dinners. Their breakfasts are ok, but their dinners are horribly managed. They claim that dinner is served from 6pm to 7:30pm but the main course runs out within 10-15 minutes and others are left eating salad and possibly the side dish. I recall other...I Traveled to Houston on Business and brought my family with me. The Rooms at the Residence Inn are a great place for a family, but not this hotel. Located in the heart of the busy Woodlands, TX area, it's in a great location and literally 2 streets down the way on Six Pines, another Residence Inn exists. I have stayed at both and now I know, why most of the business goes to the one on Six Pines.This hotel was the 1st Residence Inn in the Woodlands, and because of the influx of business, another Residence Inn was built. This hotel is priced about $30.00 lower than its competitor, but for $130.00 a night, it was NOT worth it.The entire facility really needs to be renovated. The main lobby area is ok, the outside needs some landscaping. The rooms are old and are in need of minor repairs. Things are rusty, housekeeping is lazy and does not dust. Toilets drip and fans squeal.The entire staff comes across as not caring, and they operate under a reactive environment, this is the managements fault.The Residence Inn is known for their free breakfasts and dinners. Their breakfasts are ok, but their dinners are horribly managed. They claim that dinner is served from 6pm to 7:30pm but the main course runs out within 10-15 minutes and others are left eating salad and possibly the side dish. I recall other Residence Inn serving cans of soda and wine, this hotel serves cans of Lite Beer and and watered down lemonade and Koolaide.Just the other night, 2 policemen entered the hotel and went up to a room. Being a cops kid, whenever I see a police officer, it means trouble, especially in Houston. I am not sure what happened, but that concerned me.Most of the other travelers around me were families, and very little business travelers and that's because they were all at the Residence Inn on Six Pines.If I were going to do this trip again with familly, I would try to book a room, at Residence Inn at Six Pines.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r17082634-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>17082634</t>
+  </si>
+  <si>
+    <t>06/20/2008</t>
+  </si>
+  <si>
+    <t>Eh.. I've had better residence inns.</t>
+  </si>
+  <si>
+    <t>First off, if you have never stayed at a residence inn, then this is a great hotel.If you have, then you know the rooms are tiny, the staff is unfriendly, the food is fare.The staff was completely useless. Hotels have high turn over rate, but when you talk to the most vetern employee of the facility and she had only been working there 5 months, there is something not right.Inconsistant employee's and scary old woman working night audit makes for a "awesome" time. There were 2 fire alarms that went off when I was there.  I had my 6 week old baby there with me at the time. This made for an awesome time. No explanation from staff. It was sweltering hot. (not their fault, but does not make for fun times)Worst residence inn Ive ever stayed in. The food was the highlight. The kitchen was always cramped... Most residence inn's have a LOT bigger kitchen area for food. The location is great though. Walked to the woodlands pavillion with the heat being the only issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2007</t>
+  </si>
+  <si>
+    <t>First off, if you have never stayed at a residence inn, then this is a great hotel.If you have, then you know the rooms are tiny, the staff is unfriendly, the food is fare.The staff was completely useless. Hotels have high turn over rate, but when you talk to the most vetern employee of the facility and she had only been working there 5 months, there is something not right.Inconsistant employee's and scary old woman working night audit makes for a "awesome" time. There were 2 fire alarms that went off when I was there.  I had my 6 week old baby there with me at the time. This made for an awesome time. No explanation from staff. It was sweltering hot. (not their fault, but does not make for fun times)Worst residence inn Ive ever stayed in. The food was the highlight. The kitchen was always cramped... Most residence inn's have a LOT bigger kitchen area for food. The location is great though. Walked to the woodlands pavillion with the heat being the only issue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r13688660-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>13688660</t>
+  </si>
+  <si>
+    <t>02/19/2008</t>
+  </si>
+  <si>
+    <t>Traveling in Circles</t>
+  </si>
+  <si>
+    <t>I spent 2 nights here on business while in the Houston area and the biggest challenge I had coming from IAH airport was trying to determine how to get to the hotel...which is on Lake Front Circle.  I kept driving in circles around the Woodlands Mall area and I-45.  As it turns out it is just about a block West of I-45 and north of the mall, right next door to the Marriott Courtyard, but getting there isn't easy due to the confusing frontage road one-way street access and exit choices.
+But, otherwise my visit was quite pleasant.  The staff was quite friendly and on multiple occasions contacted me throughout the visit to see if everything was fine.  The breakfast and evening buffets are a nice touch.  I had absolutely no problem with the wireless internet in the room and it was free!  My room (#128) was right next to the side entrance so I could park right next to the room and enter the building (with my room key only) which was quite convenient.
+It's an easy walk across the street to a very large retail shopping center (Pinecroft Center) with many name-brand stores including a large Target and a number of restaurant and fast-food choices.  The whole area of The Woodlands is set in a woodsy area that is extremely well planned including the mall and their Town Center area on Six Pines Drive.
+The room was spacious...I spent 2 nights here on business while in the Houston area and the biggest challenge I had coming from IAH airport was trying to determine how to get to the hotel...which is on Lake Front Circle.  I kept driving in circles around the Woodlands Mall area and I-45.  As it turns out it is just about a block West of I-45 and north of the mall, right next door to the Marriott Courtyard, but getting there isn't easy due to the confusing frontage road one-way street access and exit choices.But, otherwise my visit was quite pleasant.  The staff was quite friendly and on multiple occasions contacted me throughout the visit to see if everything was fine.  The breakfast and evening buffets are a nice touch.  I had absolutely no problem with the wireless internet in the room and it was free!  My room (#128) was right next to the side entrance so I could park right next to the room and enter the building (with my room key only) which was quite convenient.It's an easy walk across the street to a very large retail shopping center (Pinecroft Center) with many name-brand stores including a large Target and a number of restaurant and fast-food choices.  The whole area of The Woodlands is set in a woodsy area that is extremely well planned including the mall and their Town Center area on Six Pines Drive.The room was spacious with lots of storage space and full kitchen.  For someone staying on an extended basis this would be a good choice.  The bedroom area though is not separated from the living/kitchen area which would have been a nicer touch.  The only slip was perhaps the fact that the bed was not made on the 2nd day but that may have something to do with this being a "residence-extended stay type" hotel.  The towels were all changed out.  The price though at $199 per night I thought was a bit steep compared to other hotels in the area.  But, I had no real complaints and both the area and the hotel itself were extremely quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>I spent 2 nights here on business while in the Houston area and the biggest challenge I had coming from IAH airport was trying to determine how to get to the hotel...which is on Lake Front Circle.  I kept driving in circles around the Woodlands Mall area and I-45.  As it turns out it is just about a block West of I-45 and north of the mall, right next door to the Marriott Courtyard, but getting there isn't easy due to the confusing frontage road one-way street access and exit choices.
+But, otherwise my visit was quite pleasant.  The staff was quite friendly and on multiple occasions contacted me throughout the visit to see if everything was fine.  The breakfast and evening buffets are a nice touch.  I had absolutely no problem with the wireless internet in the room and it was free!  My room (#128) was right next to the side entrance so I could park right next to the room and enter the building (with my room key only) which was quite convenient.
+It's an easy walk across the street to a very large retail shopping center (Pinecroft Center) with many name-brand stores including a large Target and a number of restaurant and fast-food choices.  The whole area of The Woodlands is set in a woodsy area that is extremely well planned including the mall and their Town Center area on Six Pines Drive.
+The room was spacious...I spent 2 nights here on business while in the Houston area and the biggest challenge I had coming from IAH airport was trying to determine how to get to the hotel...which is on Lake Front Circle.  I kept driving in circles around the Woodlands Mall area and I-45.  As it turns out it is just about a block West of I-45 and north of the mall, right next door to the Marriott Courtyard, but getting there isn't easy due to the confusing frontage road one-way street access and exit choices.But, otherwise my visit was quite pleasant.  The staff was quite friendly and on multiple occasions contacted me throughout the visit to see if everything was fine.  The breakfast and evening buffets are a nice touch.  I had absolutely no problem with the wireless internet in the room and it was free!  My room (#128) was right next to the side entrance so I could park right next to the room and enter the building (with my room key only) which was quite convenient.It's an easy walk across the street to a very large retail shopping center (Pinecroft Center) with many name-brand stores including a large Target and a number of restaurant and fast-food choices.  The whole area of The Woodlands is set in a woodsy area that is extremely well planned including the mall and their Town Center area on Six Pines Drive.The room was spacious with lots of storage space and full kitchen.  For someone staying on an extended basis this would be a good choice.  The bedroom area though is not separated from the living/kitchen area which would have been a nicer touch.  The only slip was perhaps the fact that the bed was not made on the 2nd day but that may have something to do with this being a "residence-extended stay type" hotel.  The towels were all changed out.  The price though at $199 per night I thought was a bit steep compared to other hotels in the area.  But, I had no real complaints and both the area and the hotel itself were extremely quiet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r7186682-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>7186682</t>
+  </si>
+  <si>
+    <t>03/17/2007</t>
+  </si>
+  <si>
+    <t>Very Nice for Family with Small Kids</t>
+  </si>
+  <si>
+    <t>We stopped here for 1 nt on our way back from the Gulf coast.  We paid $99 + tax for a Friday night, which I consider great value.  4 nights earlier we had stayed in the area at a different hotel located nearby directly on I-45 (much more road noise), an older facility with external entrance to rooms.  Not very impressive.  By comparison, at the Residence Inn for the same price, we got a 1 BR suite with a kitchen, and in a beautiful wooded setting not swamped by hiway traffic noise.  All rooms are accessed by an interior hallway that made my wife feel more safe and secure.  Our room was conveniently located near an exit to the parking lot that made hauling luggage and other stuff from the car not too difficult.The indoor heated pool pleased my young kids.  The free breakfast was top-notch as free breakfasts go.  The facility is well-maintained and very clean.  Reception was knowledgable and helpful.  Residence Inn by Mariott is now my brand of choice.  Of course, it's all about the price:  at $99, this hotel is above average/excellent.  At $165 (the best available price 4 nts earlier when I tried to book), I'd have probably rated this same hotel average/good.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stopped here for 1 nt on our way back from the Gulf coast.  We paid $99 + tax for a Friday night, which I consider great value.  4 nights earlier we had stayed in the area at a different hotel located nearby directly on I-45 (much more road noise), an older facility with external entrance to rooms.  Not very impressive.  By comparison, at the Residence Inn for the same price, we got a 1 BR suite with a kitchen, and in a beautiful wooded setting not swamped by hiway traffic noise.  All rooms are accessed by an interior hallway that made my wife feel more safe and secure.  Our room was conveniently located near an exit to the parking lot that made hauling luggage and other stuff from the car not too difficult.The indoor heated pool pleased my young kids.  The free breakfast was top-notch as free breakfasts go.  The facility is well-maintained and very clean.  Reception was knowledgable and helpful.  Residence Inn by Mariott is now my brand of choice.  Of course, it's all about the price:  at $99, this hotel is above average/excellent.  At $165 (the best available price 4 nts earlier when I tried to book), I'd have probably rated this same hotel average/good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r4108352-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>4108352</t>
+  </si>
+  <si>
+    <t>11/11/2005</t>
+  </si>
+  <si>
+    <t>Bad hotel, worse sales director</t>
+  </si>
+  <si>
+    <t>This hotel is old &amp; in need of renovation.  My room was allegedly a non-smoking room, but it was surrounded by smoking rooms and smoke would leak right into the bathroom.  The hallway &amp; furniture smelled funky (not due to the smoke, either).  The front desk staff were very friendly but couldn't switch my room because they were all booked up.  My experience wouldn't have been totally awful if it wasn't for the fact that the sales director was a big liar and was completely unconcerned about accomodating me, thereby causing me to switch hotels.  I hope Marriott realizes that she is solely responsible for losing all my future business.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2005</t>
+  </si>
+  <si>
+    <t>This hotel is old &amp; in need of renovation.  My room was allegedly a non-smoking room, but it was surrounded by smoking rooms and smoke would leak right into the bathroom.  The hallway &amp; furniture smelled funky (not due to the smoke, either).  The front desk staff were very friendly but couldn't switch my room because they were all booked up.  My experience wouldn't have been totally awful if it wasn't for the fact that the sales director was a big liar and was completely unconcerned about accomodating me, thereby causing me to switch hotels.  I hope Marriott realizes that she is solely responsible for losing all my future business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r2456150-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>2456150</t>
+  </si>
+  <si>
+    <t>08/16/2004</t>
+  </si>
+  <si>
+    <t>Excellent!!!</t>
+  </si>
+  <si>
+    <t>Great location, friendly staff, very clean, smelled good, the room was awesome!  Full refrigerator, dishwasher, etc.  Extra closet space.  Great price $67.00 for a Saturday night.  I visited Dallas, The Woodlands and Galveston during this trip and this property was the best out of the 3 places I stayed at and cheaper!!!  If I ever visit the Houston area again, I will purposely drive out of my way to stay here again!  The area was beautiful too.  Nice mall and restaurants, very scenic.  When I needed to use the internet for a last minute trip to Galveston to go to the beach, the manager called another of their properties up the street and told them I was on the way and I was able to use their business center to find a hotel in Galveston.  Excellent customer service!MoreShow less</t>
+  </si>
+  <si>
+    <t>Great location, friendly staff, very clean, smelled good, the room was awesome!  Full refrigerator, dishwasher, etc.  Extra closet space.  Great price $67.00 for a Saturday night.  I visited Dallas, The Woodlands and Galveston during this trip and this property was the best out of the 3 places I stayed at and cheaper!!!  If I ever visit the Houston area again, I will purposely drive out of my way to stay here again!  The area was beautiful too.  Nice mall and restaurants, very scenic.  When I needed to use the internet for a last minute trip to Galveston to go to the beach, the manager called another of their properties up the street and told them I was on the way and I was able to use their business center to find a hotel in Galveston.  Excellent customer service!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2142,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2174,4385 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>110</v>
+      </c>
+      <c r="X9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>123</v>
+      </c>
+      <c r="X11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>132</v>
+      </c>
+      <c r="X12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>140</v>
+      </c>
+      <c r="O13" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>141</v>
+      </c>
+      <c r="X13" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>150</v>
+      </c>
+      <c r="X14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>158</v>
+      </c>
+      <c r="O15" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>159</v>
+      </c>
+      <c r="X15" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>158</v>
+      </c>
+      <c r="O16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>167</v>
+      </c>
+      <c r="X16" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>171</v>
+      </c>
+      <c r="J17" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" t="s">
+        <v>173</v>
+      </c>
+      <c r="L17" t="s">
+        <v>174</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>175</v>
+      </c>
+      <c r="O17" t="s">
+        <v>176</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>177</v>
+      </c>
+      <c r="X17" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>181</v>
+      </c>
+      <c r="J18" t="s">
+        <v>182</v>
+      </c>
+      <c r="K18" t="s">
+        <v>183</v>
+      </c>
+      <c r="L18" t="s">
+        <v>184</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>177</v>
+      </c>
+      <c r="X18" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" t="s">
+        <v>188</v>
+      </c>
+      <c r="K19" t="s">
+        <v>189</v>
+      </c>
+      <c r="L19" t="s">
+        <v>190</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>175</v>
+      </c>
+      <c r="O19" t="s">
+        <v>76</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>177</v>
+      </c>
+      <c r="X19" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>193</v>
+      </c>
+      <c r="J20" t="s">
+        <v>194</v>
+      </c>
+      <c r="K20" t="s">
+        <v>195</v>
+      </c>
+      <c r="L20" t="s">
+        <v>196</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>197</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>198</v>
+      </c>
+      <c r="X20" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>202</v>
+      </c>
+      <c r="J21" t="s">
+        <v>203</v>
+      </c>
+      <c r="K21" t="s">
+        <v>204</v>
+      </c>
+      <c r="L21" t="s">
+        <v>205</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>206</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>207</v>
+      </c>
+      <c r="X21" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>211</v>
+      </c>
+      <c r="J22" t="s">
+        <v>212</v>
+      </c>
+      <c r="K22" t="s">
+        <v>213</v>
+      </c>
+      <c r="L22" t="s">
+        <v>214</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>215</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>216</v>
+      </c>
+      <c r="X22" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>219</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>220</v>
+      </c>
+      <c r="J23" t="s">
+        <v>221</v>
+      </c>
+      <c r="K23" t="s">
+        <v>222</v>
+      </c>
+      <c r="L23" t="s">
+        <v>223</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>224</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>225</v>
+      </c>
+      <c r="X23" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>228</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>229</v>
+      </c>
+      <c r="J24" t="s">
+        <v>230</v>
+      </c>
+      <c r="K24" t="s">
+        <v>231</v>
+      </c>
+      <c r="L24" t="s">
+        <v>232</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>233</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>234</v>
+      </c>
+      <c r="X24" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>237</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>238</v>
+      </c>
+      <c r="J25" t="s">
+        <v>239</v>
+      </c>
+      <c r="K25" t="s">
+        <v>240</v>
+      </c>
+      <c r="L25" t="s">
+        <v>241</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>233</v>
+      </c>
+      <c r="O25" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>242</v>
+      </c>
+      <c r="X25" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>246</v>
+      </c>
+      <c r="J26" t="s">
+        <v>247</v>
+      </c>
+      <c r="K26" t="s">
+        <v>248</v>
+      </c>
+      <c r="L26" t="s">
+        <v>249</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>250</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>251</v>
+      </c>
+      <c r="X26" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>254</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>255</v>
+      </c>
+      <c r="J27" t="s">
+        <v>256</v>
+      </c>
+      <c r="K27" t="s">
+        <v>257</v>
+      </c>
+      <c r="L27" t="s">
+        <v>258</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>250</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>251</v>
+      </c>
+      <c r="X27" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>260</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>261</v>
+      </c>
+      <c r="J28" t="s">
+        <v>262</v>
+      </c>
+      <c r="K28" t="s">
+        <v>263</v>
+      </c>
+      <c r="L28" t="s">
+        <v>264</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>224</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>265</v>
+      </c>
+      <c r="X28" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>268</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>269</v>
+      </c>
+      <c r="J29" t="s">
+        <v>270</v>
+      </c>
+      <c r="K29" t="s">
+        <v>271</v>
+      </c>
+      <c r="L29" t="s">
+        <v>272</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>273</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>274</v>
+      </c>
+      <c r="X29" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>277</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>278</v>
+      </c>
+      <c r="J30" t="s">
+        <v>279</v>
+      </c>
+      <c r="K30" t="s">
+        <v>280</v>
+      </c>
+      <c r="L30" t="s">
+        <v>281</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>282</v>
+      </c>
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>283</v>
+      </c>
+      <c r="X30" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>286</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>287</v>
+      </c>
+      <c r="J31" t="s">
+        <v>288</v>
+      </c>
+      <c r="K31" t="s">
+        <v>289</v>
+      </c>
+      <c r="L31" t="s">
+        <v>290</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>282</v>
+      </c>
+      <c r="O31" t="s">
+        <v>76</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>291</v>
+      </c>
+      <c r="X31" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>294</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>295</v>
+      </c>
+      <c r="J32" t="s">
+        <v>296</v>
+      </c>
+      <c r="K32" t="s">
+        <v>297</v>
+      </c>
+      <c r="L32" t="s">
+        <v>298</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>299</v>
+      </c>
+      <c r="O32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>300</v>
+      </c>
+      <c r="X32" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>303</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>304</v>
+      </c>
+      <c r="J33" t="s">
+        <v>305</v>
+      </c>
+      <c r="K33" t="s">
+        <v>306</v>
+      </c>
+      <c r="L33" t="s">
+        <v>307</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>308</v>
+      </c>
+      <c r="O33" t="s">
+        <v>76</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>309</v>
+      </c>
+      <c r="X33" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>312</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>313</v>
+      </c>
+      <c r="J34" t="s">
+        <v>314</v>
+      </c>
+      <c r="K34" t="s">
+        <v>315</v>
+      </c>
+      <c r="L34" t="s">
+        <v>316</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>308</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>317</v>
+      </c>
+      <c r="X34" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>320</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>321</v>
+      </c>
+      <c r="J35" t="s">
+        <v>322</v>
+      </c>
+      <c r="K35" t="s">
+        <v>323</v>
+      </c>
+      <c r="L35" t="s">
+        <v>324</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>325</v>
+      </c>
+      <c r="O35" t="s">
+        <v>76</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>326</v>
+      </c>
+      <c r="X35" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>329</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>330</v>
+      </c>
+      <c r="J36" t="s">
+        <v>331</v>
+      </c>
+      <c r="K36" t="s">
+        <v>332</v>
+      </c>
+      <c r="L36" t="s">
+        <v>333</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>334</v>
+      </c>
+      <c r="X36" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>337</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>338</v>
+      </c>
+      <c r="J37" t="s">
+        <v>339</v>
+      </c>
+      <c r="K37" t="s">
+        <v>340</v>
+      </c>
+      <c r="L37" t="s">
+        <v>341</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>342</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>343</v>
+      </c>
+      <c r="X37" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>346</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>347</v>
+      </c>
+      <c r="J38" t="s">
+        <v>348</v>
+      </c>
+      <c r="K38" t="s">
+        <v>349</v>
+      </c>
+      <c r="L38" t="s">
+        <v>350</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>351</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>352</v>
+      </c>
+      <c r="X38" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>355</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>356</v>
+      </c>
+      <c r="J39" t="s">
+        <v>357</v>
+      </c>
+      <c r="K39" t="s">
+        <v>358</v>
+      </c>
+      <c r="L39" t="s">
+        <v>359</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>360</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>361</v>
+      </c>
+      <c r="X39" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>364</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>365</v>
+      </c>
+      <c r="J40" t="s">
+        <v>366</v>
+      </c>
+      <c r="K40" t="s">
+        <v>367</v>
+      </c>
+      <c r="L40" t="s">
+        <v>368</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>369</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>370</v>
+      </c>
+      <c r="X40" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>373</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>374</v>
+      </c>
+      <c r="J41" t="s">
+        <v>375</v>
+      </c>
+      <c r="K41" t="s">
+        <v>376</v>
+      </c>
+      <c r="L41" t="s">
+        <v>377</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>378</v>
+      </c>
+      <c r="O41" t="s">
+        <v>76</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>379</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>380</v>
+      </c>
+      <c r="J42" t="s">
+        <v>381</v>
+      </c>
+      <c r="K42" t="s">
+        <v>382</v>
+      </c>
+      <c r="L42" t="s">
+        <v>383</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>384</v>
+      </c>
+      <c r="O42" t="s">
+        <v>76</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>385</v>
+      </c>
+      <c r="X42" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>388</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>389</v>
+      </c>
+      <c r="J43" t="s">
+        <v>390</v>
+      </c>
+      <c r="K43" t="s">
+        <v>391</v>
+      </c>
+      <c r="L43" t="s">
+        <v>392</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>384</v>
+      </c>
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>393</v>
+      </c>
+      <c r="X43" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>396</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>397</v>
+      </c>
+      <c r="J44" t="s">
+        <v>398</v>
+      </c>
+      <c r="K44" t="s">
+        <v>399</v>
+      </c>
+      <c r="L44" t="s">
+        <v>400</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>401</v>
+      </c>
+      <c r="O44" t="s">
+        <v>60</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>402</v>
+      </c>
+      <c r="X44" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>405</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>406</v>
+      </c>
+      <c r="J45" t="s">
+        <v>407</v>
+      </c>
+      <c r="K45" t="s">
+        <v>408</v>
+      </c>
+      <c r="L45" t="s">
+        <v>409</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>410</v>
+      </c>
+      <c r="X45" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>413</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>414</v>
+      </c>
+      <c r="J46" t="s">
+        <v>415</v>
+      </c>
+      <c r="K46" t="s">
+        <v>416</v>
+      </c>
+      <c r="L46" t="s">
+        <v>417</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>351</v>
+      </c>
+      <c r="O46" t="s">
+        <v>76</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>418</v>
+      </c>
+      <c r="X46" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>421</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>422</v>
+      </c>
+      <c r="J47" t="s">
+        <v>423</v>
+      </c>
+      <c r="K47" t="s">
+        <v>424</v>
+      </c>
+      <c r="L47" t="s">
+        <v>425</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>426</v>
+      </c>
+      <c r="O47" t="s">
+        <v>76</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>427</v>
+      </c>
+      <c r="X47" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>430</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>431</v>
+      </c>
+      <c r="J48" t="s">
+        <v>432</v>
+      </c>
+      <c r="K48" t="s">
+        <v>433</v>
+      </c>
+      <c r="L48" t="s">
+        <v>434</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>435</v>
+      </c>
+      <c r="O48" t="s">
+        <v>60</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>436</v>
+      </c>
+      <c r="X48" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>439</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>440</v>
+      </c>
+      <c r="J49" t="s">
+        <v>432</v>
+      </c>
+      <c r="K49" t="s">
+        <v>441</v>
+      </c>
+      <c r="L49" t="s">
+        <v>442</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>426</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>436</v>
+      </c>
+      <c r="X49" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>444</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>445</v>
+      </c>
+      <c r="J50" t="s">
+        <v>446</v>
+      </c>
+      <c r="K50" t="s">
+        <v>447</v>
+      </c>
+      <c r="L50" t="s">
+        <v>448</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>449</v>
+      </c>
+      <c r="O50" t="s">
+        <v>76</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>450</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>451</v>
+      </c>
+      <c r="J51" t="s">
+        <v>452</v>
+      </c>
+      <c r="K51" t="s">
+        <v>453</v>
+      </c>
+      <c r="L51" t="s">
+        <v>454</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>449</v>
+      </c>
+      <c r="O51" t="s">
+        <v>76</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>456</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>457</v>
+      </c>
+      <c r="J52" t="s">
+        <v>458</v>
+      </c>
+      <c r="K52" t="s">
+        <v>459</v>
+      </c>
+      <c r="L52" t="s">
+        <v>460</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>461</v>
+      </c>
+      <c r="O52" t="s">
+        <v>76</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>462</v>
+      </c>
+      <c r="X52" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>465</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>466</v>
+      </c>
+      <c r="J53" t="s">
+        <v>467</v>
+      </c>
+      <c r="K53" t="s">
+        <v>468</v>
+      </c>
+      <c r="L53" t="s">
+        <v>469</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>470</v>
+      </c>
+      <c r="O53" t="s">
+        <v>76</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>471</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>472</v>
+      </c>
+      <c r="J54" t="s">
+        <v>473</v>
+      </c>
+      <c r="K54" t="s">
+        <v>474</v>
+      </c>
+      <c r="L54" t="s">
+        <v>475</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>476</v>
+      </c>
+      <c r="O54" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>477</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>478</v>
+      </c>
+      <c r="J55" t="s">
+        <v>479</v>
+      </c>
+      <c r="K55" t="s">
+        <v>480</v>
+      </c>
+      <c r="L55" t="s">
+        <v>481</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>482</v>
+      </c>
+      <c r="O55" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>483</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>484</v>
+      </c>
+      <c r="J56" t="s">
+        <v>485</v>
+      </c>
+      <c r="K56" t="s">
+        <v>486</v>
+      </c>
+      <c r="L56" t="s">
+        <v>487</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>488</v>
+      </c>
+      <c r="O56" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>489</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>490</v>
+      </c>
+      <c r="J57" t="s">
+        <v>491</v>
+      </c>
+      <c r="K57" t="s">
+        <v>492</v>
+      </c>
+      <c r="L57" t="s">
+        <v>493</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>494</v>
+      </c>
+      <c r="O57" t="s">
+        <v>76</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>495</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>496</v>
+      </c>
+      <c r="J58" t="s">
+        <v>497</v>
+      </c>
+      <c r="K58" t="s">
+        <v>498</v>
+      </c>
+      <c r="L58" t="s">
+        <v>499</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>500</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>502</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>503</v>
+      </c>
+      <c r="J59" t="s">
+        <v>504</v>
+      </c>
+      <c r="K59" t="s">
+        <v>505</v>
+      </c>
+      <c r="L59" t="s">
+        <v>506</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>507</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>508</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>509</v>
+      </c>
+      <c r="J60" t="s">
+        <v>510</v>
+      </c>
+      <c r="K60" t="s">
+        <v>511</v>
+      </c>
+      <c r="L60" t="s">
+        <v>512</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>513</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>514</v>
+      </c>
+      <c r="J61" t="s">
+        <v>515</v>
+      </c>
+      <c r="K61" t="s">
+        <v>516</v>
+      </c>
+      <c r="L61" t="s">
+        <v>517</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>518</v>
+      </c>
+      <c r="O61" t="s">
+        <v>60</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>2</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>519</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>520</v>
+      </c>
+      <c r="J62" t="s">
+        <v>521</v>
+      </c>
+      <c r="K62" t="s">
+        <v>522</v>
+      </c>
+      <c r="L62" t="s">
+        <v>523</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>524</v>
+      </c>
+      <c r="O62" t="s">
+        <v>60</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>526</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>527</v>
+      </c>
+      <c r="J63" t="s">
+        <v>528</v>
+      </c>
+      <c r="K63" t="s">
+        <v>529</v>
+      </c>
+      <c r="L63" t="s">
+        <v>530</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>531</v>
+      </c>
+      <c r="O63" t="s">
+        <v>76</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>533</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>534</v>
+      </c>
+      <c r="J64" t="s">
+        <v>535</v>
+      </c>
+      <c r="K64" t="s">
+        <v>536</v>
+      </c>
+      <c r="L64" t="s">
+        <v>537</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>538</v>
+      </c>
+      <c r="O64" t="s">
+        <v>60</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>540</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>541</v>
+      </c>
+      <c r="J65" t="s">
+        <v>542</v>
+      </c>
+      <c r="K65" t="s">
+        <v>543</v>
+      </c>
+      <c r="L65" t="s">
+        <v>544</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>546</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>547</v>
+      </c>
+      <c r="J66" t="s">
+        <v>548</v>
+      </c>
+      <c r="K66" t="s">
+        <v>549</v>
+      </c>
+      <c r="L66" t="s">
+        <v>550</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>551</v>
+      </c>
+      <c r="O66" t="s">
+        <v>60</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>553</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>554</v>
+      </c>
+      <c r="J67" t="s">
+        <v>555</v>
+      </c>
+      <c r="K67" t="s">
+        <v>556</v>
+      </c>
+      <c r="L67" t="s">
+        <v>557</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>558</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_549.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_549.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="877">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,81 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r610713520-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>56764</t>
+  </si>
+  <si>
+    <t>106241</t>
+  </si>
+  <si>
+    <t>610713520</t>
+  </si>
+  <si>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>Much Needed Break!!</t>
+  </si>
+  <si>
+    <t>Needed a break &amp; didn't want to go far. Found this place at the last minute. Chelsea the manager helped with the reservation. She was so pleasant &amp; patient in answering all my questions and making my reservation. Very professional &amp; personable.  This place turned out to be a gem.  Got a 2 bedroom suite, one king bed &amp; 1 queen bed,  each bedroom had it's private bathroom, sleeper sofa in living area with fireplace &amp; full kitchen.  Just walking into the hotel it smelled fresh &amp; clean. Hotel room was clean, as were the fridge, stove, bathrooms. One of the most cleanest rooms I've seen.  Continental breakfast had plenty of  choices and fresh food. Only 5 mins from Woodlands Mall &amp; minutes from other shopping places like Target, Marshalls,  Bestbuy,  ULTA. Also plenty of food choices too.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Needed a break &amp; didn't want to go far. Found this place at the last minute. Chelsea the manager helped with the reservation. She was so pleasant &amp; patient in answering all my questions and making my reservation. Very professional &amp; personable.  This place turned out to be a gem.  Got a 2 bedroom suite, one king bed &amp; 1 queen bed,  each bedroom had it's private bathroom, sleeper sofa in living area with fireplace &amp; full kitchen.  Just walking into the hotel it smelled fresh &amp; clean. Hotel room was clean, as were the fridge, stove, bathrooms. One of the most cleanest rooms I've seen.  Continental breakfast had plenty of  choices and fresh food. Only 5 mins from Woodlands Mall &amp; minutes from other shopping places like Target, Marshalls,  Bestbuy,  ULTA. Also plenty of food choices too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r598915031-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>598915031</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>Staycation after Concert</t>
+  </si>
+  <si>
+    <t>We chose Residence Inn for 2 reasons, Pet Friendly and size of rooms.  We were in one of the two bedroom suites, four of us went to a concert at Cynthia Woods on Sunday. So close to the Pavillion you can walk there.  Living over an hour away we decided to bring the pets and make a day out of it and had a blast.  This hotel has a great walking perimeter than most and has doggie stations all around the outside of the hotel.  Well done. Very clean and looks to have been renovated recently with newer appliances. We will definitely to this overnight again if going to a concert in the Woodlands.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We chose Residence Inn for 2 reasons, Pet Friendly and size of rooms.  We were in one of the two bedroom suites, four of us went to a concert at Cynthia Woods on Sunday. So close to the Pavillion you can walk there.  Living over an hour away we decided to bring the pets and make a day out of it and had a blast.  This hotel has a great walking perimeter than most and has doggie stations all around the outside of the hotel.  Well done. Very clean and looks to have been renovated recently with newer appliances. We will definitely to this overnight again if going to a concert in the Woodlands.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r594746711-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>594746711</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>The hotel was clean and the staff was extremely nice. It was conveniently located to shopping and plenty of places to eat. I would recommend it to any traveler for business or for family visits or travel.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r571521064-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
   </si>
   <si>
-    <t>56764</t>
-  </si>
-  <si>
-    <t>106241</t>
-  </si>
-  <si>
     <t>571521064</t>
   </si>
   <si>
@@ -177,9 +240,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r567030962-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -228,6 +288,51 @@
     <t>Traveled to The Woodlands area in Jan 1-13 2018 for business.  This was my first visit to the area and first time staying at this hotel.  From the day of my arrival, 01/0/18 thru 01/13/18 I have all good things to say about this hotel.  The hotel and suite were both very clean, the staff was very courteous, friendly and helpful.  Being new to the area i was not sure where things are in the area.  The staff was very good about recommending places to shop, dine and relax.  Overall I thoroughly enjoyed my extended stay at this location and look forward to my next trip to the Woodlands area.  Thank you all.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r549151823-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>549151823</t>
+  </si>
+  <si>
+    <t>12/25/2017</t>
+  </si>
+  <si>
+    <t>Holidays near family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great amount of space for 2-3 people in a single suite. Great to have a kitchen, but keep in mind that this includes a two-burner stove top, larger microwave, dishwasher, and full size fridge. There is no oven, but the staff may let you borrow their oven if you really need one. Plenty of power outlets, but lack of USB power ports was disappointing. Free basic wi-fi, though current rate is $5/day if you want something more than 2mbs up/down speed. We’ve paid more for less; the evening rate was nice considering holiday timing and higher rates at neighboring locations. </t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r542982137-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>542982137</t>
+  </si>
+  <si>
+    <t>11/24/2017</t>
+  </si>
+  <si>
+    <t>Good place to rest</t>
+  </si>
+  <si>
+    <t>I was in Houston for two weeks. Though it is not close to Houston downtown, it is a nice hotel with good room and interior. The breakfast is standard but it is okay. I like the building. The staff was friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded November 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2017</t>
+  </si>
+  <si>
+    <t>I was in Houston for two weeks. Though it is not close to Houston downtown, it is a nice hotel with good room and interior. The breakfast is standard but it is okay. I like the building. The staff was friendly.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r539221728-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -246,9 +351,6 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded November 8, 2017</t>
   </si>
   <si>
@@ -312,6 +414,54 @@
     <t>My family stayed here last weekend and enjoyed our stay.  The front desk attendants were very courteous and welcoming.  Housekeeping could be better.  They cleaned the room, but didn't leave extra towels.  Breakfast was good, but common.  The hotel is right off the intestate, easily accessible, close to the mall and a lot of restaurants.  I would definitely recommend this hotel for others and stay again!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r523885384-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>523885384</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
+  </si>
+  <si>
+    <t>Great for business trip</t>
+  </si>
+  <si>
+    <t>I always stay there when I go to the Woodlands for business trip. I have tried many hotels in the area, and I think it is the best one for the pricing for what you get. Service is always great! I had to changed my room one time due to bathroom clogged. They changed it for me immediately, and gave me a sorry note and a gift card for Starbucks coffee.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>I always stay there when I go to the Woodlands for business trip. I have tried many hotels in the area, and I think it is the best one for the pricing for what you get. Service is always great! I had to changed my room one time due to bathroom clogged. They changed it for me immediately, and gave me a sorry note and a gift card for Starbucks coffee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r523872095-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>523872095</t>
+  </si>
+  <si>
+    <t>8/10, but a few important flaws.</t>
+  </si>
+  <si>
+    <t>I have stayed multiple multiple nights at this particular location, came to know the staff very well, location is wonderful, and would definitely stay here again. BUT, there are a few problems that I do need to bring to light. 
+1) When calling the hotel in the early afternoon/evening time, i usually sit and listen to the phone ring for at least 4-5 minutes (kind of feels like being put on hold) and its either because there is nobody at the desk, or possibly on the other line. I strongly feel that they should have at least 2 people monitoring the desk at all times in the evenings, as there is a dinner service and things can get hectic and busy. Sometimes one person just isn't enough. 
+2) My second complaint that I noticed is that when housekeeping would come, there was always something that hadn't been done or had been overlooked. The most common one was the trash. The room would be clean, bed made, fresh towels and toiletries, but look under the cabinet and the trash bin is the same as how you left it. Not really a HUGE deal but it is kind of gross and will start to smell. 
+3) Several, several times during my many nights of staying would I find the front desk to be completely unattended. This would usually occur in the evenings or on the overnight shift, where I have caught the...I have stayed multiple multiple nights at this particular location, came to know the staff very well, location is wonderful, and would definitely stay here again. BUT, there are a few problems that I do need to bring to light. 1) When calling the hotel in the early afternoon/evening time, i usually sit and listen to the phone ring for at least 4-5 minutes (kind of feels like being put on hold) and its either because there is nobody at the desk, or possibly on the other line. I strongly feel that they should have at least 2 people monitoring the desk at all times in the evenings, as there is a dinner service and things can get hectic and busy. Sometimes one person just isn't enough. 2) My second complaint that I noticed is that when housekeeping would come, there was always something that hadn't been done or had been overlooked. The most common one was the trash. The room would be clean, bed made, fresh towels and toiletries, but look under the cabinet and the trash bin is the same as how you left it. Not really a HUGE deal but it is kind of gross and will start to smell. 3) Several, several times during my many nights of staying would I find the front desk to be completely unattended. This would usually occur in the evenings or on the overnight shift, where I have caught the night person outside on the patio smoking a cigarette, or texting on their phone, while guests stand around at the counter waiting on the attendant. In my eyes that is disrespectful to the name of the hotel, and just rude to treat guests like that. Maybe is the same reason for why the phone rings again, and again, and again for several moments before anybody picks up? Who knows. Despite those issues, there are alot of strong positives this hotel has to offer. -The prime location within minutes of local shops, restaurants, entertainment, and lovely scenery in the area.-The majority of the staff is just wonderful and pleasant! The dinner hostess (Denise) was always a shining face, always so friendly and helpful, and a great personality to talk too! The other girls who help her on occasion are also very sweet and kind! -The housekeeping manager (Narin) is so sweet and any comments brought to her attention regarding housekeeping were addressed (i think the trash was more to the housekeeper who did the room). -Several of the front desk are very helpful and sweet, I only got a few names (Mauro, Lorena, Sara, Kamilah) just to name the ones that stuck out. They were all very nice, and definitely made the experience. I would recommend this a 8.5/10 to recommend this location to anybody looking for a comfortable place to stay in the woodlands are! Overall a wonderful hotel, just a few small issues.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I have stayed multiple multiple nights at this particular location, came to know the staff very well, location is wonderful, and would definitely stay here again. BUT, there are a few problems that I do need to bring to light. 
+1) When calling the hotel in the early afternoon/evening time, i usually sit and listen to the phone ring for at least 4-5 minutes (kind of feels like being put on hold) and its either because there is nobody at the desk, or possibly on the other line. I strongly feel that they should have at least 2 people monitoring the desk at all times in the evenings, as there is a dinner service and things can get hectic and busy. Sometimes one person just isn't enough. 
+2) My second complaint that I noticed is that when housekeeping would come, there was always something that hadn't been done or had been overlooked. The most common one was the trash. The room would be clean, bed made, fresh towels and toiletries, but look under the cabinet and the trash bin is the same as how you left it. Not really a HUGE deal but it is kind of gross and will start to smell. 
+3) Several, several times during my many nights of staying would I find the front desk to be completely unattended. This would usually occur in the evenings or on the overnight shift, where I have caught the...I have stayed multiple multiple nights at this particular location, came to know the staff very well, location is wonderful, and would definitely stay here again. BUT, there are a few problems that I do need to bring to light. 1) When calling the hotel in the early afternoon/evening time, i usually sit and listen to the phone ring for at least 4-5 minutes (kind of feels like being put on hold) and its either because there is nobody at the desk, or possibly on the other line. I strongly feel that they should have at least 2 people monitoring the desk at all times in the evenings, as there is a dinner service and things can get hectic and busy. Sometimes one person just isn't enough. 2) My second complaint that I noticed is that when housekeeping would come, there was always something that hadn't been done or had been overlooked. The most common one was the trash. The room would be clean, bed made, fresh towels and toiletries, but look under the cabinet and the trash bin is the same as how you left it. Not really a HUGE deal but it is kind of gross and will start to smell. 3) Several, several times during my many nights of staying would I find the front desk to be completely unattended. This would usually occur in the evenings or on the overnight shift, where I have caught the night person outside on the patio smoking a cigarette, or texting on their phone, while guests stand around at the counter waiting on the attendant. In my eyes that is disrespectful to the name of the hotel, and just rude to treat guests like that. Maybe is the same reason for why the phone rings again, and again, and again for several moments before anybody picks up? Who knows. Despite those issues, there are alot of strong positives this hotel has to offer. -The prime location within minutes of local shops, restaurants, entertainment, and lovely scenery in the area.-The majority of the staff is just wonderful and pleasant! The dinner hostess (Denise) was always a shining face, always so friendly and helpful, and a great personality to talk too! The other girls who help her on occasion are also very sweet and kind! -The housekeeping manager (Narin) is so sweet and any comments brought to her attention regarding housekeeping were addressed (i think the trash was more to the housekeeper who did the room). -Several of the front desk are very helpful and sweet, I only got a few names (Mauro, Lorena, Sara, Kamilah) just to name the ones that stuck out. They were all very nice, and definitely made the experience. I would recommend this a 8.5/10 to recommend this location to anybody looking for a comfortable place to stay in the woodlands are! Overall a wonderful hotel, just a few small issues.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r515153395-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -327,9 +477,6 @@
     <t>This is a very nice hotel that is priced right for a family stay in the woodlands.  The rooms are always clean and the beds are comfortable.  The rooms have a nice work area.  They have a great free breakfast as well.  The staff is always very friendly.  My go to place when in the area.</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r498566766-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -372,6 +519,51 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r492513936-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>492513936</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t>Pleasant Stay</t>
+  </si>
+  <si>
+    <t>Our room was a 1 bedroom suite complete with a full kitchen. We even cooked one meal there and was happy throughout the stay. The one thing that I did notice that wasn't up to Marriott standards was the three round stains on the living room carpet. They were big and ugly. This is just not right. I have stayed in Marriotts all over and have never experienced this.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded June 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2017</t>
+  </si>
+  <si>
+    <t>Our room was a 1 bedroom suite complete with a full kitchen. We even cooked one meal there and was happy throughout the stay. The one thing that I did notice that wasn't up to Marriott standards was the three round stains on the living room carpet. They were big and ugly. This is just not right. I have stayed in Marriotts all over and have never experienced this.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r490517798-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>490517798</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>Beautiful hotel, great staff, one glaring problem</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights in May/June 2017 while attending a graduation in The Woodlands.  We had a two-bedroom suite and the room was very clean and the staff was very attentive to our needs.  A five star review should have been a no-brainer but there is one glaring problem that I know is a chronic issue for Residence Inn hotels throughout the hotel (at least the locations I have been too).The internet speed was quite simply unacceptable. I had to connect through VPN back to my company to get work done and it just wasn't fast enough to be practical.  They state that you can pay $5 more and be upgraded to "premium" internet but seriously, this isn't a bargain priced we are staying in, why would that be a premium service?  Most lower-priced hotels have MUCH faster internet for free.  The internet speed was 2Mbps which is terrible. Even the premium speed offered says it's "3x faster" but even 6Mbs isn't great when you are paying extra for it.  I hooked up to the wireless hot spot on my phone and the internet was 12x faster than what the hotel provided.This is an issue that the hotel and the chain need to address because it really isn't acceptable. It cost you a full rating point in my review.  MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights in May/June 2017 while attending a graduation in The Woodlands.  We had a two-bedroom suite and the room was very clean and the staff was very attentive to our needs.  A five star review should have been a no-brainer but there is one glaring problem that I know is a chronic issue for Residence Inn hotels throughout the hotel (at least the locations I have been too).The internet speed was quite simply unacceptable. I had to connect through VPN back to my company to get work done and it just wasn't fast enough to be practical.  They state that you can pay $5 more and be upgraded to "premium" internet but seriously, this isn't a bargain priced we are staying in, why would that be a premium service?  Most lower-priced hotels have MUCH faster internet for free.  The internet speed was 2Mbps which is terrible. Even the premium speed offered says it's "3x faster" but even 6Mbs isn't great when you are paying extra for it.  I hooked up to the wireless hot spot on my phone and the internet was 12x faster than what the hotel provided.This is an issue that the hotel and the chain need to address because it really isn't acceptable. It cost you a full rating point in my review.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r487399872-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -448,6 +640,60 @@
   </si>
   <si>
     <t>Stayed here a few nights and really enjoyed it.  The staff was super friendly at check in.  The place is very clean.  The rooms are very comfortable and there is great space to relax and work.   Love all the plug ins around the room.  Free internet is a bit slow.  Great breakfast that is free in the morning.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r458771689-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>458771689</t>
+  </si>
+  <si>
+    <t>02/11/2017</t>
+  </si>
+  <si>
+    <t>2 good weeks</t>
+  </si>
+  <si>
+    <t>Great breakfast, fast wifi, laundry machine, great location, close proximity to woodland malls and target, social nights with complimentary light dinner.There's nothing go dislike about the hotel. Will stay again if coming back for business trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded February 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2017</t>
+  </si>
+  <si>
+    <t>Great breakfast, fast wifi, laundry machine, great location, close proximity to woodland malls and target, social nights with complimentary light dinner.There's nothing go dislike about the hotel. Will stay again if coming back for business trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r453448578-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>453448578</t>
+  </si>
+  <si>
+    <t>01/19/2017</t>
+  </si>
+  <si>
+    <t>OVERNIGHT AT RESIDENCE INN HOUSTON THE WOODLANDS</t>
+  </si>
+  <si>
+    <t>This was a simple overnight stay for a medical visit to The Woodlands.  On arrival there was only a brief delay before our room was assigned.  It just so happened that this was a Tuesday and the hotel was preparing a hamburger feast for guests.  The hotel performed with an excellent multi-faceted buffet that was delightful.  They provided some nice red and white wines and cold beer.  The two ladies doing the buffet were so friendly,  and very nice to visit with.  It was about as close as you could get to home without actually being there.  This was an older property but maintenance and continuing upgrades made it feel like new. The suites were well executed and designed with plenty of room.  We will definitely stay here again for our next docotro visit. The hotel provides various buffets for at least three nights a week which is nice when you don't feel like getting out for dinner.  The entire staff was great and this is definitely a stay here again property.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded February 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2017</t>
+  </si>
+  <si>
+    <t>This was a simple overnight stay for a medical visit to The Woodlands.  On arrival there was only a brief delay before our room was assigned.  It just so happened that this was a Tuesday and the hotel was preparing a hamburger feast for guests.  The hotel performed with an excellent multi-faceted buffet that was delightful.  They provided some nice red and white wines and cold beer.  The two ladies doing the buffet were so friendly,  and very nice to visit with.  It was about as close as you could get to home without actually being there.  This was an older property but maintenance and continuing upgrades made it feel like new. The suites were well executed and designed with plenty of room.  We will definitely stay here again for our next docotro visit. The hotel provides various buffets for at least three nights a week which is nice when you don't feel like getting out for dinner.  The entire staff was great and this is definitely a stay here again property.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r447828877-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
@@ -482,9 +728,6 @@
 8) Although housekeeping services were going to be limited during holidays, sufficient paper towels were not anticipated and paper towel roll only had 3 towels on rack on day of arrival.  Requested additional towel rolls from front desk- attendant said she'd...We have stayed at this Inn on numerous occasions and this is the 1st time we have encountered significant issues.  We stayed for 3 nights in a 2 bedroom suite.PROS:1) Very comfortable beds and pillows2) Quality linens and towels3) AC/Heating unit worked very well - easy to operate4) Friendly staff despite being assigned to work during the holidays5) Attractive environment6) Convenient location to restaurants, shopping events - easy access from variety of routes7) Maintenance person was available for 4 hour period on Christmas day.CONS:1) Suite 205 is a DUD!2) Location with Inn property looks out over hotel roof tops... cannot even see the parking lot and certainly has no views of the beautiful trees3) Sofa cushions horrible - highly uncomfortable &amp; depleted... sink even below frame of sofa; only other seating is one ergonomic chair and 2 straight back chairs. No seating in either bedroom.4) Dripping faucet in one of the bathrooms5)Shower mechanism fell apart when used - maintenance repaired when reported.6)Stinky garbage disposal when water ran down sink in kitchen7)Unable to obtain extra blanket or comforter when requested of front desk staff8) Although housekeeping services were going to be limited during holidays, sufficient paper towels were not anticipated and paper towel roll only had 3 towels on rack on day of arrival.  Requested additional towel rolls from front desk- attendant said she'd obtain a roll and get it up there.... she forgot and extra roll was obtained when I stopped by front desk 3 hours later.9)Body lotion amenity was practically empty upon arrival.10) No extra garbage bags... high end properties often put extra garbage bag in bottom of waste basket under primary bag so that if guest wants to start a new bag, it is easily available.  I had to walk down long hallway to find housekeeper's cart to get additional bag.It would seem that if housekeeping services were to be limited, attendants should stock up suites so guests would not run out  and that front desk clerks would be able to easily track down needed requests.  Surely housekeeping should have noticed the dripping faucet and the stinky garbage disposal!  Details DO make a difference when deciding where to stay and there are numerous options available in the area. Perhaps Suite 205 does not often get assigned since the location is so bad!  Apparently being a member of the Marriott Rewards program means nothing in terms of room assignments... even when one is staying for 3 consecutive nights!We will stay here one more time but if problems like this continue, we will strongly consider returning to one of the other suite hotels we've utilized in the past.Obviously this hotel property is well regarded by locals as several times we have been here, there have been couples or families here for extended stays due to renovations in their own homes.MoreShow less</t>
   </si>
   <si>
-    <t>December 2016</t>
-  </si>
-  <si>
     <t>TMIHospitality1, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded December 31, 2016</t>
   </si>
   <si>
@@ -562,6 +805,51 @@
     <t>The service, specifically front desk, at this Marriott is excellent, rooms are clean, updated and BIG!  Convenient location to many restaurants and the mall.  Right off 45 made it easy to find.  The area is very pretty with many trees all around.  We had a a great stay!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r434375291-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>434375291</t>
+  </si>
+  <si>
+    <t>11/03/2016</t>
+  </si>
+  <si>
+    <t>Terrific Business Stay</t>
+  </si>
+  <si>
+    <t>If you're doing business in the area, this is hard to beat. The rooms are spacious and comfortable. The breakfast is buffet style but has all that's required: coffee, tea, scrambled eggs, sausage, oatmeal, toast, and juice. The location is quiet and the beds comfortable. The bathrooms are spacious and well appointed with plenty of towels, shampoo and soap. The staff is attentive and very pleasant. I will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>If you're doing business in the area, this is hard to beat. The rooms are spacious and comfortable. The breakfast is buffet style but has all that's required: coffee, tea, scrambled eggs, sausage, oatmeal, toast, and juice. The location is quiet and the beds comfortable. The bathrooms are spacious and well appointed with plenty of towels, shampoo and soap. The staff is attentive and very pleasant. I will be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r423635891-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>423635891</t>
+  </si>
+  <si>
+    <t>09/29/2016</t>
+  </si>
+  <si>
+    <t>Coesy hotel and friendly employees</t>
+  </si>
+  <si>
+    <t>Great spacious studio apartment, and great friendly and helpful staff serving us round the clock.Mon, Tue and Wed free food and wine in the restaurant. Top class food and service.Svimmingpool and tennis court free ,clean and perfect.Spacious parking in front.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded October 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2016</t>
+  </si>
+  <si>
+    <t>Great spacious studio apartment, and great friendly and helpful staff serving us round the clock.Mon, Tue and Wed free food and wine in the restaurant. Top class food and service.Svimmingpool and tennis court free ,clean and perfect.Spacious parking in front.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r421478763-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -577,12 +865,6 @@
     <t>I booked this hotel for a one night staycation the weekend of Labor Day (Sept 3-4).  Overall, it was a very nice stay.  The amenities were exceptional and the rooms were gorgeous.  Cozy, inviting beds, full kitchen, nice shower (with good water pressure...it was so relaxing and invigorating!), plenty towels and soap.  The location (woodsy and near the mall) was nice.  I would definitely recommend staying at the hotel.  The staff was very nice also. :)MoreShow less</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>TMIHospitality1, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded September 30, 2016</t>
   </si>
   <si>
@@ -626,6 +908,51 @@
   </si>
   <si>
     <t>This is one of the cleanest inns I have ever been in. The staff great you anytime they see you. Always seeing to any need you have the rooms were clean. Anytime I am in this area I will be sure to use this in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r418910519-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>418910519</t>
+  </si>
+  <si>
+    <t>09/15/2016</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>We got a great rate on a huge room while in town for a concert at the Cynthia Woods Pavilion. The room was very clean and spacious, the hotel itself was great, the floor was quiet, I was extremely pleased. Probably one of my favorite hotels I've stayed inMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded September 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2016</t>
+  </si>
+  <si>
+    <t>We got a great rate on a huge room while in town for a concert at the Cynthia Woods Pavilion. The room was very clean and spacious, the hotel itself was great, the floor was quiet, I was extremely pleased. Probably one of my favorite hotels I've stayed inMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r415956209-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>415956209</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t>Just what we needed</t>
+  </si>
+  <si>
+    <t>In The Woodlands for a wedding, the RI is very convenient and easy to get in and out.  Great breakfast selections.  Housekeeping was running behind on Saturday, so when she finally came at 5:00, we just asked for more towels and toiletries, of which she gave generously.  We had a 2 BR, 2 BA suite, with a sofa bed in the living room, and it was somewhat difficult to regulate the AC so that we were all comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>In The Woodlands for a wedding, the RI is very convenient and easy to get in and out.  Great breakfast selections.  Housekeeping was running behind on Saturday, so when she finally came at 5:00, we just asked for more towels and toiletries, of which she gave generously.  We had a 2 BR, 2 BA suite, with a sofa bed in the living room, and it was somewhat difficult to regulate the AC so that we were all comfortable.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r404915086-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
@@ -713,6 +1040,57 @@
     <t>Just finished IronMan Texas - stayed here four nights - instead of paying $150-175 which is normal - they jacked up rate to $300/night - then we we asked for a late check out because bad weather impacted race results and we needed a few more hours to deal with the race roll down - the answer was pay another half day. Room was fine - but terrible management to take advantage of people coming in town for an important race.  All about the Benjamins More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r371057248-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>371057248</t>
+  </si>
+  <si>
+    <t>05/07/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moving from out of state </t>
+  </si>
+  <si>
+    <t>I stay at a lot of Marriotts at least 120 nights a year but I try and avoid residence inns because most seem low end. This one on the other hand was very nice. Great staff. Great pool. Great location. We would stay there again. The breakfast was much better then I remember normal residence inns being. MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2016</t>
+  </si>
+  <si>
+    <t>I stay at a lot of Marriotts at least 120 nights a year but I try and avoid residence inns because most seem low end. This one on the other hand was very nice. Great staff. Great pool. Great location. We would stay there again. The breakfast was much better then I remember normal residence inns being. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r356355852-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>356355852</t>
+  </si>
+  <si>
+    <t>03/17/2016</t>
+  </si>
+  <si>
+    <t>Short stay stopover</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel for 2 nights. It was in a great location for the woodlands mall. However,there are no pavements so you have to traverse three roads and a large car park.  That's just a small point.The rooms were well appointed with a small kitchen/dining area lounge and separate bedroom with bathroom. The rooms were very clean and had a lot of facilities. Cutlery, plates,glasses,cups,large fridge/freezer etc. The air conditioning worked really well and the bed was very comfortable. We had a ground floor room. The hotel also provided free breakfast and evening socials three times a week. On the day we arrived we were in time for a evening social and we had drinks with peach and apple cobbler.  Which was exceedingly nice. The only downside to the room was the lack of safe.  You had to lock your valuables away at the reception desk. That is why I have deducted one star otherwise it would have been a five star review.The staff were all very helpful especially Jerri who lent me her usb charger plug. Also Catherine BeytMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded March 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2016</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel for 2 nights. It was in a great location for the woodlands mall. However,there are no pavements so you have to traverse three roads and a large car park.  That's just a small point.The rooms were well appointed with a small kitchen/dining area lounge and separate bedroom with bathroom. The rooms were very clean and had a lot of facilities. Cutlery, plates,glasses,cups,large fridge/freezer etc. The air conditioning worked really well and the bed was very comfortable. We had a ground floor room. The hotel also provided free breakfast and evening socials three times a week. On the day we arrived we were in time for a evening social and we had drinks with peach and apple cobbler.  Which was exceedingly nice. The only downside to the room was the lack of safe.  You had to lock your valuables away at the reception desk. That is why I have deducted one star otherwise it would have been a five star review.The staff were all very helpful especially Jerri who lent me her usb charger plug. Also Catherine BeytMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r335777913-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -791,6 +1169,51 @@
     <t>Since my daughter and her husband couldn't make it home for Thanksgiving, we decided to meet them here in the Houston area when they were in town for business.  We had all the Thanksgiving fixings packed and ready to prepare our meal.  However, I booked 2-King studio rooms, not the 2 bedroom unit (I don't like Queen beds that come with the 2 bedroom) and quickly learned there was no oven in the studios.  After inquiring about this at the front desk, telling her my woes, Amanda quickly helped me and offered their oven for us to use.  Our dinner was a success thanks to her!  The rooms look newly renovated and were clean and comfortable.  My daughter and her husband had the room just across the hall from us.  Breakfast was great, hot, with many choices.  Plenty of newspapers on the tables to read.  Location was great, close to a mall and many restaurants.  A little hard to see the road to turn off when driving south on 45.  Look for the Luby's and turn right after that.  The street name is on a decorative block wall that is illuminated at night, making it easier to see than daytime.  Plus, it's not right on the corner.  I would definitely return to this location.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r327361636-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>327361636</t>
+  </si>
+  <si>
+    <t>11/17/2015</t>
+  </si>
+  <si>
+    <t>Surprisingly Wonderful</t>
+  </si>
+  <si>
+    <t>We were surprised by the quality and value at the Woodlands Residence In over this past weekend. We enjoyed the stay. The cleanliness of the room, the facilities provided and the friendliness of the staff was wonderful. We were a group of three couples; one with two young children.  We used the swimming pool, which was fun, clean and warm.The breakfast was more than adequate.Great job!MoreShow less</t>
+  </si>
+  <si>
+    <t>We were surprised by the quality and value at the Woodlands Residence In over this past weekend. We enjoyed the stay. The cleanliness of the room, the facilities provided and the friendliness of the staff was wonderful. We were a group of three couples; one with two young children.  We used the swimming pool, which was fun, clean and warm.The breakfast was more than adequate.Great job!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r322201554-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>322201554</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good hotel. </t>
+  </si>
+  <si>
+    <t>Breakfast ok, would like some more variety in pastries. The croissants are awful. Rooms are ok. Gym is well equipped.Pool is indoor. Pricey, but hey, welcome to the woodlands. Everything around I would use the car. Not really central woodlands. Summarized it is a good led residence inn. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded November 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2015</t>
+  </si>
+  <si>
+    <t>Breakfast ok, would like some more variety in pastries. The croissants are awful. Rooms are ok. Gym is well equipped.Pool is indoor. Pricey, but hey, welcome to the woodlands. Everything around I would use the car. Not really central woodlands. Summarized it is a good led residence inn. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r319681731-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -806,15 +1229,6 @@
     <t>After staying in The Woodlands for 2 months, I found my hotel. The Residence Inn is quiet with large rooms and clean. I love having the kitchen and eextra space as well as breakfast in the morning and dinner Monday, Tuesday, and Wednesday. The room is well appointed with nice towels, and the only slight criticism I have would be the bed covering (I would like something a little heavier), but everything is a nice quality. There is a variety of pillows, and the bed is pretty comfy.This is a great location as well. There's a grocery store nearby as well as a Target to pick up any last minute items or food to make in your kitchen.Lastly, the Paul Mitchell ammenities are nice, and I love the lemon lotion. I would stay at this hotel again in a heartbeat.MoreShow less</t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
-    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded November 5, 2015</t>
-  </si>
-  <si>
-    <t>Responded November 5, 2015</t>
-  </si>
-  <si>
     <t>After staying in The Woodlands for 2 months, I found my hotel. The Residence Inn is quiet with large rooms and clean. I love having the kitchen and eextra space as well as breakfast in the morning and dinner Monday, Tuesday, and Wednesday. The room is well appointed with nice towels, and the only slight criticism I have would be the bed covering (I would like something a little heavier), but everything is a nice quality. There is a variety of pillows, and the bed is pretty comfy.This is a great location as well. There's a grocery store nearby as well as a Target to pick up any last minute items or food to make in your kitchen.Lastly, the Paul Mitchell ammenities are nice, and I love the lemon lotion. I would stay at this hotel again in a heartbeat.More</t>
   </si>
   <si>
@@ -860,6 +1274,60 @@
     <t>This hotel is always very clean and usually well managed.  Not sure what happened at the last check-in but it was delayed about 2 hours from the standard check-in time after being told I would actually be able to check in early.  They did "upgrade" our suite for the inconvenience but adding a suite with a fireplace in Texas and in late June didn't do much lol.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r311685612-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>311685612</t>
+  </si>
+  <si>
+    <t>09/18/2015</t>
+  </si>
+  <si>
+    <t>Decent hotel in a quiet location</t>
+  </si>
+  <si>
+    <t>This Residence Inn is on a quiet street off I-45.  The property is well landscaped and maintained.  The room was clean, spacious and comfortable.  Breakfast was good.  I arrived on a Wednesday evening and was able to enjoy complimentary beer and wine during the hospitality time.  There was a food truck if you wanted to purchase a meal.  I was disappointed the next day when I returned to my room at 5 pm after being gone all day and the room had not been cleaned. When I called the Front Desk, they sent Housekeeping right away to clean my room.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded September 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2015</t>
+  </si>
+  <si>
+    <t>This Residence Inn is on a quiet street off I-45.  The property is well landscaped and maintained.  The room was clean, spacious and comfortable.  Breakfast was good.  I arrived on a Wednesday evening and was able to enjoy complimentary beer and wine during the hospitality time.  There was a food truck if you wanted to purchase a meal.  I was disappointed the next day when I returned to my room at 5 pm after being gone all day and the room had not been cleaned. When I called the Front Desk, they sent Housekeeping right away to clean my room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r310585375-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>310585375</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>Great place and people</t>
+  </si>
+  <si>
+    <t>Love staying here it's nice and quite. The staff is awesome, from the managers to the cleaning staff. They truly make you feel at home and feel welcome. Best place I have stayed in years. It's newly painted on the outside and the grounds are well taken care of.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded September 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2015</t>
+  </si>
+  <si>
+    <t>Love staying here it's nice and quite. The staff is awesome, from the managers to the cleaning staff. They truly make you feel at home and feel welcome. Best place I have stayed in years. It's newly painted on the outside and the grounds are well taken care of.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r308985683-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -875,15 +1343,6 @@
     <t>This is a good hotel in The Woodlands area. Good location, nice people working there and rooms are good. It's close to The Woodlands mall, Market street and Cynthia Woods Mitchell Pavilion (not walking distance, but nothing is walking distance in the USA, right?). It has free parking lot and Wi-Fi (which works great) and breakfast is included. Nice kitchen, good bed, etc. it's good to stay specially if you are going to stay for a long period.MoreShow less</t>
   </si>
   <si>
-    <t>September 2015</t>
-  </si>
-  <si>
-    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded September 18, 2015</t>
-  </si>
-  <si>
-    <t>Responded September 18, 2015</t>
-  </si>
-  <si>
     <t>This is a good hotel in The Woodlands area. Good location, nice people working there and rooms are good. It's close to The Woodlands mall, Market street and Cynthia Woods Mitchell Pavilion (not walking distance, but nothing is walking distance in the USA, right?). It has free parking lot and Wi-Fi (which works great) and breakfast is included. Nice kitchen, good bed, etc. it's good to stay specially if you are going to stay for a long period.More</t>
   </si>
   <si>
@@ -938,6 +1397,60 @@
     <t>We attended a wedding in Magnolia and the wedding party stayed here.  Excellent choice!  Manager Giancarlo was very helpful with our time challenge as we arrived at noon, early for the 3pm check-in, but we had to leave for the wedding totally dressed by 330 pm.  He arranged for a quick make-ready of our room.  We were allowed to check in early, and made the wedding timely.  The breakfast was free and was well presented in a clean area. All of the staff were friendly and helpful.  The room was spacious, modern and clean.  Thanks!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r273726232-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>273726232</t>
+  </si>
+  <si>
+    <t>05/21/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horrible Experience </t>
+  </si>
+  <si>
+    <t>The facility was OK. I did however have a horrible experience with two representatives in the sales team. I made a simple accommodation request which they kept lying to me that they would check on, they don't return calls and when you talk to them, they act like this is Shangri-La Hotel At The Shard London and you can never find anything comparable in The woodlands. I cancelled my 3 weeks stay after 5 nights of putting up with their antics. Breakfast was OK but there is no dinner. They have adopted this mess called social hour where they don't offer you any dinner yet charging premium for the stay. Newsflash, if you need to stay in this area, pls try Homewood suites right next by (approx 0.25 miles in Shenandoah) you get free dinners, fabulous facility, lower rates and a staff that actually gives a hoot about you! If you are a Marriott loyalist, there is another residence inn a block away which charges less as well. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded May 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2015</t>
+  </si>
+  <si>
+    <t>The facility was OK. I did however have a horrible experience with two representatives in the sales team. I made a simple accommodation request which they kept lying to me that they would check on, they don't return calls and when you talk to them, they act like this is Shangri-La Hotel At The Shard London and you can never find anything comparable in The woodlands. I cancelled my 3 weeks stay after 5 nights of putting up with their antics. Breakfast was OK but there is no dinner. They have adopted this mess called social hour where they don't offer you any dinner yet charging premium for the stay. Newsflash, if you need to stay in this area, pls try Homewood suites right next by (approx 0.25 miles in Shenandoah) you get free dinners, fabulous facility, lower rates and a staff that actually gives a hoot about you! If you are a Marriott loyalist, there is another residence inn a block away which charges less as well. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r273469040-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>273469040</t>
+  </si>
+  <si>
+    <t>05/20/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel near the mall</t>
+  </si>
+  <si>
+    <t>Nice Residence Inn near shopping and restaurants, but not right in the middle of everything. Would be within walking distance of the mall if the Woodlands itself was more walkable. We stayed here because the rates in College Station where we normally stay were triple what they were here and this Residence Inn was nicer and better maintained than the one in College Station where we stayed the night before. Staff was very friendly and helpful. We noticed also that the furniture in the room was nicer than what we usually get with Residence Inns.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded May 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2015</t>
+  </si>
+  <si>
+    <t>Nice Residence Inn near shopping and restaurants, but not right in the middle of everything. Would be within walking distance of the mall if the Woodlands itself was more walkable. We stayed here because the rates in College Station where we normally stay were triple what they were here and this Residence Inn was nicer and better maintained than the one in College Station where we stayed the night before. Staff was very friendly and helpful. We noticed also that the furniture in the room was nicer than what we usually get with Residence Inns.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r268441030-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -953,15 +1466,6 @@
     <t>I have always liked staying at Residence Inn anywhere I find myself because of the value for money I believe I get. This hotel was no different except that it was pricier than usual and I got exactly same value. Breakfast was good, room very clean, facilities on point but daily rate was almost $70 more than usual. Another thing the hotel has got going for it is the great location, it is just a few minutes drive from the The Woodlands mall and the golf course. The staff were courteous and helpful and I felt very secure in the room. Overall a good stay except for the daily rate.MoreShow less</t>
   </si>
   <si>
-    <t>April 2015</t>
-  </si>
-  <si>
-    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded May 27, 2015</t>
-  </si>
-  <si>
-    <t>Responded May 27, 2015</t>
-  </si>
-  <si>
     <t>I have always liked staying at Residence Inn anywhere I find myself because of the value for money I believe I get. This hotel was no different except that it was pricier than usual and I got exactly same value. Breakfast was good, room very clean, facilities on point but daily rate was almost $70 more than usual. Another thing the hotel has got going for it is the great location, it is just a few minutes drive from the The Woodlands mall and the golf course. The staff were courteous and helpful and I felt very secure in the room. Overall a good stay except for the daily rate.More</t>
   </si>
   <si>
@@ -1016,6 +1520,57 @@
     <t>The staff are warm and friendly; the accommodations are lovely and spacious; the breakfast bar has a nice variety of hot and cold fare. And, there are little extras - like a happy hour each night (bratwurst and beer on our first night, chocolate mousse desserts on our second), and like a complimentary bag of microwave popcorn in our room. Would be very happy to return here on our next trip through town.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r257266691-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>257266691</t>
+  </si>
+  <si>
+    <t>03/02/2015</t>
+  </si>
+  <si>
+    <t>Best ever</t>
+  </si>
+  <si>
+    <t>Traveled the world for business. This is the hands down best ever extended stay hotel. Spent 366 nights in a meticulously clean large room with kitchen. Great hi speed internet and PC's with printers. The overall maintenance of the property is awesome. The staff is magnificent and accommodating always trying to please even though this is not a "full service" property. Excellence is covered from the front desk to housekeeping to food service. Somehow Melanie the GM has broken the code on hiring, training and promoting "team" Melanie, Brendan, Sarah, Karitza, Manny, Denise, Yeney, Carmen are the A team in hospitality!Cannot wait to revisit.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded March 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2015</t>
+  </si>
+  <si>
+    <t>Traveled the world for business. This is the hands down best ever extended stay hotel. Spent 366 nights in a meticulously clean large room with kitchen. Great hi speed internet and PC's with printers. The overall maintenance of the property is awesome. The staff is magnificent and accommodating always trying to please even though this is not a "full service" property. Excellence is covered from the front desk to housekeeping to food service. Somehow Melanie the GM has broken the code on hiring, training and promoting "team" Melanie, Brendan, Sarah, Karitza, Manny, Denise, Yeney, Carmen are the A team in hospitality!Cannot wait to revisit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r253337106-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>253337106</t>
+  </si>
+  <si>
+    <t>02/09/2015</t>
+  </si>
+  <si>
+    <t>Excellent Value in Woodlands</t>
+  </si>
+  <si>
+    <t>Great location in Woodlands near the market area.  Delicious hot and cold breakfast.  Friendly and accommodating staff.  One bedroom suites offer full kitchen and small living area with separate bedroom.  Indoor pool and hot tub , bball court, and fitness room.  WSJ and Today plus wifi.Be sure to select location on Lake Front Circle as there is another Residence Inn in the Woodlands!Many restaurants nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded February 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2015</t>
+  </si>
+  <si>
+    <t>Great location in Woodlands near the market area.  Delicious hot and cold breakfast.  Friendly and accommodating staff.  One bedroom suites offer full kitchen and small living area with separate bedroom.  Indoor pool and hot tub , bball court, and fitness room.  WSJ and Today plus wifi.Be sure to select location on Lake Front Circle as there is another Residence Inn in the Woodlands!Many restaurants nearby.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r252392923-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1094,6 +1649,57 @@
     <t>This was our second time to stay at this hotel and it did not disappoint.  The parking is free, the hot breakfast is included and there is a free happy hour Monday through Wednesday.  The rooms are huge with a small kitchen along with a breakfast table, desk for working and living room.  The hotel staff is extremely friendly and helpful.  We were able to walk to our restaurant in Market Square and is walking distance to the Woodlands Mall as well.  Highly recommend this hotel to anyone wanting to experience the Woodlands, but not drive around looking for parking spaces.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r243394662-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>243394662</t>
+  </si>
+  <si>
+    <t>12/07/2014</t>
+  </si>
+  <si>
+    <t>I was worried that it would be chaotic we stayed over thanksgiving. The parking lot was full but the staff must be organized because they were not stressed out and when we called the front desk for things like extra towels and a roll away bed they were pleasant and accommodating. The breakfast was also kept well stocked and they had evening snacks which they kept well stocked. The location is great because it is right by the Woodlands out door mall. The property was not worn out like a few other Residence Inn's we have stayed at due to families being very hard on properties. We would stay here again with two kids and two adults. We  had a one bedroom suite. They also have basketballs for the court and the pool area was clean and always had towels. Well managed property. We have stayed over 1000 nights at Marriott properties.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded December 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 23, 2014</t>
+  </si>
+  <si>
+    <t>I was worried that it would be chaotic we stayed over thanksgiving. The parking lot was full but the staff must be organized because they were not stressed out and when we called the front desk for things like extra towels and a roll away bed they were pleasant and accommodating. The breakfast was also kept well stocked and they had evening snacks which they kept well stocked. The location is great because it is right by the Woodlands out door mall. The property was not worn out like a few other Residence Inn's we have stayed at due to families being very hard on properties. We would stay here again with two kids and two adults. We  had a one bedroom suite. They also have basketballs for the court and the pool area was clean and always had towels. Well managed property. We have stayed over 1000 nights at Marriott properties.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r239650365-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>239650365</t>
+  </si>
+  <si>
+    <t>11/13/2014</t>
+  </si>
+  <si>
+    <t>Serene Environment, Great Service</t>
+  </si>
+  <si>
+    <t>I relocated to this RI from the Galleria area, and they sure didn't disappoint.I had a room on ground floor and was concerned with security. "This is The Woodlands, security is good here!". "The Sheriff's office is just a few blocks away too". It turned out that there was nothing to be concerned about. On Halloween day with most people behind a mask/costume, they took security and privacy of their guests seriously by creating another access barrier to the hotel lobby.After a week of stay the bathroom had an issue, this was fixed immediately. The rooms were cleaned daily, fresh towels supplied as per use, and beddings changed weekly.Continental breakfast was available and light dinner most nights. Good internet and free parking.The staff were very courteous and were always keen to meet needs.I'd gladly come back here when I'm over at the Woodlands.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded November 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2014</t>
+  </si>
+  <si>
+    <t>I relocated to this RI from the Galleria area, and they sure didn't disappoint.I had a room on ground floor and was concerned with security. "This is The Woodlands, security is good here!". "The Sheriff's office is just a few blocks away too". It turned out that there was nothing to be concerned about. On Halloween day with most people behind a mask/costume, they took security and privacy of their guests seriously by creating another access barrier to the hotel lobby.After a week of stay the bathroom had an issue, this was fixed immediately. The rooms were cleaned daily, fresh towels supplied as per use, and beddings changed weekly.Continental breakfast was available and light dinner most nights. Good internet and free parking.The staff were very courteous and were always keen to meet needs.I'd gladly come back here when I'm over at the Woodlands.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r228046834-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1175,6 +1781,51 @@
     <t>Customer service was very poor at this location. I stayed there for 5 nights coming back to the US from an overseas assignment. My company had set up the booking and pre-paid. Upon arrival I was asked my form of payment, I told them it was pre-paid etc, and was still harassed about later that evening waking me up from a jet lag sleep. I was further harassed about at 6am the next morning, again a wake up call. While there was a nice room and clean sheets, I will never be returning.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r216104171-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>216104171</t>
+  </si>
+  <si>
+    <t>07/18/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay, my second time staying here!</t>
+  </si>
+  <si>
+    <t>The Residence Inn Woodlands/Lake Front Circle is a great place to stay! This is the second time staying here for a business trip. The room was perfectly clean and well appointed. The breakfast buffet wasn't bad, the place is a hotel, its not a restaurant so don't expect it to be. AS far as breakfast was concerned it was definitely worth it, my wife came on the trip with me and we both had a decent breakfast. The front desk rep, don't remember her name but a very nice woman with glasses, was very helpful. I would stay here again in the future. To the person who wrote the scathing review prior to me, I don;t understand how a breakfast buffet could upset you so much, and of course they're powered eggs...its a Marriott Residence Inn and a buffet at that.  But seriously, this is a great place to stay, the staff is very friendly and the hotel is very close to the Woodlands mall, and it is far away from the interstate that you hear zero traffic noise. I'm a neat person and I thought the room was very clean, I had no bad experiences there and look forward to my next stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded July 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2014</t>
+  </si>
+  <si>
+    <t>The Residence Inn Woodlands/Lake Front Circle is a great place to stay! This is the second time staying here for a business trip. The room was perfectly clean and well appointed. The breakfast buffet wasn't bad, the place is a hotel, its not a restaurant so don't expect it to be. AS far as breakfast was concerned it was definitely worth it, my wife came on the trip with me and we both had a decent breakfast. The front desk rep, don't remember her name but a very nice woman with glasses, was very helpful. I would stay here again in the future. To the person who wrote the scathing review prior to me, I don;t understand how a breakfast buffet could upset you so much, and of course they're powered eggs...its a Marriott Residence Inn and a buffet at that.  But seriously, this is a great place to stay, the staff is very friendly and the hotel is very close to the Woodlands mall, and it is far away from the interstate that you hear zero traffic noise. I'm a neat person and I thought the room was very clean, I had no bad experiences there and look forward to my next stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r208337104-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>208337104</t>
+  </si>
+  <si>
+    <t>06/01/2014</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>Large comfortable and clean suites with kitchen.  Good air conditioning, which is important in Texas.  The staff was very friendly and helpful.  The breakfast is much better than the average Residence Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Large comfortable and clean suites with kitchen.  Good air conditioning, which is important in Texas.  The staff was very friendly and helpful.  The breakfast is much better than the average Residence Inn.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r207941241-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1208,9 +1859,6 @@
     <t>Marriott Residence Inns always provide a comfortable, relaxing place to feel at home while traveling.  This property is like all that I've stayed in.  The staff is courteous and helpful.  The rooms are always clean and well furnished.  Reserve a room here with confidence.MoreShow less</t>
   </si>
   <si>
-    <t>May 2014</t>
-  </si>
-  <si>
     <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded June 2, 2014</t>
   </si>
   <si>
@@ -1244,6 +1892,54 @@
     <t>Looks like a Motel from the outside but has beautiful rooms. They are huge (even for Texas standards) ver clean and seem to be new. The staff members are ver nice and thoughtful. I had to leave at 4 in the morning for my flight and the receptionist had todays paper and some breakfast ready prepared for me at check-outMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r199439777-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>199439777</t>
+  </si>
+  <si>
+    <t>03/31/2014</t>
+  </si>
+  <si>
+    <t>Good for a stay in the Woodlands area</t>
+  </si>
+  <si>
+    <t>We were visiting family and stayed at the property to have space to ourselves. The hotel is in a good location for the Woodlands area. It isn't easily connected to the Woodlands trail system, but it's hard getting around the Woodlands without a car anyway.The stay itself was good. It was seemingly a busy weekend, but staff was very prompt and courteous. They made sure all things we needed were met. All in all, a good place to crash if on business of visiting family. If we were there for recreation it might have been a little boring. But we're also the type of people who wouldn't choose the Woodlands for vacation. So that's an opinionated statement.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded April 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2014</t>
+  </si>
+  <si>
+    <t>We were visiting family and stayed at the property to have space to ourselves. The hotel is in a good location for the Woodlands area. It isn't easily connected to the Woodlands trail system, but it's hard getting around the Woodlands without a car anyway.The stay itself was good. It was seemingly a busy weekend, but staff was very prompt and courteous. They made sure all things we needed were met. All in all, a good place to crash if on business of visiting family. If we were there for recreation it might have been a little boring. But we're also the type of people who wouldn't choose the Woodlands for vacation. So that's an opinionated statement.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r199260018-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>199260018</t>
+  </si>
+  <si>
+    <t>03/30/2014</t>
+  </si>
+  <si>
+    <t>Good Business Hotel</t>
+  </si>
+  <si>
+    <t>Good basic business hotel in good location. Spotless rooms and extremely friendly staff. Small but well maintained fitness center. You can walk to a range of shopping and dining locations close by. Hot breakfast and newspapers included.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded April 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2014</t>
+  </si>
+  <si>
+    <t>Good basic business hotel in good location. Spotless rooms and extremely friendly staff. Small but well maintained fitness center. You can walk to a range of shopping and dining locations close by. Hot breakfast and newspapers included.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r195955275-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1317,6 +2013,57 @@
   </si>
   <si>
     <t>Two quick points off the bat - don't be fooled by the older building exterior or the hallway carpeting when you arrive. The rooms at this hotel have been updated to the new Residence Inn standard and they are so much better than the old ones. The rooms feel fresh, the appliances are newer, and everything was in working order. The indoor pool and outdoor fire pit are a nice touch and well-maintained; the daily breakfast had more than enough variety to keep our 3-year old happy each morning. The staff quality was good as well; we were there for 3 nights and by the second evening, the front desk staff knew my daughter's name and she was their new friend. I hope they do update the hallway carpeting to match the newer look and feel of the rest of the property, but that's really my only complaint, and a minor one at that. Overall, though, this is definitely a nice property and the updated rooms make such a difference. One small aside - the studios and one-bedroom rooms are EXACTLY the same size (we traveled with family and saw both) - the only difference is that there is a wall with a door in the one-bedroom separating it from the living area. We traveled with the kids so the door was priceless, but if you're traveling solo or as a couple, I'd recommend the studio because it actually feels...Two quick points off the bat - don't be fooled by the older building exterior or the hallway carpeting when you arrive. The rooms at this hotel have been updated to the new Residence Inn standard and they are so much better than the old ones. The rooms feel fresh, the appliances are newer, and everything was in working order. The indoor pool and outdoor fire pit are a nice touch and well-maintained; the daily breakfast had more than enough variety to keep our 3-year old happy each morning. The staff quality was good as well; we were there for 3 nights and by the second evening, the front desk staff knew my daughter's name and she was their new friend. I hope they do update the hallway carpeting to match the newer look and feel of the rest of the property, but that's really my only complaint, and a minor one at that. Overall, though, this is definitely a nice property and the updated rooms make such a difference. One small aside - the studios and one-bedroom rooms are EXACTLY the same size (we traveled with family and saw both) - the only difference is that there is a wall with a door in the one-bedroom separating it from the living area. We traveled with the kids so the door was priceless, but if you're traveling solo or as a couple, I'd recommend the studio because it actually feels larger without the wall/door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r181151428-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>181151428</t>
+  </si>
+  <si>
+    <t>10/15/2013</t>
+  </si>
+  <si>
+    <t>The Residence Inn, The Woodlands</t>
+  </si>
+  <si>
+    <t>This is an extremely well maintained, clean, upbeat, friendly, and nice hotel.  The breakfast was delicious, our room was huge, and it was so quiet.  There is lots of free parking, and it truly felt like home away form home.  I would love to stay for a long time based on the service we received.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded October 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2013</t>
+  </si>
+  <si>
+    <t>This is an extremely well maintained, clean, upbeat, friendly, and nice hotel.  The breakfast was delicious, our room was huge, and it was so quiet.  There is lots of free parking, and it truly felt like home away form home.  I would love to stay for a long time based on the service we received.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r179862916-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>179862916</t>
+  </si>
+  <si>
+    <t>10/05/2013</t>
+  </si>
+  <si>
+    <t>Woodlands retreat</t>
+  </si>
+  <si>
+    <t>We were visiting family and stayed here at the last minute.  I have lived here before so I know the service and amenities are fine.  We had a nice suite with a great bed.  The breakfast is a buffet but the eggs are aleays fresh and they have a waffle make.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Residence Inn Houston The Woodlands/Lake Front Circle, responded to this reviewResponded October 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2013</t>
+  </si>
+  <si>
+    <t>We were visiting family and stayed here at the last minute.  I have lived here before so I know the service and amenities are fine.  We had a nice suite with a great bed.  The breakfast is a buffet but the eggs are aleays fresh and they have a waffle make.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r177627257-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
@@ -1392,6 +2139,36 @@
     <t>This hotel is everything I expected and more. Wonderful room with a beautiful design almost like an apartment. Easy access to hotel. Alot of shopping and restaurants near by. Yummy buffet style breakfast. Awesome staff.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r163800050-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>163800050</t>
+  </si>
+  <si>
+    <t>06/12/2013</t>
+  </si>
+  <si>
+    <t>Great location, Superb Staff, Comfortable and Clean!</t>
+  </si>
+  <si>
+    <t>My Mom and I stayed at this hotel for 4 nights while attending a relative's wedding. The hotel is in an excellent location, just seconds from the large Woodlands mall which has tons of restaurants, movie theaters and department stores. Also, Market Square is right next to the mall...which is an upscale, outdoor shopping/dining area. The staff at the hotel were very friendly and accommodating. The rooms were clean, modern and very comfortable. The breakfast daily was good and the weekday evening reception was excellent! I would definitely recommend this hotel to others who are planning to stay in The Woodlands area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r163120113-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>163120113</t>
+  </si>
+  <si>
+    <t>06/05/2013</t>
+  </si>
+  <si>
+    <t>Excellent value, delivers what they promise</t>
+  </si>
+  <si>
+    <t>The rooms are large, recently refurbished, with tasteful decor, great beds, granite counter bathrooms, full kitchens and large flat scree TV . The wifi signal is strong-and free-, and HBO is included in the channel selection. The staff was super frinedly and efficient, especially Avis at the front desk.A couple of issues: the AC is pretty noisy , and there is no safe in the rooms.Location is very convenient to the Woodlands Mall, activities, restaurants, etc..</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r160576565-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1455,6 +2232,45 @@
     <t>Our family used this hotel for our son's wedding weekend.  A/C hardly ever worked.  We would wake up in the middle of the night, sweating, and had to try to reset the A/C.  They spent the whole day repairing it after the first night and it was still 78 degrees the second night.  Mgmt response on check-out, "yea, we have new A/C units and we are trying to get them to work properly."  They didn't have anyone on staff after 10:00 p.m. to make any repairs.  They said they "comp" our second night, but when the bill arrive at the end, they still tried to charge me for all 3 nights.  The internet was horrible.  Moved at a snail's pace.  We had to get new keys made everyday because our keys would stop working which meant we could never enter the hotel from the side doors.  The maids didn't clean our room the first day and I had to call at 3:00 p.m. on the second day for them to clean our room.  Our group was responsible for over 40 hotel nights for the weekend, but I would never recommend this hotel to anyone.  Worst Marriott of all time.  Please find another property if you are looking in The Woodlands.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r151002359-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>151002359</t>
+  </si>
+  <si>
+    <t>01/30/2013</t>
+  </si>
+  <si>
+    <t>Home away from home!</t>
+  </si>
+  <si>
+    <t>This is mid-range hotel well equipped with pool and fitness center. Rooms are equipped with full kitchens and the required dished/utensils. Staff is very friendly. When the hairdryer in my room was not functioning, I was rapidly served with a new one. A shuttle was also provided to drive us to the office and/or restaurants. the breakfast buffet offers a good variety and available early in the morning.  This hotel is also conveniently located within walking distance to the Woodlands mall and Market Street.  Prices are respectable.Oeverall, I'd do it again!</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r149432031-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>149432031</t>
+  </si>
+  <si>
+    <t>01/11/2013</t>
+  </si>
+  <si>
+    <t>Perfect in so many ways!</t>
+  </si>
+  <si>
+    <t>I really hesitate  to tell you about this one because it will become your favorite. Then when I want that perfect get away it will be booked. This will become one of your favorites. So please let's keep this just between us.  There are two Resident Inns in The Woodlands. Both are nice but this particular one is my favorite. The floor plan is perfect for privacy as well as comfort in the inviting sitting room. Spacious enough for a family in the living area. I was visiting family for Christmas and we were all staying at this hotel, 6 of us gathered to talk and visit without any difficulty. The floor plan allowed a family member who is not a night owl to retire early. The kitchen area has everything you need. It is a great place if you are there on a work assignment as it has a nice working area. it also allows you to get away from the work and relax in a home type setting. Kitchen allows a place to keep snacks or take out.  I found it perfect if you have people you want to spend time visiting while you are at the hotel. I find it difficult to invite people to stop in and visit when the bed is in the room and sitting is limited to one chair and a desk chair.. This suite has a great living area separated from the...I really hesitate  to tell you about this one because it will become your favorite. Then when I want that perfect get away it will be booked. This will become one of your favorites. So please let's keep this just between us.  There are two Resident Inns in The Woodlands. Both are nice but this particular one is my favorite. The floor plan is perfect for privacy as well as comfort in the inviting sitting room. Spacious enough for a family in the living area. I was visiting family for Christmas and we were all staying at this hotel, 6 of us gathered to talk and visit without any difficulty. The floor plan allowed a family member who is not a night owl to retire early. The kitchen area has everything you need. It is a great place if you are there on a work assignment as it has a nice working area. it also allows you to get away from the work and relax in a home type setting. Kitchen allows a place to keep snacks or take out.  I found it perfect if you have people you want to spend time visiting while you are at the hotel. I find it difficult to invite people to stop in and visit when the bed is in the room and sitting is limited to one chair and a desk chair.. This suite has a great living area separated from the bedroom in an attractive and closed off area with a door.  The bath was perfectly set up with a  the bath tub area closed off from another area featuring a  dressing/lavatory area. This allows 2 people to get ready at the same time.  There is a small dining area with a TABLE and chairs instead of trying to balance food in your lap as most suite hotels that have a microwave, refrigerator feature.  The refrigerator could accommodate a family and the dining area makes for a larger living area also. Minutes from shopping, restaurants, major companies headquarters, parks, walking trails, concert pavilion and cinemas. Makes for a great work spot or a great get-away. I almost forgot. It has a dream bed!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>I really hesitate  to tell you about this one because it will become your favorite. Then when I want that perfect get away it will be booked. This will become one of your favorites. So please let's keep this just between us.  There are two Resident Inns in The Woodlands. Both are nice but this particular one is my favorite. The floor plan is perfect for privacy as well as comfort in the inviting sitting room. Spacious enough for a family in the living area. I was visiting family for Christmas and we were all staying at this hotel, 6 of us gathered to talk and visit without any difficulty. The floor plan allowed a family member who is not a night owl to retire early. The kitchen area has everything you need. It is a great place if you are there on a work assignment as it has a nice working area. it also allows you to get away from the work and relax in a home type setting. Kitchen allows a place to keep snacks or take out.  I found it perfect if you have people you want to spend time visiting while you are at the hotel. I find it difficult to invite people to stop in and visit when the bed is in the room and sitting is limited to one chair and a desk chair.. This suite has a great living area separated from the...I really hesitate  to tell you about this one because it will become your favorite. Then when I want that perfect get away it will be booked. This will become one of your favorites. So please let's keep this just between us.  There are two Resident Inns in The Woodlands. Both are nice but this particular one is my favorite. The floor plan is perfect for privacy as well as comfort in the inviting sitting room. Spacious enough for a family in the living area. I was visiting family for Christmas and we were all staying at this hotel, 6 of us gathered to talk and visit without any difficulty. The floor plan allowed a family member who is not a night owl to retire early. The kitchen area has everything you need. It is a great place if you are there on a work assignment as it has a nice working area. it also allows you to get away from the work and relax in a home type setting. Kitchen allows a place to keep snacks or take out.  I found it perfect if you have people you want to spend time visiting while you are at the hotel. I find it difficult to invite people to stop in and visit when the bed is in the room and sitting is limited to one chair and a desk chair.. This suite has a great living area separated from the bedroom in an attractive and closed off area with a door.  The bath was perfectly set up with a  the bath tub area closed off from another area featuring a  dressing/lavatory area. This allows 2 people to get ready at the same time.  There is a small dining area with a TABLE and chairs instead of trying to balance food in your lap as most suite hotels that have a microwave, refrigerator feature.  The refrigerator could accommodate a family and the dining area makes for a larger living area also. Minutes from shopping, restaurants, major companies headquarters, parks, walking trails, concert pavilion and cinemas. Makes for a great work spot or a great get-away. I almost forgot. It has a dream bed!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r145922451-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1488,9 +2304,6 @@
     <t>The front desk guy was effecient and generous with the complementary platinum snack. The room that I was given was absolutely beautiful. Practicly brand new, modern, with granite kitchen countertops a stainles frig, a huge built in sofa and a big useful desk. The room was European in style and was way nicer than I expected. The bed was supremely comfortable and the wifi worked well. Great location and top quality rooms. What more do ya need?</t>
   </si>
   <si>
-    <t>September 2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r132668110-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1509,6 +2322,42 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r130037748-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>130037748</t>
+  </si>
+  <si>
+    <t>05/16/2012</t>
+  </si>
+  <si>
+    <t>Really Enjoyed Our Stay</t>
+  </si>
+  <si>
+    <t>This was our first stay at a Marriott Residence Inn and our stay was most enjoyable. We had a studio room on the ground floor which had just been renovated and was quite nice. We enjoyed having the nice kitchen appliances. The breakfast buffet was super with a great selection of food items. The only short coming was the individual room air conditioning system was a bit noisy. We would stay there again.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r126366387-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>126366387</t>
+  </si>
+  <si>
+    <t>03/19/2012</t>
+  </si>
+  <si>
+    <t>Excellent Residence Inn</t>
+  </si>
+  <si>
+    <t>My family stayed in a lovely newly renovated two bedroom suite with a separate living room and kitchen.  It was comfortable and the rooms are quite large. A family member stayed in a King Suite and it was really nice as well.  Nice breakfast, quiet location and very helpful staff.  It was one of two hotels I found in the area that allow dogs. I highly recommend this hotel if you can book a remodeled room.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r124435365-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1566,6 +2415,42 @@
     <t>I found this hotel on the Internet, Marriott Rewards area. We wanted to stay within walking distance of the Cynthia Woods Mitchell Pavilion for a concert. While the property seemed clean and quiet -- my big complaint is that we used the whirlpool (the second reason why I chose this property). When my boyfriend got in the whirlpool with a royal blue swimsuit, he came out with a light gray swimsuit. After several days, my royal blue swimsuit is now periwinkle colored with white spots. My silver jewelry was destroyed that belonged to my deceased sister. My hair was fried and the chemical caused it to stick together and I had to yank out a lot of my hair, the skin on my hands peeled off 2 days later. They gave me a whopping $50 off of my bill. We called the Montgomery County Health Dept. By the time they went out there, the chemical situation in the whirlpool was corrected. (I just found out today - 8/11/11 - that they went to the wrong property at first so this property ample time to correct their chemical levels.)  Oh, and BTW, the maintenance person (if Harry really does exist) never responded to the fron't desk's pages or calls. I am a conference planner and I will tell everyone I know NOT TO STAY AT THIS PROPERTY. I own a pool. My pool service provider told me that that had to...I found this hotel on the Internet, Marriott Rewards area. We wanted to stay within walking distance of the Cynthia Woods Mitchell Pavilion for a concert. While the property seemed clean and quiet -- my big complaint is that we used the whirlpool (the second reason why I chose this property). When my boyfriend got in the whirlpool with a royal blue swimsuit, he came out with a light gray swimsuit. After several days, my royal blue swimsuit is now periwinkle colored with white spots. My silver jewelry was destroyed that belonged to my deceased sister. My hair was fried and the chemical caused it to stick together and I had to yank out a lot of my hair, the skin on my hands peeled off 2 days later. They gave me a whopping $50 off of my bill. We called the Montgomery County Health Dept. By the time they went out there, the chemical situation in the whirlpool was corrected. (I just found out today - 8/11/11 - that they went to the wrong property at first so this property ample time to correct their chemical levels.)  Oh, and BTW, the maintenance person (if Harry really does exist) never responded to the fron't desk's pages or calls. I am a conference planner and I will tell everyone I know NOT TO STAY AT THIS PROPERTY. I own a pool. My pool service provider told me that that had to have been MASSIVE amounts of chemicals put in the water to do what it did to us. Also, the jets in the whirlpool did not work well nor was it hot water. Lukewarm at best.  Update:  Unfortunately, I had posted this previously on the wrong hotel, but now am posting this on the CORRECT property.  I wrote them again last week because I still am very unhappy about what transpired there with them saying they hadn't done anything wrong and the chemicals in the pool and whirlpool are checked daily.  Well, HARRY must be following the wrong chart to get the chemicals so incredibly toxic to bleach clothes, ruin jewelry and have the skin peel off of your body.  Thanks Tink for not taking our complaints seriously.  This is what you get.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r115870729-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>115870729</t>
+  </si>
+  <si>
+    <t>07/27/2011</t>
+  </si>
+  <si>
+    <t>Nice hotel, horrible pull out sofa!</t>
+  </si>
+  <si>
+    <t>My family stayed here over Memorial Day weekend. The hotel was very nice and staff friendly and helpful, but the pull out sofa my daughter slept on was awful. The mattress was in very poor condition and wore out. The desk clerk brought us roll-away bed that was just alittle better. Other than that this was a great stay. They also had a very nice breakfast.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r107125897-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>107125897</t>
+  </si>
+  <si>
+    <t>05/06/2011</t>
+  </si>
+  <si>
+    <t>Great value in a great location</t>
+  </si>
+  <si>
+    <t>Big comfortable rooms and great staff. This is going to seem like a weird complaint, but the countertops in the bathrooms are unusually low, so I had to bend way over to wash my face. Other nit is the workout area is really dinky. Really dinky. But overall a good value and conveniently located - easy to walk just about anywhere.</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r107044807-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1581,9 +2466,6 @@
     <t>Had reservations here 11 months in advance.  Two weeks before the our reservation I called to confirm.  I was told that I had been "bumped"  because they had oversold the hotel and platinum members take presedence.  Apparently I was not important enough.  The customer service was ridiculous!!  Tamera, the sales coordinator, was of absolutely no help.  I will not be staying at Marriott  hotels anymore.</t>
   </si>
   <si>
-    <t>May 2011</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r96969671-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1615,6 +2497,48 @@
   </si>
   <si>
     <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r84693598-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>84693598</t>
+  </si>
+  <si>
+    <t>10/24/2010</t>
+  </si>
+  <si>
+    <t>Exactly what you expect.</t>
+  </si>
+  <si>
+    <t>Everything is right in it's place like every other one of these Residence. Five things;Quietest shower I have ever been in, ever, period. I didn't know the water was on.The eggs here on the included buffet were better than at other stops within this brand.The cookies were hard. FailThe signage is the issue here. The locals have a rule so it is low to the ground, and the trees have over grown it. You can not see the hotel or the sigen from the end of its block. Hint: look for the city water tower, the hotels are under it.last there is a second Residence one block away. So punch the address into your phone or GPS device and save yourself the trouble of getting out in the wrong hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>Everything is right in it's place like every other one of these Residence. Five things;Quietest shower I have ever been in, ever, period. I didn't know the water was on.The eggs here on the included buffet were better than at other stops within this brand.The cookies were hard. FailThe signage is the issue here. The locals have a rule so it is low to the ground, and the trees have over grown it. You can not see the hotel or the sigen from the end of its block. Hint: look for the city water tower, the hotels are under it.last there is a second Residence one block away. So punch the address into your phone or GPS device and save yourself the trouble of getting out in the wrong hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r51354264-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>51354264</t>
+  </si>
+  <si>
+    <t>12/16/2009</t>
+  </si>
+  <si>
+    <t>Cozy and comfortable</t>
+  </si>
+  <si>
+    <t>This is a cozy and comfortable Residence Inn.  It is a little older but fine.  The room was very clean and spacious.  The indoor pool and hot tub were nice, although the pool was too cold.  My daughter and her friend also enjoyed the small tennis and basketball court.  The complimentary hot breakfast was great, plenty to choose from.  The large flatscreen TV in the eating area was nice.   The staff members were pleasant and helpful.  The location is convenient to the mall and shops at Market Street.  The only negative I encountered was the computer in the lobby needs to be replaced.  The screen is tiny and the computer was extremely slow and kept having problems.  Overall, this is a nice, quiet hotel that we would stay at again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>This is a cozy and comfortable Residence Inn.  It is a little older but fine.  The room was very clean and spacious.  The indoor pool and hot tub were nice, although the pool was too cold.  My daughter and her friend also enjoyed the small tennis and basketball court.  The complimentary hot breakfast was great, plenty to choose from.  The large flatscreen TV in the eating area was nice.   The staff members were pleasant and helpful.  The location is convenient to the mall and shops at Market Street.  The only negative I encountered was the computer in the lobby needs to be replaced.  The screen is tiny and the computer was extremely slow and kept having problems.  Overall, this is a nice, quiet hotel that we would stay at again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r51317298-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
@@ -1636,9 +2560,6 @@
 The Residence Inn is known for their free breakfasts and dinners. Their breakfasts are ok, but their dinners are horribly managed. They claim that dinner is served from 6pm to 7:30pm but the main course runs out within 10-15 minutes and others are left eating salad and possibly the side dish. I recall other...I Traveled to Houston on Business and brought my family with me. The Rooms at the Residence Inn are a great place for a family, but not this hotel. Located in the heart of the busy Woodlands, TX area, it's in a great location and literally 2 streets down the way on Six Pines, another Residence Inn exists. I have stayed at both and now I know, why most of the business goes to the one on Six Pines.This hotel was the 1st Residence Inn in the Woodlands, and because of the influx of business, another Residence Inn was built. This hotel is priced about $30.00 lower than its competitor, but for $130.00 a night, it was NOT worth it.The entire facility really needs to be renovated. The main lobby area is ok, the outside needs some landscaping. The rooms are old and are in need of minor repairs. Things are rusty, housekeeping is lazy and does not dust. Toilets drip and fans squeal.The entire staff comes across as not caring, and they operate under a reactive environment, this is the managements fault.The Residence Inn is known for their free breakfasts and dinners. Their breakfasts are ok, but their dinners are horribly managed. They claim that dinner is served from 6pm to 7:30pm but the main course runs out within 10-15 minutes and others are left eating salad and possibly the side dish. I recall other Residence Inn serving cans of soda and wine, this hotel serves cans of Lite Beer and and watered down lemonade and Koolaide.Just the other night, 2 policemen entered the hotel and went up to a room. Being a cops kid, whenever I see a police officer, it means trouble, especially in Houston. I am not sure what happened, but that concerned me.Most of the other travelers around me were families, and very little business travelers and that's because they were all at the Residence Inn on Six Pines.If I were going to do this trip again with familly, I would try to book a room, at Residence Inn at Six Pines.MoreShow less</t>
   </si>
   <si>
-    <t>December 2009</t>
-  </si>
-  <si>
     <t>I Traveled to Houston on Business and brought my family with me. The Rooms at the Residence Inn are a great place for a family, but not this hotel. Located in the heart of the busy Woodlands, TX area, it's in a great location and literally 2 streets down the way on Six Pines, another Residence Inn exists. I have stayed at both and now I know, why most of the business goes to the one on Six Pines.
 This hotel was the 1st Residence Inn in the Woodlands, and because of the influx of business, another Residence Inn was built. This hotel is priced about $30.00 lower than its competitor, but for $130.00 a night, it was NOT worth it.
 The entire facility really needs to be renovated. The main lobby area is ok, the outside needs some landscaping. The rooms are old and are in need of minor repairs. Things are rusty, housekeeping is lazy and does not dust. Toilets drip and fans squeal.
@@ -1692,6 +2613,57 @@
 But, otherwise my visit was quite pleasant.  The staff was quite friendly and on multiple occasions contacted me throughout the visit to see if everything was fine.  The breakfast and evening buffets are a nice touch.  I had absolutely no problem with the wireless internet in the room and it was free!  My room (#128) was right next to the side entrance so I could park right next to the room and enter the building (with my room key only) which was quite convenient.
 It's an easy walk across the street to a very large retail shopping center (Pinecroft Center) with many name-brand stores including a large Target and a number of restaurant and fast-food choices.  The whole area of The Woodlands is set in a woodsy area that is extremely well planned including the mall and their Town Center area on Six Pines Drive.
 The room was spacious...I spent 2 nights here on business while in the Houston area and the biggest challenge I had coming from IAH airport was trying to determine how to get to the hotel...which is on Lake Front Circle.  I kept driving in circles around the Woodlands Mall area and I-45.  As it turns out it is just about a block West of I-45 and north of the mall, right next door to the Marriott Courtyard, but getting there isn't easy due to the confusing frontage road one-way street access and exit choices.But, otherwise my visit was quite pleasant.  The staff was quite friendly and on multiple occasions contacted me throughout the visit to see if everything was fine.  The breakfast and evening buffets are a nice touch.  I had absolutely no problem with the wireless internet in the room and it was free!  My room (#128) was right next to the side entrance so I could park right next to the room and enter the building (with my room key only) which was quite convenient.It's an easy walk across the street to a very large retail shopping center (Pinecroft Center) with many name-brand stores including a large Target and a number of restaurant and fast-food choices.  The whole area of The Woodlands is set in a woodsy area that is extremely well planned including the mall and their Town Center area on Six Pines Drive.The room was spacious with lots of storage space and full kitchen.  For someone staying on an extended basis this would be a good choice.  The bedroom area though is not separated from the living/kitchen area which would have been a nicer touch.  The only slip was perhaps the fact that the bed was not made on the 2nd day but that may have something to do with this being a "residence-extended stay type" hotel.  The towels were all changed out.  The price though at $199 per night I thought was a bit steep compared to other hotels in the area.  But, I had no real complaints and both the area and the hotel itself were extremely quiet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r11081224-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>11081224</t>
+  </si>
+  <si>
+    <t>11/26/2007</t>
+  </si>
+  <si>
+    <t>Up to snuff, barely</t>
+  </si>
+  <si>
+    <t>This was the second Residence Inn I have stayed at (first one in Santa Fe), and I must say I was a little disappointed.
+Our room was fairly small, by suite standards.  But it was well-equipped, and we could have made a go of it if we had to stay there a while.  It took me 30 minutes on the phone with tech support to use the wireless internet.  There was a musty smell, but that went away after we opened the windows.
+The pool was not great.  It is indoors, in a room with low ceilings, so the chlorine smell is pretty strong.  The pool and hot tub are clean enough.  However, the towels were all gone.  (The dirty towel bin was full, which was strange because it didn't look like anyone had swam there recently.)
+The workout "room" (more like a closet) was disappointing.  3 cardio machines, including a treadmill, a bike that was too tall and didn't adjust, and one other (can't remember).  A sit-up bench, and some teeny-tiny freeweights (10lb max).  No cups for the water.
+The breakfast buffet was fine.  Sausage, scrambled eggs, potatoes, and the usual continental stuff.  The make-your-own waffle is shaped like Texas.
+Location is good.  Near the freeway, but far enough that there's no noise.  Right by the awesome Woodlands Mall.  There's also a Target you can walk to across the street for supplies.
+Staff was friendly enough, and they responded...This was the second Residence Inn I have stayed at (first one in Santa Fe), and I must say I was a little disappointed.Our room was fairly small, by suite standards.  But it was well-equipped, and we could have made a go of it if we had to stay there a while.  It took me 30 minutes on the phone with tech support to use the wireless internet.  There was a musty smell, but that went away after we opened the windows.The pool was not great.  It is indoors, in a room with low ceilings, so the chlorine smell is pretty strong.  The pool and hot tub are clean enough.  However, the towels were all gone.  (The dirty towel bin was full, which was strange because it didn't look like anyone had swam there recently.)The workout "room" (more like a closet) was disappointing.  3 cardio machines, including a treadmill, a bike that was too tall and didn't adjust, and one other (can't remember).  A sit-up bench, and some teeny-tiny freeweights (10lb max).  No cups for the water.The breakfast buffet was fine.  Sausage, scrambled eggs, potatoes, and the usual continental stuff.  The make-your-own waffle is shaped like Texas.Location is good.  Near the freeway, but far enough that there's no noise.  Right by the awesome Woodlands Mall.  There's also a Target you can walk to across the street for supplies.Staff was friendly enough, and they responded to my one maintenance issue right away.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2007</t>
+  </si>
+  <si>
+    <t>This was the second Residence Inn I have stayed at (first one in Santa Fe), and I must say I was a little disappointed.
+Our room was fairly small, by suite standards.  But it was well-equipped, and we could have made a go of it if we had to stay there a while.  It took me 30 minutes on the phone with tech support to use the wireless internet.  There was a musty smell, but that went away after we opened the windows.
+The pool was not great.  It is indoors, in a room with low ceilings, so the chlorine smell is pretty strong.  The pool and hot tub are clean enough.  However, the towels were all gone.  (The dirty towel bin was full, which was strange because it didn't look like anyone had swam there recently.)
+The workout "room" (more like a closet) was disappointing.  3 cardio machines, including a treadmill, a bike that was too tall and didn't adjust, and one other (can't remember).  A sit-up bench, and some teeny-tiny freeweights (10lb max).  No cups for the water.
+The breakfast buffet was fine.  Sausage, scrambled eggs, potatoes, and the usual continental stuff.  The make-your-own waffle is shaped like Texas.
+Location is good.  Near the freeway, but far enough that there's no noise.  Right by the awesome Woodlands Mall.  There's also a Target you can walk to across the street for supplies.
+Staff was friendly enough, and they responded...This was the second Residence Inn I have stayed at (first one in Santa Fe), and I must say I was a little disappointed.Our room was fairly small, by suite standards.  But it was well-equipped, and we could have made a go of it if we had to stay there a while.  It took me 30 minutes on the phone with tech support to use the wireless internet.  There was a musty smell, but that went away after we opened the windows.The pool was not great.  It is indoors, in a room with low ceilings, so the chlorine smell is pretty strong.  The pool and hot tub are clean enough.  However, the towels were all gone.  (The dirty towel bin was full, which was strange because it didn't look like anyone had swam there recently.)The workout "room" (more like a closet) was disappointing.  3 cardio machines, including a treadmill, a bike that was too tall and didn't adjust, and one other (can't remember).  A sit-up bench, and some teeny-tiny freeweights (10lb max).  No cups for the water.The breakfast buffet was fine.  Sausage, scrambled eggs, potatoes, and the usual continental stuff.  The make-your-own waffle is shaped like Texas.Location is good.  Near the freeway, but far enough that there's no noise.  Right by the awesome Woodlands Mall.  There's also a Target you can walk to across the street for supplies.Staff was friendly enough, and they responded to my one maintenance issue right away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r8511342-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>8511342</t>
+  </si>
+  <si>
+    <t>08/25/2007</t>
+  </si>
+  <si>
+    <t>Stayed here first 2 weeks when we moved here</t>
+  </si>
+  <si>
+    <t>We stayed here at this Residence Inn for 2 weeks when we first moved to The Woodlands... we stayed in a corner 1 bedroom suite - and absolutely loved it. We paid $99 a night for the room, which also included free breakfast every morning... my only complaint was with the manager's evening reception... which I found lacking when compared to other Residence Inns.But overall, it was an exciting time for us since we were moving to the area... and were impressed with how nice, clean, and modern the facility was. Highly recommended.</t>
+  </si>
+  <si>
+    <t>April 2007</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d106241-r7186682-Residence_Inn_Houston_The_Woodlands_Lake_Front_Circle-The_Woodlands_Texas.html</t>
@@ -2283,7 +3255,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2303,7 +3275,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -2319,7 +3291,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -2328,25 +3300,25 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2360,7 +3332,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -2376,7 +3348,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -2385,49 +3357,39 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>1</v>
-      </c>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>67</v>
-      </c>
-      <c r="X4" t="s">
-        <v>68</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -2443,56 +3405,48 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>71</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="L5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>75</v>
-      </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>77</v>
-      </c>
-      <c r="X5" t="s">
-        <v>78</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -2508,58 +3462,48 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
         <v>80</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>85</v>
-      </c>
-      <c r="O6" t="s">
-        <v>86</v>
-      </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>87</v>
-      </c>
-      <c r="X6" t="s">
-        <v>88</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -2575,7 +3519,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2584,43 +3528,49 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P7" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="X7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -2636,7 +3586,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2645,25 +3595,25 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2677,7 +3627,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -2693,7 +3643,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2702,47 +3652,49 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
         <v>3</v>
       </c>
-      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="X9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
@@ -2758,7 +3710,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2767,43 +3719,47 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="O10" t="s">
         <v>53</v>
       </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>111</v>
+      </c>
+      <c r="X10" t="s">
+        <v>112</v>
+      </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
@@ -2819,43 +3775,43 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s">
         <v>118</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>119</v>
       </c>
-      <c r="J11" t="s">
+      <c r="O11" t="s">
         <v>120</v>
       </c>
-      <c r="K11" t="s">
-        <v>121</v>
-      </c>
-      <c r="L11" t="s">
-        <v>122</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>109</v>
-      </c>
-      <c r="O11" t="s">
-        <v>60</v>
-      </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
       <c r="R11" t="n">
-        <v>4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
         <v>5</v>
@@ -2864,13 +3820,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
+        <v>121</v>
+      </c>
+      <c r="X11" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y11" t="s">
         <v>123</v>
-      </c>
-      <c r="X11" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="12">
@@ -2886,34 +3842,34 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" t="s">
         <v>126</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>127</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>128</v>
       </c>
-      <c r="K12" t="s">
-        <v>129</v>
-      </c>
-      <c r="L12" t="s">
-        <v>130</v>
-      </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2925,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="X12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Y12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
@@ -2947,52 +3903,58 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
         <v>135</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>136</v>
       </c>
-      <c r="J13" t="s">
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
         <v>137</v>
       </c>
-      <c r="K13" t="s">
-        <v>138</v>
-      </c>
-      <c r="L13" t="s">
-        <v>139</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>140</v>
-      </c>
       <c r="O13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P13" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="X13" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="Y13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
@@ -3008,58 +3970,56 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>143</v>
+      </c>
+      <c r="O14" t="s">
         <v>144</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
-        <v>145</v>
-      </c>
-      <c r="J14" t="s">
-        <v>146</v>
-      </c>
-      <c r="K14" t="s">
-        <v>147</v>
-      </c>
-      <c r="L14" t="s">
-        <v>148</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3</v>
-      </c>
-      <c r="N14" t="s">
-        <v>149</v>
-      </c>
-      <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3</v>
-      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>4</v>
-      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="X14" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="Y14" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -3075,7 +4035,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -3084,47 +4044,39 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="O15" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>159</v>
-      </c>
-      <c r="X15" t="s">
-        <v>160</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
@@ -3140,7 +4092,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -3149,49 +4101,47 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="J16" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O16" t="s">
-        <v>76</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="X16" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="Y16" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
@@ -3207,7 +4157,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -3216,34 +4166,32 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="L17" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="O17" t="s">
-        <v>176</v>
-      </c>
-      <c r="P17" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
       <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
         <v>5</v>
@@ -3251,14 +4199,10 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>177</v>
-      </c>
-      <c r="X17" t="s">
-        <v>178</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
@@ -3274,7 +4218,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3283,39 +4227,49 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="J18" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="K18" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>170</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="X18" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="Y18" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
@@ -3331,7 +4285,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3340,49 +4294,35 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="J19" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="K19" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="L19" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>175</v>
-      </c>
-      <c r="O19" t="s">
-        <v>76</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
       <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>177</v>
-      </c>
-      <c r="X19" t="s">
-        <v>178</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
@@ -3398,7 +4338,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3407,49 +4347,49 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="J20" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="K20" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="L20" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="X20" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="Y20" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21">
@@ -3465,7 +4405,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3474,47 +4414,43 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="J21" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="K21" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="L21" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="X21" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="Y21" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22">
@@ -3530,7 +4466,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3539,49 +4475,43 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="J22" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="O22" t="s">
         <v>53</v>
       </c>
-      <c r="P22" t="n">
-        <v>1</v>
-      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>3</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>3</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="X22" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="Y22" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23">
@@ -3597,7 +4527,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3606,49 +4536,43 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="J23" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="K23" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="X23" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="Y23" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24">
@@ -3664,7 +4588,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3673,49 +4597,49 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="J24" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="K24" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
-        <v>4</v>
-      </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="X24" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="Y24" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
@@ -3731,7 +4655,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3740,47 +4664,49 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="J25" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="K25" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="L25" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c r="O25" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="P25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="X25" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="Y25" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26">
@@ -3796,7 +4722,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3805,29 +4731,27 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="J26" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="K26" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="L26" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
-      </c>
-      <c r="P26" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="n">
         <v>5</v>
@@ -3841,13 +4765,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="X26" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="Y26" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27">
@@ -3863,7 +4787,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3872,34 +4796,34 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="J27" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="K27" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="L27" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
-      </c>
-      <c r="P27" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
       <c r="Q27" t="s"/>
       <c r="R27" t="n">
         <v>5</v>
       </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
         <v>5</v>
@@ -3908,13 +4832,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="X27" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="Y27" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28">
@@ -3930,7 +4854,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3939,49 +4863,49 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="J28" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="K28" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="L28" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
-      </c>
-      <c r="P28" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
       <c r="Q28" t="s"/>
       <c r="R28" t="n">
         <v>5</v>
       </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="X28" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="Y28" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29">
@@ -3997,7 +4921,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -4006,49 +4930,49 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="J29" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="K29" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="L29" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="O29" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
-      <c r="R29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
       <c r="S29" t="n">
         <v>4</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="X29" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="Y29" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
@@ -4064,7 +4988,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -4073,33 +4997,33 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="J30" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="K30" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="L30" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
@@ -4109,13 +5033,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="X30" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="Y30" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31">
@@ -4131,7 +5055,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -4140,49 +5064,39 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="J31" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="K31" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="L31" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
-      <c r="N31" t="s">
-        <v>282</v>
-      </c>
-      <c r="O31" t="s">
-        <v>76</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
+      <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="X31" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="Y31" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32">
@@ -4198,7 +5112,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -4207,34 +5121,34 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="J32" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="K32" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="O32" t="s">
-        <v>60</v>
-      </c>
-      <c r="P32" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
         <v>5</v>
@@ -4243,13 +5157,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="X32" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="Y32" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33">
@@ -4265,7 +5179,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4274,30 +5188,30 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="J33" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="K33" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="L33" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="O33" t="s">
-        <v>76</v>
-      </c>
-      <c r="P33" t="s"/>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
       <c r="S33" t="n">
         <v>5</v>
@@ -4310,13 +5224,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="X33" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="Y33" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34">
@@ -4332,7 +5246,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4341,27 +5255,29 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="J34" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="K34" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="L34" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="O34" t="s">
-        <v>60</v>
-      </c>
-      <c r="P34" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
       <c r="Q34" t="s"/>
       <c r="R34" t="n">
         <v>5</v>
@@ -4369,19 +5285,19 @@
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="X34" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="Y34" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35">
@@ -4397,7 +5313,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4406,47 +5322,49 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="J35" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="K35" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="L35" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>304</v>
+      </c>
+      <c r="O35" t="s">
+        <v>80</v>
+      </c>
+      <c r="P35" t="n">
         <v>3</v>
       </c>
-      <c r="N35" t="s">
-        <v>325</v>
-      </c>
-      <c r="O35" t="s">
-        <v>76</v>
-      </c>
-      <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
       <c r="S35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="X35" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="Y35" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36">
@@ -4462,7 +5380,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4471,34 +5389,32 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="J36" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="K36" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="L36" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
+      <c r="N36" t="s">
+        <v>313</v>
+      </c>
+      <c r="O36" t="s">
+        <v>80</v>
+      </c>
       <c r="P36" t="n">
         <v>5</v>
       </c>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>5</v>
@@ -4507,13 +5423,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="X36" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="Y36" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37">
@@ -4529,7 +5445,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4538,49 +5454,49 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="J37" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="K37" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="L37" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
-      </c>
-      <c r="P37" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
       <c r="Q37" t="s"/>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
+      <c r="R37" t="s"/>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="X37" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="Y37" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38">
@@ -4596,7 +5512,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4605,49 +5521,43 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="J38" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="K38" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="L38" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
-      </c>
-      <c r="P38" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
-      <c r="R38" t="n">
-        <v>4</v>
-      </c>
+      <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>4</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="X38" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="Y38" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39">
@@ -4663,7 +5573,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4672,33 +5582,31 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="J39" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="K39" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="L39" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="O39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R39" t="s"/>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
@@ -4708,13 +5616,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="X39" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="Y39" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40">
@@ -4730,7 +5638,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4739,47 +5647,49 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="J40" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="K40" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="L40" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="M40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="O40" t="s">
-        <v>60</v>
-      </c>
-      <c r="P40" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
       <c r="Q40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R40" t="s"/>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="X40" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="Y40" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41">
@@ -4795,7 +5705,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4804,47 +5714,49 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="J41" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="K41" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="L41" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="O41" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R41" t="n">
         <v>5</v>
       </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>358</v>
+      </c>
+      <c r="X41" t="s">
+        <v>359</v>
+      </c>
       <c r="Y41" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42">
@@ -4860,7 +5772,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4869,38 +5781,32 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="J42" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="K42" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="L42" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="O42" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
       </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
         <v>5</v>
@@ -4909,13 +5815,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="X42" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="Y42" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43">
@@ -4931,7 +5837,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4940,43 +5846,47 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="J43" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="K43" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="L43" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="O43" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
-      <c r="S43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
       <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="X43" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="Y43" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44">
@@ -4992,7 +5902,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -5001,53 +5911,43 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="J44" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="K44" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="L44" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="O44" t="s">
-        <v>60</v>
-      </c>
-      <c r="P44" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>4</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>4</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="X44" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="Y44" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
     </row>
     <row r="45">
@@ -5063,7 +5963,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -5072,39 +5972,49 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="J45" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="K45" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="L45" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
-      <c r="N45" t="s"/>
-      <c r="O45" t="s"/>
-      <c r="P45" t="s"/>
+      <c r="N45" t="s">
+        <v>380</v>
+      </c>
+      <c r="O45" t="s">
+        <v>80</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
       <c r="Q45" t="s"/>
-      <c r="R45" t="s"/>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
       <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="X45" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="Y45" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46">
@@ -5120,7 +6030,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -5129,53 +6039,49 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="J46" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="K46" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="L46" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="O46" t="s">
-        <v>76</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
       <c r="R46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>418</v>
+        <v>381</v>
       </c>
       <c r="X46" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
       <c r="Y46" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
     </row>
     <row r="47">
@@ -5191,7 +6097,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -5200,37 +6106,33 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="J47" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="K47" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="L47" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>426</v>
+        <v>348</v>
       </c>
       <c r="O47" t="s">
-        <v>76</v>
-      </c>
-      <c r="P47" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>3</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
       <c r="R47" t="n">
         <v>5</v>
       </c>
       <c r="S47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
@@ -5240,13 +6142,13 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="X47" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
       <c r="Y47" t="s">
-        <v>429</v>
+        <v>403</v>
       </c>
     </row>
     <row r="48">
@@ -5262,7 +6164,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5271,53 +6173,49 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="J48" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="K48" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="L48" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="O48" t="s">
-        <v>60</v>
-      </c>
-      <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
       <c r="R48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="X48" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="Y48" t="s">
-        <v>438</v>
+        <v>412</v>
       </c>
     </row>
     <row r="49">
@@ -5333,7 +6231,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5342,53 +6240,43 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>440</v>
+        <v>414</v>
       </c>
       <c r="J49" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="K49" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="L49" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="O49" t="s">
         <v>53</v>
       </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>5</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>5</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="X49" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="Y49" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
     </row>
     <row r="50">
@@ -5404,7 +6292,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5413,49 +6301,49 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="J50" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="K50" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="L50" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="O50" t="s">
-        <v>76</v>
-      </c>
-      <c r="P50" t="n">
-        <v>3</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P50" t="s"/>
       <c r="Q50" t="n">
         <v>4</v>
       </c>
-      <c r="R50" t="n">
-        <v>4</v>
-      </c>
+      <c r="R50" t="s"/>
       <c r="S50" t="n">
         <v>4</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>419</v>
+      </c>
+      <c r="X50" t="s">
+        <v>420</v>
+      </c>
       <c r="Y50" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
     </row>
     <row r="51">
@@ -5471,7 +6359,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5480,32 +6368,28 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="J51" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="K51" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="L51" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="O51" t="s">
-        <v>76</v>
-      </c>
-      <c r="P51" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>3</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
       <c r="R51" t="n">
         <v>4</v>
       </c>
@@ -5514,15 +6398,19 @@
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>434</v>
+      </c>
+      <c r="X51" t="s">
+        <v>435</v>
+      </c>
       <c r="Y51" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
     </row>
     <row r="52">
@@ -5538,7 +6426,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5547,53 +6435,49 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="J52" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="K52" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="L52" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>461</v>
+        <v>433</v>
       </c>
       <c r="O52" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="P52" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q52" t="s"/>
       <c r="R52" t="n">
-        <v>1</v>
-      </c>
-      <c r="S52" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="X52" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="Y52" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
     </row>
     <row r="53">
@@ -5609,7 +6493,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5618,49 +6502,43 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="J53" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="K53" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="L53" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="O53" t="s">
-        <v>76</v>
-      </c>
-      <c r="P53" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>5</v>
-      </c>
-      <c r="R53" t="n">
-        <v>5</v>
-      </c>
-      <c r="S53" t="n">
-        <v>5</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
-      <c r="U53" t="n">
-        <v>5</v>
-      </c>
+      <c r="U53" t="s"/>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>451</v>
+      </c>
+      <c r="X53" t="s">
+        <v>452</v>
+      </c>
       <c r="Y53" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
     </row>
     <row r="54">
@@ -5676,7 +6554,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5685,32 +6563,28 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="J54" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="K54" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="L54" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="O54" t="s">
-        <v>60</v>
-      </c>
-      <c r="P54" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
       <c r="R54" t="n">
         <v>5</v>
       </c>
@@ -5724,10 +6598,14 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>460</v>
+      </c>
+      <c r="X54" t="s">
+        <v>461</v>
+      </c>
       <c r="Y54" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
     </row>
     <row r="55">
@@ -5743,7 +6621,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5752,49 +6630,49 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="J55" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="K55" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="L55" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="M55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="O55" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="P55" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>3</v>
-      </c>
-      <c r="R55" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
       <c r="S55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>460</v>
+      </c>
+      <c r="X55" t="s">
+        <v>461</v>
+      </c>
       <c r="Y55" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="56">
@@ -5810,7 +6688,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5819,49 +6697,49 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="J56" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="K56" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="L56" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="M56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="O56" t="s">
-        <v>60</v>
-      </c>
-      <c r="P56" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
       <c r="Q56" t="n">
-        <v>3</v>
-      </c>
-      <c r="R56" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R56" t="s"/>
       <c r="S56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
+      <c r="W56" t="s">
+        <v>475</v>
+      </c>
+      <c r="X56" t="s">
+        <v>476</v>
+      </c>
       <c r="Y56" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="57">
@@ -5877,7 +6755,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5886,49 +6764,47 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="J57" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="K57" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="L57" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="O57" t="s">
-        <v>76</v>
-      </c>
-      <c r="P57" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>4</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
       <c r="R57" t="n">
         <v>5</v>
       </c>
-      <c r="S57" t="n">
-        <v>4</v>
-      </c>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
+      <c r="W57" t="s">
+        <v>483</v>
+      </c>
+      <c r="X57" t="s">
+        <v>484</v>
+      </c>
       <c r="Y57" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="58">
@@ -5944,7 +6820,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5953,45 +6829,49 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="J58" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="K58" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="L58" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
-      </c>
-      <c r="P58" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q58" t="s"/>
-      <c r="R58" t="s"/>
-      <c r="S58" t="n">
-        <v>5</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>492</v>
+      </c>
+      <c r="X58" t="s">
+        <v>493</v>
+      </c>
       <c r="Y58" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="59">
@@ -6007,7 +6887,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -6016,41 +6896,49 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="J59" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="K59" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="L59" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="O59" t="s">
         <v>53</v>
       </c>
-      <c r="P59" t="s"/>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
       <c r="Q59" t="s"/>
-      <c r="R59" t="s"/>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
       <c r="S59" t="s"/>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
+      <c r="W59" t="s">
+        <v>500</v>
+      </c>
+      <c r="X59" t="s">
+        <v>501</v>
+      </c>
       <c r="Y59" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="60">
@@ -6066,42 +6954,40 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
+        <v>503</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>504</v>
+      </c>
+      <c r="J60" t="s">
+        <v>505</v>
+      </c>
+      <c r="K60" t="s">
+        <v>506</v>
+      </c>
+      <c r="L60" t="s">
+        <v>507</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
         <v>508</v>
       </c>
-      <c r="G60" t="s">
-        <v>46</v>
-      </c>
-      <c r="H60" t="s">
-        <v>47</v>
-      </c>
-      <c r="I60" t="s">
-        <v>509</v>
-      </c>
-      <c r="J60" t="s">
-        <v>510</v>
-      </c>
-      <c r="K60" t="s">
-        <v>511</v>
-      </c>
-      <c r="L60" t="s">
-        <v>512</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4</v>
-      </c>
-      <c r="N60" t="s"/>
-      <c r="O60" t="s"/>
-      <c r="P60" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>4</v>
-      </c>
-      <c r="R60" t="n">
-        <v>4</v>
-      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
       <c r="S60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
@@ -6110,10 +6996,14 @@
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
+      <c r="W60" t="s">
+        <v>509</v>
+      </c>
+      <c r="X60" t="s">
+        <v>510</v>
+      </c>
       <c r="Y60" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="61">
@@ -6129,58 +7019,58 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
+        <v>512</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
         <v>513</v>
       </c>
-      <c r="G61" t="s">
-        <v>46</v>
-      </c>
-      <c r="H61" t="s">
-        <v>47</v>
-      </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>514</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>515</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>516</v>
       </c>
-      <c r="L61" t="s">
-        <v>517</v>
-      </c>
       <c r="M61" t="n">
-        <v>3</v>
-      </c>
-      <c r="N61" t="s">
-        <v>518</v>
-      </c>
-      <c r="O61" t="s">
-        <v>60</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
       <c r="P61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R61" t="n">
         <v>4</v>
       </c>
       <c r="S61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>517</v>
+      </c>
+      <c r="X61" t="s">
+        <v>518</v>
+      </c>
       <c r="Y61" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="62">
@@ -6196,7 +7086,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -6205,49 +7095,49 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="J62" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K62" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L62" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O62" t="s">
-        <v>60</v>
-      </c>
-      <c r="P62" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>1</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
       <c r="R62" t="n">
         <v>5</v>
       </c>
       <c r="S62" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
+      <c r="W62" t="s">
+        <v>526</v>
+      </c>
+      <c r="X62" t="s">
+        <v>527</v>
+      </c>
       <c r="Y62" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="63">
@@ -6263,7 +7153,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -6272,49 +7162,49 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="J63" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="K63" t="s">
-        <v>529</v>
+        <v>472</v>
       </c>
       <c r="L63" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="M63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="O63" t="s">
-        <v>76</v>
-      </c>
-      <c r="P63" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
       <c r="R63" t="n">
         <v>5</v>
       </c>
       <c r="S63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
+      <c r="W63" t="s">
+        <v>534</v>
+      </c>
+      <c r="X63" t="s">
+        <v>535</v>
+      </c>
       <c r="Y63" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="64">
@@ -6330,7 +7220,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6339,49 +7229,43 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="J64" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="K64" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="L64" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="M64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="O64" t="s">
-        <v>60</v>
-      </c>
-      <c r="P64" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>4</v>
-      </c>
-      <c r="R64" t="n">
-        <v>4</v>
-      </c>
-      <c r="S64" t="n">
-        <v>4</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
       <c r="T64" t="s"/>
-      <c r="U64" t="n">
-        <v>5</v>
-      </c>
+      <c r="U64" t="s"/>
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
+      <c r="W64" t="s">
+        <v>543</v>
+      </c>
+      <c r="X64" t="s">
+        <v>544</v>
+      </c>
       <c r="Y64" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="65">
@@ -6397,7 +7281,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -6406,35 +7290,49 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="J65" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="K65" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="L65" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
-      <c r="N65" t="s"/>
-      <c r="O65" t="s"/>
-      <c r="P65" t="s"/>
+      <c r="N65" t="s">
+        <v>551</v>
+      </c>
+      <c r="O65" t="s">
+        <v>80</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
       <c r="Q65" t="s"/>
-      <c r="R65" t="s"/>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
       <c r="S65" t="s"/>
       <c r="T65" t="s"/>
-      <c r="U65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
+      <c r="W65" t="s">
+        <v>552</v>
+      </c>
+      <c r="X65" t="s">
+        <v>553</v>
+      </c>
       <c r="Y65" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
     </row>
     <row r="66">
@@ -6450,7 +7348,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -6459,47 +7357,49 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="J66" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="K66" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="L66" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="M66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="O66" t="s">
-        <v>60</v>
-      </c>
-      <c r="P66" t="n">
-        <v>1</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P66" t="s"/>
       <c r="Q66" t="n">
-        <v>1</v>
-      </c>
-      <c r="R66" t="s"/>
-      <c r="S66" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="s"/>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
+      <c r="W66" t="s">
+        <v>561</v>
+      </c>
+      <c r="X66" t="s">
+        <v>562</v>
+      </c>
       <c r="Y66" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
     </row>
     <row r="67">
@@ -6515,7 +7415,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -6524,35 +7424,3032 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="J67" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="K67" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="L67" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="M67" t="n">
-        <v>5</v>
-      </c>
-      <c r="N67" t="s"/>
-      <c r="O67" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N67" t="s">
+        <v>569</v>
+      </c>
+      <c r="O67" t="s">
+        <v>80</v>
+      </c>
       <c r="P67" t="s"/>
-      <c r="Q67" t="s"/>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
       <c r="R67" t="s"/>
       <c r="S67" t="s"/>
       <c r="T67" t="s"/>
-      <c r="U67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
+      <c r="W67" t="s">
+        <v>570</v>
+      </c>
+      <c r="X67" t="s">
+        <v>571</v>
+      </c>
       <c r="Y67" t="s">
-        <v>558</v>
+        <v>572</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>573</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>574</v>
+      </c>
+      <c r="J68" t="s">
+        <v>575</v>
+      </c>
+      <c r="K68" t="s">
+        <v>576</v>
+      </c>
+      <c r="L68" t="s">
+        <v>577</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>569</v>
+      </c>
+      <c r="O68" t="s">
+        <v>80</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>578</v>
+      </c>
+      <c r="X68" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>581</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>582</v>
+      </c>
+      <c r="J69" t="s">
+        <v>583</v>
+      </c>
+      <c r="K69" t="s">
+        <v>584</v>
+      </c>
+      <c r="L69" t="s">
+        <v>585</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>586</v>
+      </c>
+      <c r="O69" t="s">
+        <v>61</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>578</v>
+      </c>
+      <c r="X69" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>588</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>589</v>
+      </c>
+      <c r="J70" t="s">
+        <v>590</v>
+      </c>
+      <c r="K70" t="s">
+        <v>591</v>
+      </c>
+      <c r="L70" t="s">
+        <v>592</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>593</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>594</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>595</v>
+      </c>
+      <c r="J71" t="s">
+        <v>596</v>
+      </c>
+      <c r="K71" t="s">
+        <v>597</v>
+      </c>
+      <c r="L71" t="s">
+        <v>598</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>586</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>599</v>
+      </c>
+      <c r="X71" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>602</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>603</v>
+      </c>
+      <c r="J72" t="s">
+        <v>604</v>
+      </c>
+      <c r="K72" t="s">
+        <v>605</v>
+      </c>
+      <c r="L72" t="s">
+        <v>606</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>586</v>
+      </c>
+      <c r="O72" t="s">
+        <v>80</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>607</v>
+      </c>
+      <c r="X72" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>610</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>611</v>
+      </c>
+      <c r="J73" t="s">
+        <v>612</v>
+      </c>
+      <c r="K73" t="s">
+        <v>613</v>
+      </c>
+      <c r="L73" t="s">
+        <v>614</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>551</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>615</v>
+      </c>
+      <c r="X73" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>618</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>619</v>
+      </c>
+      <c r="J74" t="s">
+        <v>620</v>
+      </c>
+      <c r="K74" t="s">
+        <v>621</v>
+      </c>
+      <c r="L74" t="s">
+        <v>622</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>593</v>
+      </c>
+      <c r="O74" t="s">
+        <v>80</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>623</v>
+      </c>
+      <c r="X74" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>626</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>627</v>
+      </c>
+      <c r="J75" t="s">
+        <v>628</v>
+      </c>
+      <c r="K75" t="s">
+        <v>629</v>
+      </c>
+      <c r="L75" t="s">
+        <v>630</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>631</v>
+      </c>
+      <c r="O75" t="s">
+        <v>80</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>632</v>
+      </c>
+      <c r="X75" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>635</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>636</v>
+      </c>
+      <c r="J76" t="s">
+        <v>637</v>
+      </c>
+      <c r="K76" t="s">
+        <v>638</v>
+      </c>
+      <c r="L76" t="s">
+        <v>639</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>640</v>
+      </c>
+      <c r="X76" t="s">
+        <v>641</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>643</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>644</v>
+      </c>
+      <c r="J77" t="s">
+        <v>645</v>
+      </c>
+      <c r="K77" t="s">
+        <v>646</v>
+      </c>
+      <c r="L77" t="s">
+        <v>647</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>551</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>648</v>
+      </c>
+      <c r="X77" t="s">
+        <v>649</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>651</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>652</v>
+      </c>
+      <c r="J78" t="s">
+        <v>653</v>
+      </c>
+      <c r="K78" t="s">
+        <v>654</v>
+      </c>
+      <c r="L78" t="s">
+        <v>655</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>656</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>657</v>
+      </c>
+      <c r="X78" t="s">
+        <v>658</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>660</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>661</v>
+      </c>
+      <c r="J79" t="s">
+        <v>662</v>
+      </c>
+      <c r="K79" t="s">
+        <v>663</v>
+      </c>
+      <c r="L79" t="s">
+        <v>664</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>551</v>
+      </c>
+      <c r="O79" t="s">
+        <v>61</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>665</v>
+      </c>
+      <c r="X79" t="s">
+        <v>666</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>668</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>669</v>
+      </c>
+      <c r="J80" t="s">
+        <v>670</v>
+      </c>
+      <c r="K80" t="s">
+        <v>671</v>
+      </c>
+      <c r="L80" t="s">
+        <v>672</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>673</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>674</v>
+      </c>
+      <c r="X80" t="s">
+        <v>675</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>677</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>678</v>
+      </c>
+      <c r="J81" t="s">
+        <v>679</v>
+      </c>
+      <c r="K81" t="s">
+        <v>680</v>
+      </c>
+      <c r="L81" t="s">
+        <v>681</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>682</v>
+      </c>
+      <c r="O81" t="s">
+        <v>80</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>683</v>
+      </c>
+      <c r="X81" t="s">
+        <v>684</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>686</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>687</v>
+      </c>
+      <c r="J82" t="s">
+        <v>679</v>
+      </c>
+      <c r="K82" t="s">
+        <v>688</v>
+      </c>
+      <c r="L82" t="s">
+        <v>689</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>673</v>
+      </c>
+      <c r="O82" t="s">
+        <v>61</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>683</v>
+      </c>
+      <c r="X82" t="s">
+        <v>684</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>691</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>692</v>
+      </c>
+      <c r="J83" t="s">
+        <v>693</v>
+      </c>
+      <c r="K83" t="s">
+        <v>694</v>
+      </c>
+      <c r="L83" t="s">
+        <v>695</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>682</v>
+      </c>
+      <c r="O83" t="s">
+        <v>120</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>696</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>697</v>
+      </c>
+      <c r="J84" t="s">
+        <v>698</v>
+      </c>
+      <c r="K84" t="s">
+        <v>699</v>
+      </c>
+      <c r="L84" t="s">
+        <v>700</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>682</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>701</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>702</v>
+      </c>
+      <c r="J85" t="s">
+        <v>703</v>
+      </c>
+      <c r="K85" t="s">
+        <v>704</v>
+      </c>
+      <c r="L85" t="s">
+        <v>705</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>706</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>707</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>708</v>
+      </c>
+      <c r="J86" t="s">
+        <v>709</v>
+      </c>
+      <c r="K86" t="s">
+        <v>710</v>
+      </c>
+      <c r="L86" t="s">
+        <v>711</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>706</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>713</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>714</v>
+      </c>
+      <c r="J87" t="s">
+        <v>715</v>
+      </c>
+      <c r="K87" t="s">
+        <v>716</v>
+      </c>
+      <c r="L87" t="s">
+        <v>717</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>718</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>719</v>
+      </c>
+      <c r="X87" t="s">
+        <v>720</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>722</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>723</v>
+      </c>
+      <c r="J88" t="s">
+        <v>724</v>
+      </c>
+      <c r="K88" t="s">
+        <v>725</v>
+      </c>
+      <c r="L88" t="s">
+        <v>726</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>727</v>
+      </c>
+      <c r="O88" t="s">
+        <v>80</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>728</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>729</v>
+      </c>
+      <c r="J89" t="s">
+        <v>730</v>
+      </c>
+      <c r="K89" t="s">
+        <v>731</v>
+      </c>
+      <c r="L89" t="s">
+        <v>732</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>733</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>735</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>736</v>
+      </c>
+      <c r="J90" t="s">
+        <v>737</v>
+      </c>
+      <c r="K90" t="s">
+        <v>738</v>
+      </c>
+      <c r="L90" t="s">
+        <v>739</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>740</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>741</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>742</v>
+      </c>
+      <c r="J91" t="s">
+        <v>743</v>
+      </c>
+      <c r="K91" t="s">
+        <v>744</v>
+      </c>
+      <c r="L91" t="s">
+        <v>745</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>727</v>
+      </c>
+      <c r="O91" t="s">
+        <v>80</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>746</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>747</v>
+      </c>
+      <c r="J92" t="s">
+        <v>748</v>
+      </c>
+      <c r="K92" t="s">
+        <v>749</v>
+      </c>
+      <c r="L92" t="s">
+        <v>750</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>751</v>
+      </c>
+      <c r="O92" t="s">
+        <v>80</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>752</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>753</v>
+      </c>
+      <c r="J93" t="s">
+        <v>754</v>
+      </c>
+      <c r="K93" t="s">
+        <v>755</v>
+      </c>
+      <c r="L93" t="s">
+        <v>756</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>757</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>758</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>759</v>
+      </c>
+      <c r="J94" t="s">
+        <v>760</v>
+      </c>
+      <c r="K94" t="s">
+        <v>761</v>
+      </c>
+      <c r="L94" t="s">
+        <v>762</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>763</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>764</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>765</v>
+      </c>
+      <c r="J95" t="s">
+        <v>766</v>
+      </c>
+      <c r="K95" t="s">
+        <v>767</v>
+      </c>
+      <c r="L95" t="s">
+        <v>768</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="s">
+        <v>769</v>
+      </c>
+      <c r="O95" t="s">
+        <v>80</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>770</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>771</v>
+      </c>
+      <c r="J96" t="s">
+        <v>772</v>
+      </c>
+      <c r="K96" t="s">
+        <v>773</v>
+      </c>
+      <c r="L96" t="s">
+        <v>774</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>775</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>776</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>777</v>
+      </c>
+      <c r="J97" t="s">
+        <v>778</v>
+      </c>
+      <c r="K97" t="s">
+        <v>779</v>
+      </c>
+      <c r="L97" t="s">
+        <v>780</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="s">
+        <v>781</v>
+      </c>
+      <c r="O97" t="s">
+        <v>61</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>1</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>783</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>784</v>
+      </c>
+      <c r="J98" t="s">
+        <v>785</v>
+      </c>
+      <c r="K98" t="s">
+        <v>786</v>
+      </c>
+      <c r="L98" t="s">
+        <v>787</v>
+      </c>
+      <c r="M98" t="n">
+        <v>3</v>
+      </c>
+      <c r="N98" t="s">
+        <v>788</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="n">
+        <v>3</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>789</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>790</v>
+      </c>
+      <c r="J99" t="s">
+        <v>791</v>
+      </c>
+      <c r="K99" t="s">
+        <v>792</v>
+      </c>
+      <c r="L99" t="s">
+        <v>793</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>794</v>
+      </c>
+      <c r="O99" t="s">
+        <v>80</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>795</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>796</v>
+      </c>
+      <c r="J100" t="s">
+        <v>797</v>
+      </c>
+      <c r="K100" t="s">
+        <v>798</v>
+      </c>
+      <c r="L100" t="s">
+        <v>799</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="s">
+        <v>788</v>
+      </c>
+      <c r="O100" t="s">
+        <v>61</v>
+      </c>
+      <c r="P100" t="s"/>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>1</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>800</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>801</v>
+      </c>
+      <c r="J101" t="s">
+        <v>802</v>
+      </c>
+      <c r="K101" t="s">
+        <v>803</v>
+      </c>
+      <c r="L101" t="s">
+        <v>804</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s"/>
+      <c r="O101" t="s"/>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>805</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>806</v>
+      </c>
+      <c r="J102" t="s">
+        <v>807</v>
+      </c>
+      <c r="K102" t="s">
+        <v>808</v>
+      </c>
+      <c r="L102" t="s">
+        <v>809</v>
+      </c>
+      <c r="M102" t="n">
+        <v>3</v>
+      </c>
+      <c r="N102" t="s">
+        <v>810</v>
+      </c>
+      <c r="O102" t="s">
+        <v>80</v>
+      </c>
+      <c r="P102" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>4</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>2</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>811</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>812</v>
+      </c>
+      <c r="J103" t="s">
+        <v>813</v>
+      </c>
+      <c r="K103" t="s">
+        <v>814</v>
+      </c>
+      <c r="L103" t="s">
+        <v>815</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3</v>
+      </c>
+      <c r="N103" t="s">
+        <v>816</v>
+      </c>
+      <c r="O103" t="s">
+        <v>80</v>
+      </c>
+      <c r="P103" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>3</v>
+      </c>
+      <c r="R103" t="n">
+        <v>3</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>818</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>819</v>
+      </c>
+      <c r="J104" t="s">
+        <v>820</v>
+      </c>
+      <c r="K104" t="s">
+        <v>821</v>
+      </c>
+      <c r="L104" t="s">
+        <v>822</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>823</v>
+      </c>
+      <c r="O104" t="s">
+        <v>53</v>
+      </c>
+      <c r="P104" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>3</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>4</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>825</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>826</v>
+      </c>
+      <c r="J105" t="s">
+        <v>827</v>
+      </c>
+      <c r="K105" t="s">
+        <v>828</v>
+      </c>
+      <c r="L105" t="s">
+        <v>829</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="s">
+        <v>823</v>
+      </c>
+      <c r="O105" t="s">
+        <v>80</v>
+      </c>
+      <c r="P105" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>1</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>1</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>1</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>831</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>832</v>
+      </c>
+      <c r="J106" t="s">
+        <v>833</v>
+      </c>
+      <c r="K106" t="s">
+        <v>834</v>
+      </c>
+      <c r="L106" t="s">
+        <v>835</v>
+      </c>
+      <c r="M106" t="n">
+        <v>2</v>
+      </c>
+      <c r="N106" t="s">
+        <v>836</v>
+      </c>
+      <c r="O106" t="s">
+        <v>53</v>
+      </c>
+      <c r="P106" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>3</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>3</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>1</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>838</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>839</v>
+      </c>
+      <c r="J107" t="s">
+        <v>840</v>
+      </c>
+      <c r="K107" t="s">
+        <v>841</v>
+      </c>
+      <c r="L107" t="s">
+        <v>842</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4</v>
+      </c>
+      <c r="N107" t="s">
+        <v>843</v>
+      </c>
+      <c r="O107" t="s">
+        <v>80</v>
+      </c>
+      <c r="P107" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>4</v>
+      </c>
+      <c r="R107" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>4</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>845</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>846</v>
+      </c>
+      <c r="J108" t="s">
+        <v>847</v>
+      </c>
+      <c r="K108" t="s">
+        <v>848</v>
+      </c>
+      <c r="L108" t="s">
+        <v>849</v>
+      </c>
+      <c r="M108" t="n">
+        <v>3</v>
+      </c>
+      <c r="N108" t="s">
+        <v>850</v>
+      </c>
+      <c r="O108" t="s">
+        <v>53</v>
+      </c>
+      <c r="P108" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>3</v>
+      </c>
+      <c r="R108" t="n">
+        <v>4</v>
+      </c>
+      <c r="S108" t="n">
+        <v>3</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>852</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>853</v>
+      </c>
+      <c r="J109" t="s">
+        <v>854</v>
+      </c>
+      <c r="K109" t="s">
+        <v>855</v>
+      </c>
+      <c r="L109" t="s">
+        <v>856</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s">
+        <v>857</v>
+      </c>
+      <c r="O109" t="s">
+        <v>53</v>
+      </c>
+      <c r="P109" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>4</v>
+      </c>
+      <c r="R109" t="n">
+        <v>5</v>
+      </c>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>4</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>858</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>859</v>
+      </c>
+      <c r="J110" t="s">
+        <v>860</v>
+      </c>
+      <c r="K110" t="s">
+        <v>861</v>
+      </c>
+      <c r="L110" t="s">
+        <v>862</v>
+      </c>
+      <c r="M110" t="n">
+        <v>4</v>
+      </c>
+      <c r="N110" t="s"/>
+      <c r="O110" t="s"/>
+      <c r="P110" t="s"/>
+      <c r="Q110" t="s"/>
+      <c r="R110" t="s"/>
+      <c r="S110" t="s"/>
+      <c r="T110" t="s"/>
+      <c r="U110" t="s"/>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>864</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>865</v>
+      </c>
+      <c r="J111" t="s">
+        <v>866</v>
+      </c>
+      <c r="K111" t="s">
+        <v>867</v>
+      </c>
+      <c r="L111" t="s">
+        <v>868</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="s">
+        <v>869</v>
+      </c>
+      <c r="O111" t="s">
+        <v>80</v>
+      </c>
+      <c r="P111" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>1</v>
+      </c>
+      <c r="R111" t="s"/>
+      <c r="S111" t="n">
+        <v>1</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>1</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>35090</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>871</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>872</v>
+      </c>
+      <c r="J112" t="s">
+        <v>873</v>
+      </c>
+      <c r="K112" t="s">
+        <v>874</v>
+      </c>
+      <c r="L112" t="s">
+        <v>875</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5</v>
+      </c>
+      <c r="N112" t="s"/>
+      <c r="O112" t="s"/>
+      <c r="P112" t="s"/>
+      <c r="Q112" t="s"/>
+      <c r="R112" t="s"/>
+      <c r="S112" t="s"/>
+      <c r="T112" t="s"/>
+      <c r="U112" t="s"/>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>876</v>
       </c>
     </row>
   </sheetData>
